--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1740" windowWidth="34815" windowHeight="18615" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="1740" windowWidth="34815" windowHeight="18615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -981,6 +981,12 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>scan 1</t>
+  </si>
+  <si>
+    <t>scan 2</t>
   </si>
 </sst>
 </file>
@@ -1129,6 +1135,3938 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.667000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P102</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.930999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P103</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23.8095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.667000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P104</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51.7241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.758600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P105</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.714299999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P106</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51.7241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.310299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P107</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23.8095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.952399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P108</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48.2759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48.2759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.2857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.746200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48.2759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.862099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P113</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>38.095199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.952399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P114</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44.827599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.310299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Listening Info'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P115</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Listening Info'!$B$33:$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>scan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Listening Info'!$B$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.047599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.1905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="258800664"/>
+        <c:axId val="190449296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="258800664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190449296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190449296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258800664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Listening Info'!$M$3:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>12.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Listening Info'!$H$3:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>66.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.758600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.714299999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.310299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.952399999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.746200000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.862099999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.952399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.310299999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.1905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338263600"/>
+        <c:axId val="338263992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338263600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Number of Listens</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338263992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338263992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Final Lyric Modification</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338263600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Listening Info'!$M$3:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>12.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Listening Info'!$K$3:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91.304299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.652199999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.304299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.304299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.959599999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.608699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.608699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.652199999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.956500000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.652199999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.652199999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="342342568"/>
+        <c:axId val="342341000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="342342568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Number of Listens</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342341000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="342341000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Melody Memory Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342342568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>853280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1055688</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39689</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,11 +5332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1408,32 +5346,32 @@
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="12" width="15.5" customWidth="1"/>
+    <col min="11" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M1" s="18" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N1" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V1" s="20"/>
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
-    </row>
-    <row r="2" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="20"/>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1470,56 +5408,56 @@
       <c r="L2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>52</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>42</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>2</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>132</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>122</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>142</v>
       </c>
-      <c r="S2" s="7">
+      <c r="T2" s="7">
         <v>92</v>
       </c>
-      <c r="T2" s="7">
+      <c r="U2" s="7">
         <v>62</v>
       </c>
-      <c r="U2" s="9">
+      <c r="V2" s="9">
         <v>22</v>
       </c>
-      <c r="V2" s="10">
+      <c r="W2" s="10">
         <v>32</v>
       </c>
-      <c r="W2" s="10">
+      <c r="X2" s="10">
         <v>12</v>
       </c>
-      <c r="X2" s="10">
+      <c r="Y2" s="10">
         <v>72</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Z2" s="11">
         <v>112</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AA2" s="11">
         <v>152</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AB2" s="11">
         <v>102</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AC2" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1551,39 +5489,43 @@
         <v>112</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <f>AVERAGE(N3:AC3)</f>
+        <v>12.125</v>
       </c>
       <c r="N3">
         <v>13</v>
       </c>
       <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
         <v>12</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>13</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <v>12</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>10</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>13</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
         <v>11</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="13"/>
+      <c r="V3" s="12"/>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
-      <c r="Y3" s="14"/>
+      <c r="Y3" s="13"/>
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="14"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1617,15 +5559,16 @@
       <c r="L4">
         <v>58</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="M4">
+        <f t="shared" ref="M4:M16" si="0">AVERAGE(N4:AC4)</f>
+        <v>14.375</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="12">
+      <c r="U4" s="8"/>
+      <c r="V4" s="12">
         <v>16</v>
-      </c>
-      <c r="V4" s="13">
-        <v>14</v>
       </c>
       <c r="W4" s="13">
         <v>14</v>
@@ -1633,20 +5576,23 @@
       <c r="X4" s="13">
         <v>14</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="13">
         <v>14</v>
       </c>
       <c r="Z4" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="14">
         <v>13</v>
-      </c>
-      <c r="AA4" s="14">
-        <v>15</v>
       </c>
       <c r="AB4" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1681,39 +5627,43 @@
         <v>99</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>19.25</v>
       </c>
       <c r="N5">
         <v>21</v>
       </c>
       <c r="O5">
+        <v>21</v>
+      </c>
+      <c r="P5">
         <v>20</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>18</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>18</v>
       </c>
-      <c r="R5" s="8">
+      <c r="S5" s="8">
         <v>19</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>18</v>
       </c>
-      <c r="T5" s="8">
+      <c r="U5" s="8">
         <v>19</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
+      <c r="V5" s="12"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="14"/>
+      <c r="Y5" s="13"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1747,36 +5697,40 @@
       <c r="L6">
         <v>100</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>20.375</v>
+      </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="12">
+      <c r="U6" s="8"/>
+      <c r="V6" s="12">
         <v>21</v>
       </c>
-      <c r="V6" s="13">
+      <c r="W6" s="13">
         <v>22</v>
       </c>
-      <c r="W6" s="13">
+      <c r="X6" s="13">
         <v>23</v>
       </c>
-      <c r="X6" s="13">
+      <c r="Y6" s="13">
         <v>21</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Z6" s="14">
         <v>19</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AA6" s="14">
         <v>21</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>18</v>
       </c>
       <c r="AB6" s="14">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1808,39 +5762,43 @@
         <v>82</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N7">
         <v>18</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>18</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>16</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>18</v>
-      </c>
-      <c r="R7" s="8">
-        <v>16</v>
       </c>
       <c r="S7" s="8">
         <v>16</v>
       </c>
       <c r="T7" s="8">
+        <v>16</v>
+      </c>
+      <c r="U7" s="8">
         <v>17</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="13"/>
+      <c r="V7" s="12"/>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
-      <c r="Y7" s="14"/>
+      <c r="Y7" s="13"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="14"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1874,36 +5832,40 @@
       <c r="L8">
         <v>94</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="12">
+      <c r="U8" s="8"/>
+      <c r="V8" s="12">
         <v>21</v>
       </c>
-      <c r="V8" s="13">
+      <c r="W8" s="13">
         <v>18</v>
       </c>
-      <c r="W8" s="13">
+      <c r="X8" s="13">
         <v>19</v>
       </c>
-      <c r="X8" s="13">
-        <v>18</v>
-      </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="13">
         <v>18</v>
       </c>
       <c r="Z8" s="14">
         <v>18</v>
       </c>
       <c r="AA8" s="14">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="14">
         <v>17</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AC8" s="14">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1938,39 +5900,43 @@
         <v>119</v>
       </c>
       <c r="M9">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="N9">
         <v>7</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>7</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>8</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>6</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
         <v>7</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
+      <c r="V9" s="12"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="13"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="14"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -2004,36 +5970,40 @@
       <c r="L10">
         <v>118</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>9.875</v>
+      </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="12">
+      <c r="U10" s="8"/>
+      <c r="V10" s="12">
         <v>10</v>
-      </c>
-      <c r="V10" s="13">
-        <v>12</v>
       </c>
       <c r="W10" s="13">
         <v>12</v>
       </c>
       <c r="X10" s="13">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="13">
         <v>10</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Z10" s="14">
         <v>8</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AA10" s="14">
         <v>7</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AB10" s="14">
         <v>9</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AC10" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2067,24 +6037,25 @@
       <c r="L11">
         <v>108</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="12">
+      <c r="U11" s="8"/>
+      <c r="V11" s="12">
         <v>11</v>
       </c>
-      <c r="V11" s="13">
+      <c r="W11" s="13">
         <v>11</v>
       </c>
-      <c r="W11" s="13">
+      <c r="X11" s="13">
         <v>12</v>
       </c>
-      <c r="X11" s="13">
+      <c r="Y11" s="13">
         <v>11</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>10</v>
       </c>
       <c r="Z11" s="14">
         <v>10</v>
@@ -2093,10 +6064,13 @@
         <v>10</v>
       </c>
       <c r="AB11" s="14">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2128,22 +6102,23 @@
         <v>132</v>
       </c>
       <c r="M12">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+      <c r="N12">
         <v>15</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>16</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>11</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>13</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>17</v>
-      </c>
-      <c r="R12" s="8">
-        <v>14</v>
       </c>
       <c r="S12" s="8">
         <v>14</v>
@@ -2151,16 +6126,19 @@
       <c r="T12" s="8">
         <v>14</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="13"/>
+      <c r="U12" s="8">
+        <v>14</v>
+      </c>
+      <c r="V12" s="12"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
-      <c r="Y12" s="14"/>
+      <c r="Y12" s="13"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="14"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -2191,36 +6169,40 @@
       <c r="L13">
         <v>89</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="12">
+      <c r="U13" s="8"/>
+      <c r="V13" s="12">
         <v>12</v>
       </c>
-      <c r="V13" s="13">
+      <c r="W13" s="13">
         <v>12</v>
       </c>
-      <c r="W13" s="13">
+      <c r="X13" s="13">
         <v>11</v>
       </c>
-      <c r="X13" s="13">
+      <c r="Y13" s="13">
         <v>10</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Z13" s="14">
         <v>9</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AA13" s="14">
         <v>7</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AB13" s="14">
         <v>9</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AC13" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -2255,10 +6237,11 @@
         <v>112</v>
       </c>
       <c r="M14">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="N14">
         <v>7</v>
-      </c>
-      <c r="N14">
-        <v>9</v>
       </c>
       <c r="O14">
         <v>9</v>
@@ -2266,28 +6249,31 @@
       <c r="P14">
         <v>9</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14">
         <v>9</v>
       </c>
       <c r="R14" s="8">
         <v>9</v>
       </c>
       <c r="S14" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T14" s="8">
         <v>8</v>
       </c>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
+      <c r="U14" s="8">
+        <v>8</v>
+      </c>
+      <c r="V14" s="12"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
+      <c r="Y14" s="13"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="14"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -2321,36 +6307,40 @@
       <c r="L15">
         <v>127</v>
       </c>
-      <c r="Q15" s="8"/>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>17.125</v>
+      </c>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
-      <c r="U15" s="12">
+      <c r="U15" s="8"/>
+      <c r="V15" s="12">
         <v>16</v>
       </c>
-      <c r="V15" s="13">
+      <c r="W15" s="13">
         <v>17</v>
       </c>
-      <c r="W15" s="13">
+      <c r="X15" s="13">
         <v>19</v>
       </c>
-      <c r="X15" s="13">
+      <c r="Y15" s="13">
         <v>17</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Z15" s="14">
         <v>16</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>18</v>
       </c>
       <c r="AA15" s="14">
         <v>18</v>
       </c>
       <c r="AB15" s="14">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -2385,56 +6375,60 @@
         <v>113</v>
       </c>
       <c r="M16">
+        <f>AVERAGE(N16:AC16)</f>
+        <v>12.625</v>
+      </c>
+      <c r="N16">
         <v>14</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>12</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>13</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>12</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>11</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>16</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>11</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <v>12</v>
       </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="13"/>
+      <c r="V16" s="12"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
+      <c r="Y16" s="13"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
-    </row>
-    <row r="17" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="R17" s="4" t="s">
+      <c r="AC16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S17" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="8:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H18">
         <f>AVERAGE(H3:H16)</f>
         <v>82.244364285714269</v>
@@ -2443,279 +6437,570 @@
         <f>AVERAGE(K3:K16)</f>
         <v>92.475371428571435</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>9</v>
       </c>
-      <c r="R18">
-        <f>AVERAGE(Q3:T3)</f>
+      <c r="S18">
+        <f>AVERAGE(R3:U3)</f>
         <v>11.5</v>
       </c>
-      <c r="S18" s="15">
+      <c r="T18" s="15">
         <v>13</v>
       </c>
-      <c r="T18" s="15">
+      <c r="U18" s="15">
         <v>10</v>
       </c>
-      <c r="U18" s="15">
+      <c r="V18" s="15">
         <v>11</v>
       </c>
-      <c r="V18" s="15">
+      <c r="W18" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q19" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="R19" t="s">
         <v>10</v>
       </c>
-      <c r="R19">
-        <f>AVERAGE(Y4:AB4)</f>
+      <c r="S19">
+        <f>AVERAGE(Z4:AC4)</f>
         <v>14.25</v>
       </c>
-      <c r="S19" s="15">
+      <c r="T19" s="15">
         <v>15</v>
       </c>
-      <c r="T19" s="17">
+      <c r="U19" s="17">
         <v>13</v>
       </c>
-      <c r="U19" s="15">
+      <c r="V19" s="15">
         <v>15</v>
       </c>
-      <c r="V19" s="15">
+      <c r="W19" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q20" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>37.930999999999997</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="R20" t="s">
         <v>11</v>
       </c>
-      <c r="R20">
-        <f>AVERAGE(Q5:T5)</f>
+      <c r="S20">
+        <f>AVERAGE(R5:U5)</f>
         <v>18.5</v>
       </c>
-      <c r="S20" s="15">
+      <c r="T20" s="15">
         <v>18</v>
-      </c>
-      <c r="T20" s="15">
-        <v>19</v>
       </c>
       <c r="U20" s="15">
         <v>19</v>
       </c>
       <c r="V20" s="15">
+        <v>19</v>
+      </c>
+      <c r="W20" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q21" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>23.8095</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+      <c r="G21" s="2">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="R21" t="s">
         <v>12</v>
       </c>
-      <c r="R21">
-        <f>AVERAGE(Y6:AB6)</f>
+      <c r="S21">
+        <f>AVERAGE(Z6:AC6)</f>
         <v>19</v>
       </c>
-      <c r="S21" s="15">
+      <c r="T21" s="15">
         <v>18</v>
       </c>
-      <c r="T21" s="15">
+      <c r="U21" s="15">
         <v>21</v>
       </c>
-      <c r="U21" s="17">
+      <c r="V21" s="17">
         <v>18</v>
       </c>
-      <c r="V21" s="17">
+      <c r="W21" s="17">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q22" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>51.7241</v>
+      </c>
+      <c r="C22">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22" s="3">
+        <v>82.758600000000001</v>
+      </c>
+      <c r="R22" t="s">
         <v>13</v>
       </c>
-      <c r="R22">
-        <f>AVERAGE(Q7:T7)</f>
+      <c r="S22">
+        <f>AVERAGE(R7:U7)</f>
         <v>16.75</v>
-      </c>
-      <c r="S22" s="15">
-        <v>16</v>
       </c>
       <c r="T22" s="15">
         <v>16</v>
       </c>
       <c r="U22" s="15">
+        <v>16</v>
+      </c>
+      <c r="V22" s="15">
         <v>17</v>
       </c>
-      <c r="V22" s="15">
+      <c r="W22" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q23" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>85.714299999999994</v>
+      </c>
+      <c r="R23" t="s">
         <v>14</v>
       </c>
-      <c r="R23">
-        <f>AVERAGE(Y8:AB8)</f>
+      <c r="S23">
+        <f>AVERAGE(Z8:AC8)</f>
         <v>18</v>
       </c>
-      <c r="S23" s="15">
+      <c r="T23" s="15">
         <v>17</v>
       </c>
-      <c r="T23" s="15">
+      <c r="U23" s="15">
         <v>18</v>
       </c>
-      <c r="U23" s="15">
+      <c r="V23" s="15">
         <v>19</v>
       </c>
-      <c r="V23" s="15">
+      <c r="W23" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q24" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>51.7241</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>79.310299999999998</v>
+      </c>
+      <c r="R24" t="s">
         <v>15</v>
       </c>
-      <c r="R24">
-        <f>AVERAGE(Q9:T9)</f>
+      <c r="S24">
+        <f>AVERAGE(R9:U9)</f>
         <v>7</v>
       </c>
-      <c r="S24" s="15">
+      <c r="T24" s="15">
         <v>6</v>
       </c>
-      <c r="T24" s="15">
+      <c r="U24" s="15">
         <v>8</v>
-      </c>
-      <c r="U24" s="15">
-        <v>7</v>
       </c>
       <c r="V24" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q25" t="s">
+      <c r="W24" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>23.8095</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25" s="3">
+        <v>80.952399999999997</v>
+      </c>
+      <c r="R25" t="s">
         <v>198</v>
       </c>
-      <c r="R25">
-        <f>AVERAGE(Y10:AB10)</f>
+      <c r="S25">
+        <f>AVERAGE(Z10:AC10)</f>
         <v>8.75</v>
       </c>
-      <c r="S25" s="15">
+      <c r="T25" s="15">
         <v>9</v>
       </c>
-      <c r="T25" s="15">
+      <c r="U25" s="15">
         <v>7</v>
       </c>
-      <c r="U25" s="15">
+      <c r="V25" s="15">
         <v>11</v>
       </c>
-      <c r="V25" s="15">
+      <c r="W25" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q26" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26">
+        <v>48.2759</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <v>80</v>
+      </c>
+      <c r="F26">
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>86.29</v>
+      </c>
+      <c r="R26" t="s">
         <v>199</v>
       </c>
-      <c r="R26">
-        <f>AVERAGE(Y11:AB11)</f>
+      <c r="S26">
+        <f>AVERAGE(Z11:AC11)</f>
         <v>9.75</v>
-      </c>
-      <c r="S26" s="15">
-        <v>10</v>
       </c>
       <c r="T26" s="15">
         <v>10</v>
       </c>
       <c r="U26" s="15">
+        <v>10</v>
+      </c>
+      <c r="V26" s="15">
         <v>9</v>
       </c>
-      <c r="V26" s="15">
+      <c r="W26" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="S27" s="16"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27">
+        <v>48.2759</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
-    </row>
-    <row r="28" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q28" t="s">
+      <c r="W27" s="16"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>14.2857</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>90.746200000000002</v>
+      </c>
+      <c r="R28" t="s">
         <v>201</v>
       </c>
-      <c r="R28">
-        <f>AVERAGE(Y13:AB13)</f>
+      <c r="S28">
+        <f>AVERAGE(Z13:AC13)</f>
         <v>8.25</v>
-      </c>
-      <c r="S28" s="15">
-        <v>9</v>
       </c>
       <c r="T28" s="15">
         <v>9</v>
       </c>
       <c r="U28" s="15">
+        <v>9</v>
+      </c>
+      <c r="V28" s="15">
         <v>8</v>
       </c>
-      <c r="V28" s="15">
+      <c r="W28" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q29" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29">
+        <v>48.2759</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>70</v>
+      </c>
+      <c r="G29">
+        <v>75.862099999999998</v>
+      </c>
+      <c r="R29" t="s">
         <v>202</v>
       </c>
-      <c r="R29">
-        <f>AVERAGE(Q14:T14)</f>
+      <c r="S29">
+        <f>AVERAGE(R14:U14)</f>
         <v>8.5</v>
       </c>
-      <c r="S29" s="15">
+      <c r="T29" s="15">
         <v>8</v>
       </c>
-      <c r="T29" s="15">
+      <c r="U29" s="15">
         <v>9</v>
       </c>
-      <c r="U29" s="15">
+      <c r="V29" s="15">
         <v>8</v>
       </c>
-      <c r="V29" s="15">
+      <c r="W29" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q30" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30">
+        <v>38.095199999999998</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>80.952399999999997</v>
+      </c>
+      <c r="R30" t="s">
         <v>203</v>
       </c>
-      <c r="R30">
-        <f>AVERAGE(Y15:AB15)</f>
+      <c r="S30">
+        <f>AVERAGE(Z15:AC15)</f>
         <v>17</v>
-      </c>
-      <c r="S30" s="15">
-        <v>18</v>
       </c>
       <c r="T30" s="15">
         <v>18</v>
       </c>
       <c r="U30" s="15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V30" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="S31" s="16"/>
+      <c r="W30" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31">
+        <v>44.827599999999997</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>80</v>
+      </c>
+      <c r="G31">
+        <v>79.310299999999998</v>
+      </c>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
-    </row>
-    <row r="32" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="Q32" t="s">
+      <c r="W31" s="16"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32">
+        <v>19.047599999999999</v>
+      </c>
+      <c r="C32">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>76.1905</v>
+      </c>
+      <c r="R32" t="s">
         <v>200</v>
       </c>
-      <c r="R32">
-        <f>AVERAGE(Q12:T12)</f>
+      <c r="S32">
+        <f>AVERAGE(R12:U12)</f>
         <v>14.75</v>
-      </c>
-      <c r="S32" s="15">
-        <v>14</v>
       </c>
       <c r="T32" s="15">
         <v>14</v>
@@ -2724,49 +7009,81 @@
         <v>14</v>
       </c>
       <c r="V32" s="15">
+        <v>14</v>
+      </c>
+      <c r="W32" s="15">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="S33" s="16"/>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>319</v>
+      </c>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
-    </row>
-    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q34" t="s">
+      <c r="W33" s="16"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
         <v>204</v>
       </c>
-      <c r="R34">
-        <f>AVERAGE(Q16:T16)</f>
+      <c r="S34">
+        <f>AVERAGE(R16:U16)</f>
         <v>12.5</v>
       </c>
-      <c r="S34" s="15">
+      <c r="T34" s="15">
         <v>11</v>
       </c>
-      <c r="T34" s="15">
+      <c r="U34" s="15">
         <v>16</v>
       </c>
-      <c r="U34" s="15">
+      <c r="V34" s="15">
         <v>12</v>
       </c>
-      <c r="V34" s="15">
+      <c r="W34" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="R36">
-        <f>AVERAGE(R18:R34)</f>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>AVERAGE(B19:B32)</f>
+        <v>36.570457142857137</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(G19:G32)</f>
+        <v>82.244364285714269</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f>AVERAGE(S18:S34)</f>
         <v>13.178571428571429</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2777,10 +7094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4551,6 +8868,12 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>AVERAGE(D2:D10,D12:D17)</f>
+        <v>23.733333333333334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1740" windowWidth="34815" windowHeight="18615" tabRatio="500"/>
+    <workbookView xWindow="1125" yWindow="1740" windowWidth="34815" windowHeight="18615" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic Info" sheetId="4" r:id="rId2"/>
-    <sheet name="Group A - pref" sheetId="2" r:id="rId3"/>
-    <sheet name="Group B - pref" sheetId="3" r:id="rId4"/>
+    <sheet name="CBS" sheetId="5" r:id="rId2"/>
+    <sheet name="Demographic Info" sheetId="4" r:id="rId3"/>
+    <sheet name="Group A - pref" sheetId="2" r:id="rId4"/>
+    <sheet name="Group B - pref" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="332">
   <si>
     <t>ID</t>
   </si>
@@ -987,6 +988,42 @@
   </si>
   <si>
     <t>scan 2</t>
+  </si>
+  <si>
+    <t>Paired Associates</t>
+  </si>
+  <si>
+    <t>Polygons</t>
+  </si>
+  <si>
+    <t>Grammatical Reasoning</t>
+  </si>
+  <si>
+    <t>Double Trouble</t>
+  </si>
+  <si>
+    <t>Monkey Ladder</t>
+  </si>
+  <si>
+    <t>Digit Span</t>
+  </si>
+  <si>
+    <t>Token Search</t>
+  </si>
+  <si>
+    <t>Feature Match</t>
+  </si>
+  <si>
+    <t>Spatial Planning</t>
+  </si>
+  <si>
+    <t>Spatial Span</t>
+  </si>
+  <si>
+    <t>Rotations</t>
+  </si>
+  <si>
+    <t>Odd One Out (Max)</t>
   </si>
 </sst>
 </file>
@@ -2318,11 +2355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="258800664"/>
-        <c:axId val="190449296"/>
+        <c:axId val="185487432"/>
+        <c:axId val="185487824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258800664"/>
+        <c:axId val="185487432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190449296"/>
+        <c:crossAx val="185487824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2373,7 +2410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190449296"/>
+        <c:axId val="185487824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2413,7 +2450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258800664"/>
+        <c:crossAx val="185487432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -2620,11 +2657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="338263600"/>
-        <c:axId val="338263992"/>
+        <c:axId val="185488608"/>
+        <c:axId val="187679520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="338263600"/>
+        <c:axId val="185488608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2698,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2728,12 +2764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338263992"/>
+        <c:crossAx val="187679520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338263992"/>
+        <c:axId val="187679520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -2771,7 +2807,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2838,7 +2873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338263600"/>
+        <c:crossAx val="185488608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3044,11 +3079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342342568"/>
-        <c:axId val="342341000"/>
+        <c:axId val="187680304"/>
+        <c:axId val="187680696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342342568"/>
+        <c:axId val="187680304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3120,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3152,12 +3186,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342341000"/>
+        <c:crossAx val="187680696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342341000"/>
+        <c:axId val="187680696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -3190,7 +3224,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3257,7 +3290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342342568"/>
+        <c:crossAx val="187680304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5334,9 +5367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M49" sqref="M49"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5560,7 +5593,7 @@
         <v>58</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M16" si="0">AVERAGE(N4:AC4)</f>
+        <f t="shared" ref="M4:M15" si="0">AVERAGE(N4:AC4)</f>
         <v>14.375</v>
       </c>
       <c r="R4" s="8"/>
@@ -7094,6 +7127,417 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>99</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>143</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>144</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>63</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>144</v>
+      </c>
+      <c r="K9">
+        <v>53</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>144</v>
+      </c>
+      <c r="K10">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>67</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>182</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
@@ -8885,7 +9329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
@@ -10392,7 +10836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -2355,11 +2355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="185487432"/>
-        <c:axId val="185487824"/>
+        <c:axId val="192243384"/>
+        <c:axId val="192248896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185487432"/>
+        <c:axId val="192243384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185487824"/>
+        <c:crossAx val="192248896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2410,7 +2410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185487824"/>
+        <c:axId val="192248896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2450,7 +2450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185487432"/>
+        <c:crossAx val="192243384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -2657,11 +2657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185488608"/>
-        <c:axId val="187679520"/>
+        <c:axId val="81925192"/>
+        <c:axId val="81926256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185488608"/>
+        <c:axId val="81925192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,12 +2764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187679520"/>
+        <c:crossAx val="81926256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187679520"/>
+        <c:axId val="81926256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -2873,7 +2873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185488608"/>
+        <c:crossAx val="81925192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3079,11 +3079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187680304"/>
-        <c:axId val="187680696"/>
+        <c:axId val="81936952"/>
+        <c:axId val="193196576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187680304"/>
+        <c:axId val="81936952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,12 +3186,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187680696"/>
+        <c:crossAx val="193196576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187680696"/>
+        <c:axId val="193196576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -3290,7 +3290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187680304"/>
+        <c:crossAx val="81936952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7130,7 +7130,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7218,11 +7218,83 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>121</v>
+      </c>
+      <c r="K3">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7438,6 +7510,42 @@
       <c r="A11" t="s">
         <v>200</v>
       </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -7484,10 +7592,82 @@
       <c r="A13" t="s">
         <v>202</v>
       </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>203</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>169</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Group A - pref" sheetId="2" r:id="rId4"/>
     <sheet name="Group B - pref" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="337">
   <si>
     <t>ID</t>
   </si>
@@ -1024,6 +1024,21 @@
   </si>
   <si>
     <t>Odd One Out (Max)</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>P120</t>
   </si>
 </sst>
 </file>
@@ -1042,6 +1057,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1084,6 +1100,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2355,11 +2372,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="192243384"/>
-        <c:axId val="192248896"/>
+        <c:axId val="257534872"/>
+        <c:axId val="257535264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192243384"/>
+        <c:axId val="257534872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192248896"/>
+        <c:crossAx val="257535264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2410,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192248896"/>
+        <c:axId val="257535264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2450,7 +2467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192243384"/>
+        <c:crossAx val="257534872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -2657,11 +2674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81925192"/>
-        <c:axId val="81926256"/>
+        <c:axId val="257536048"/>
+        <c:axId val="399433536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81925192"/>
+        <c:axId val="257536048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,12 +2781,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81926256"/>
+        <c:crossAx val="399433536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81926256"/>
+        <c:axId val="399433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -2873,7 +2890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81925192"/>
+        <c:crossAx val="257536048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3079,11 +3096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81936952"/>
-        <c:axId val="193196576"/>
+        <c:axId val="523379272"/>
+        <c:axId val="523379664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81936952"/>
+        <c:axId val="523379272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,12 +3203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193196576"/>
+        <c:crossAx val="523379664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193196576"/>
+        <c:axId val="523379664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -3290,7 +3307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81936952"/>
+        <c:crossAx val="523379272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7127,10 +7144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7709,6 +7726,103 @@
       </c>
       <c r="M15">
         <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>141</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="342">
   <si>
     <t>ID</t>
   </si>
@@ -1039,6 +1039,21 @@
   </si>
   <si>
     <t>P120</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>P122</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>P125</t>
   </si>
 </sst>
 </file>
@@ -2372,11 +2387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="257534872"/>
-        <c:axId val="257535264"/>
+        <c:axId val="185763000"/>
+        <c:axId val="185763392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="257534872"/>
+        <c:axId val="185763000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257535264"/>
+        <c:crossAx val="185763392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257535264"/>
+        <c:axId val="185763392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2467,7 +2482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257534872"/>
+        <c:crossAx val="185763000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -2674,11 +2689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257536048"/>
-        <c:axId val="399433536"/>
+        <c:axId val="185764176"/>
+        <c:axId val="185764568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257536048"/>
+        <c:axId val="185764176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,12 +2796,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399433536"/>
+        <c:crossAx val="185764568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399433536"/>
+        <c:axId val="185764568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -2890,7 +2905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257536048"/>
+        <c:crossAx val="185764176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3096,11 +3111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="523379272"/>
-        <c:axId val="523379664"/>
+        <c:axId val="189046504"/>
+        <c:axId val="189046896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="523379272"/>
+        <c:axId val="189046504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,12 +3218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523379664"/>
+        <c:crossAx val="189046896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="523379664"/>
+        <c:axId val="189046896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -3307,7 +3322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523379272"/>
+        <c:crossAx val="189046504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7144,10 +7159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7814,15 +7829,148 @@
       <c r="A18" t="s">
         <v>334</v>
       </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>121</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>335</v>
       </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>87</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>137</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>146</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\BehaviouralResults\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1740" windowWidth="34815" windowHeight="18615" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13260" yWindow="440" windowWidth="29800" windowHeight="19440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="Group A - pref" sheetId="2" r:id="rId4"/>
     <sheet name="Group B - pref" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="344">
   <si>
     <t>ID</t>
   </si>
@@ -1054,13 +1049,19 @@
   </si>
   <si>
     <t>P125</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>P127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1117,6 +1118,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1142,7 +1150,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1157,7 +1165,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1185,6 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1285,22 +1294,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28.571400000000001</c:v>
+                  <c:v>28.5714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.667000000000002</c:v>
+                  <c:v>66.667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,22 +1375,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>37.930999999999997</c:v>
+                  <c:v>37.931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,19 +1459,19 @@
                   <c:v>23.8095</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.667000000000002</c:v>
+                  <c:v>66.667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,19 +1540,19 @@
                   <c:v>51.7241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.758600000000001</c:v>
+                  <c:v>82.7586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,22 +1618,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33.332999999999998</c:v>
+                  <c:v>33.333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.714299999999994</c:v>
+                  <c:v>85.7143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,19 +1702,19 @@
                   <c:v>51.7241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.310299999999998</c:v>
+                  <c:v>79.3103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,19 +1785,19 @@
                   <c:v>23.8095</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.952399999999997</c:v>
+                  <c:v>80.9524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,16 +1868,16 @@
                   <c:v>48.2759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>86.29</c:v>
@@ -1942,19 +1951,19 @@
                   <c:v>48.2759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,19 +2034,19 @@
                   <c:v>14.2857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.746200000000002</c:v>
+                  <c:v>90.7462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2108,19 +2117,19 @@
                   <c:v>48.2759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.862099999999998</c:v>
+                  <c:v>75.8621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,22 +2197,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>38.095199999999998</c:v>
+                  <c:v>38.0952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.952399999999997</c:v>
+                  <c:v>80.9524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,22 +2281,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44.827599999999997</c:v>
+                  <c:v>44.8276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.310299999999998</c:v>
+                  <c:v>79.3103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,19 +2365,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.047599999999999</c:v>
+                  <c:v>19.0476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>76.1905</c:v>
@@ -2386,12 +2395,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185763000"/>
-        <c:axId val="185763392"/>
+        <c:axId val="2110738408"/>
+        <c:axId val="2110741960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185763000"/>
+        <c:axId val="2110738408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,7 +2444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185763392"/>
+        <c:crossAx val="2110741960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2442,10 +2452,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185763392"/>
+        <c:axId val="2110741960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2482,10 +2492,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185763000"/>
+        <c:crossAx val="2110738408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
+        <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2596,7 +2606,7 @@
                   <c:v>20.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.5</c:v>
@@ -2635,43 +2645,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>66.667000000000002</c:v>
+                  <c:v>66.667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.667000000000002</c:v>
+                  <c:v>66.667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.758600000000001</c:v>
+                  <c:v>82.7586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.714299999999994</c:v>
+                  <c:v>85.7143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.310299999999998</c:v>
+                  <c:v>79.3103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.952399999999997</c:v>
+                  <c:v>80.9524</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>86.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.746200000000002</c:v>
+                  <c:v>90.7462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.862099999999998</c:v>
+                  <c:v>75.8621</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.952399999999997</c:v>
+                  <c:v>80.9524</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79.310299999999998</c:v>
+                  <c:v>79.3103</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>76.1905</c:v>
@@ -2689,11 +2699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185764176"/>
-        <c:axId val="185764568"/>
+        <c:axId val="2113043864"/>
+        <c:axId val="2048456328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185764176"/>
+        <c:axId val="2113043864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,26 +2748,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2796,15 +2786,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185764568"/>
+        <c:crossAx val="2048456328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185764568"/>
+        <c:axId val="2048456328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
+          <c:min val="50.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2847,26 +2837,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2905,7 +2875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185764176"/>
+        <c:crossAx val="2113043864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3018,7 +2988,7 @@
                   <c:v>20.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.5</c:v>
@@ -3057,46 +3027,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>91.304299999999998</c:v>
+                  <c:v>91.3043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.652199999999993</c:v>
+                  <c:v>95.65219999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.304299999999998</c:v>
+                  <c:v>90.3043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.304299999999998</c:v>
+                  <c:v>91.3043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.959599999999995</c:v>
+                  <c:v>86.9596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.608699999999999</c:v>
+                  <c:v>82.6087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.608699999999999</c:v>
+                  <c:v>82.6087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.652199999999993</c:v>
+                  <c:v>95.65219999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.956500000000005</c:v>
+                  <c:v>86.9565</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95.652199999999993</c:v>
+                  <c:v>95.65219999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.652199999999993</c:v>
+                  <c:v>95.65219999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3111,11 +3081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189046504"/>
-        <c:axId val="189046896"/>
+        <c:axId val="2048475688"/>
+        <c:axId val="2048484648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189046504"/>
+        <c:axId val="2048475688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,26 +3130,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3218,15 +3168,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189046896"/>
+        <c:crossAx val="2048484648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189046896"/>
+        <c:axId val="2048484648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
+          <c:min val="50.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3264,26 +3214,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3322,7 +3252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189046504"/>
+        <c:crossAx val="2048475688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5389,7 +5319,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5404,17 +5334,17 @@
       <selection pane="topRight" activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="N1" s="18" t="s">
         <v>196</v>
       </c>
@@ -5436,7 +5366,7 @@
       <c r="AB1" s="20"/>
       <c r="AC1" s="20"/>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5522,7 +5452,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5590,7 +5520,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5657,7 +5587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5728,7 +5658,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5795,7 +5725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5863,7 +5793,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5930,7 +5860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -6001,7 +5931,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -6068,7 +5998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -6135,7 +6065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -6203,7 +6133,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -6267,7 +6197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -6338,7 +6268,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -6405,7 +6335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -6476,7 +6406,7 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="S17" s="4" t="s">
         <v>317</v>
       </c>
@@ -6493,7 +6423,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="H18">
         <f>AVERAGE(H3:H16)</f>
         <v>82.244364285714269</v>
@@ -6522,7 +6452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6564,7 +6494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -6648,7 +6578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -6690,7 +6620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -6732,7 +6662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -6774,7 +6704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -6816,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -6858,7 +6788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -6885,7 +6815,7 @@
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -6927,7 +6857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -6969,7 +6899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -7011,7 +6941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -7038,7 +6968,7 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -7080,7 +7010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23">
       <c r="B33" t="s">
         <v>318</v>
       </c>
@@ -7104,7 +7034,7 @@
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23">
       <c r="R34" t="s">
         <v>204</v>
       </c>
@@ -7125,7 +7055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23">
       <c r="B35">
         <f>AVERAGE(B19:B32)</f>
         <v>36.570457142857137</v>
@@ -7135,7 +7065,7 @@
         <v>82.244364285714269</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23">
       <c r="S36">
         <f>AVERAGE(S18:S34)</f>
         <v>13.178571428571429</v>
@@ -7147,8 +7077,8 @@
     <mergeCell ref="V1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7159,15 +7089,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>320</v>
       </c>
@@ -7205,7 +7135,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7246,7 +7176,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7287,7 +7217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7328,7 +7258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -7369,7 +7299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -7410,12 +7340,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7456,7 +7386,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -7497,7 +7427,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -7538,7 +7468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -7579,7 +7509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -7620,7 +7550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -7661,7 +7591,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -7702,7 +7632,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>204</v>
       </c>
@@ -7743,7 +7673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -7784,7 +7714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>333</v>
       </c>
@@ -7825,7 +7755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>334</v>
       </c>
@@ -7866,7 +7796,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>335</v>
       </c>
@@ -7907,17 +7837,53 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>-4</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>61</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="21" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>338</v>
       </c>
@@ -7958,23 +7924,74 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>341</v>
       </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>121</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7986,9 +8003,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -8093,7 +8110,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -8198,7 +8215,7 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -8299,7 +8316,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
@@ -8402,7 +8419,7 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -8505,7 +8522,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -8606,7 +8623,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -8711,7 +8728,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -8814,7 +8831,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="1" t="s">
         <v>181</v>
       </c>
@@ -8915,7 +8932,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>264</v>
       </c>
@@ -9020,7 +9037,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="6" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>269</v>
       </c>
@@ -9125,7 +9142,7 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>276</v>
       </c>
@@ -9230,7 +9247,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="1" t="s">
         <v>283</v>
       </c>
@@ -9337,7 +9354,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>287</v>
       </c>
@@ -9442,7 +9459,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -9545,7 +9562,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>304</v>
       </c>
@@ -9652,7 +9669,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
         <v>299</v>
       </c>
@@ -9755,7 +9772,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="D19">
         <f>AVERAGE(D2:D10,D12:D17)</f>
         <v>23.733333333333334</v>
@@ -9779,12 +9796,12 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="E1" t="s">
         <v>29</v>
       </c>
@@ -9810,7 +9827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9848,7 +9865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9886,7 +9903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -9924,7 +9941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -9962,7 +9979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -10000,7 +10017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -10038,7 +10055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -10076,7 +10093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -10114,7 +10131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -10152,7 +10169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -10190,7 +10207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -10228,7 +10245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -10266,7 +10283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -10304,7 +10321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -10342,7 +10359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -10380,7 +10397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -10418,7 +10435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -10456,7 +10473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -10494,7 +10511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -10532,7 +10549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -10570,7 +10587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -10608,7 +10625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>205</v>
       </c>
@@ -10652,7 +10669,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
@@ -10696,7 +10713,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
@@ -10740,7 +10757,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>211</v>
       </c>
@@ -10784,7 +10801,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>214</v>
       </c>
@@ -10828,7 +10845,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -10872,7 +10889,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>218</v>
       </c>
@@ -10916,7 +10933,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>220</v>
       </c>
@@ -10960,7 +10977,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>222</v>
       </c>
@@ -11004,7 +11021,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>224</v>
       </c>
@@ -11048,7 +11065,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>226</v>
       </c>
@@ -11092,7 +11109,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>228</v>
       </c>
@@ -11136,7 +11153,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -11180,7 +11197,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>231</v>
       </c>
@@ -11224,7 +11241,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>233</v>
       </c>
@@ -11286,9 +11303,9 @@
       <selection activeCell="A38" sqref="A38:R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="E1" t="s">
         <v>52</v>
       </c>
@@ -11314,7 +11331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -11352,7 +11369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -11390,7 +11407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -11428,7 +11445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -11466,7 +11483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -11504,7 +11521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -11542,7 +11559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -11580,7 +11597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -11618,7 +11635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -11656,7 +11673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -11694,7 +11711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -11732,7 +11749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -11770,7 +11787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -11808,7 +11825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -11846,7 +11863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -11884,7 +11901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>234</v>
       </c>
@@ -11928,7 +11945,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>236</v>
       </c>
@@ -11972,7 +11989,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>238</v>
       </c>
@@ -12016,7 +12033,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>240</v>
       </c>
@@ -12060,7 +12077,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>242</v>
       </c>
@@ -12104,7 +12121,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>243</v>
       </c>
@@ -12148,7 +12165,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>245</v>
       </c>
@@ -12192,7 +12209,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>247</v>
       </c>
@@ -12236,7 +12253,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>249</v>
       </c>
@@ -12280,7 +12297,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>250</v>
       </c>
@@ -12324,7 +12341,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
@@ -12368,7 +12385,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -12412,7 +12429,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>255</v>
       </c>
@@ -12456,7 +12473,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>256</v>
       </c>
@@ -12500,7 +12517,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>257</v>
       </c>
@@ -12544,7 +12561,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>259</v>
       </c>
@@ -12588,7 +12605,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>260</v>
       </c>
@@ -12632,7 +12649,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>261</v>
       </c>
@@ -12676,7 +12693,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>262</v>
       </c>
@@ -12720,7 +12737,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>263</v>
       </c>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="440" windowWidth="29800" windowHeight="19440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="860" windowWidth="29520" windowHeight="21640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="469">
   <si>
     <t>ID</t>
   </si>
@@ -979,12 +979,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>scan 1</t>
-  </si>
-  <si>
-    <t>scan 2</t>
-  </si>
-  <si>
     <t>Paired Associates</t>
   </si>
   <si>
@@ -1054,7 +1048,388 @@
     <t>P126</t>
   </si>
   <si>
-    <t>P127</t>
+    <t>07/05/2018 10:34:48</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Urdu - 3, Arabic - 1</t>
+  </si>
+  <si>
+    <t>15/05/2018 10:04:58</t>
+  </si>
+  <si>
+    <t>15/05/2018</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Guitar, 9 years</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>car speaker</t>
+  </si>
+  <si>
+    <t>22/05/2018 09:04:23</t>
+  </si>
+  <si>
+    <t>22/05/2018</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>English - 4, Spanish - 3</t>
+  </si>
+  <si>
+    <t>08/06/2018 13:37:39</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Farsi (3) and French (2)</t>
+  </si>
+  <si>
+    <t>Saxophone for approx 5 years</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>12/06/2018 13:42:46</t>
+  </si>
+  <si>
+    <t>12/06/2018</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>English - 5, Russian - 5, Turkish - 2</t>
+  </si>
+  <si>
+    <t>Speakers and headphones</t>
+  </si>
+  <si>
+    <t>13/06/2018 10:47:58</t>
+  </si>
+  <si>
+    <t>13/06/2018</t>
+  </si>
+  <si>
+    <t>hindi - 5, punjabi - 4, urdu - 3</t>
+  </si>
+  <si>
+    <t>cell phone</t>
+  </si>
+  <si>
+    <t>06/06/2018 10:37:53</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>kazakh</t>
+  </si>
+  <si>
+    <t>english (5) russian (5) french 1</t>
+  </si>
+  <si>
+    <t>piano 1 year</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>03/07/2018 11:36:23</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Piano (8 years), clarinet (1 year)</t>
+  </si>
+  <si>
+    <t>29/06/2018 14:39:59</t>
+  </si>
+  <si>
+    <t>29/06/2018</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Engilsh</t>
+  </si>
+  <si>
+    <t>Voice, 3 years</t>
+  </si>
+  <si>
+    <t>19/06/2018 09:38:32</t>
+  </si>
+  <si>
+    <t>19/06/2018</t>
+  </si>
+  <si>
+    <t>spanish -1</t>
+  </si>
+  <si>
+    <t>bass 1 year, piano 1 year</t>
+  </si>
+  <si>
+    <t>computer, record player</t>
+  </si>
+  <si>
+    <t>28/06/2018 12:06:47</t>
+  </si>
+  <si>
+    <t>28/06/2018</t>
+  </si>
+  <si>
+    <t>French -1</t>
+  </si>
+  <si>
+    <t>Piano, 10 years Voice, 3 years</t>
+  </si>
+  <si>
+    <t>22/05/2018 12:37:41</t>
+  </si>
+  <si>
+    <t>23/05/2018 11:59:26</t>
+  </si>
+  <si>
+    <t>23/05/2018</t>
+  </si>
+  <si>
+    <t>29/05/2018 11:44:27</t>
+  </si>
+  <si>
+    <t>29/05/2018</t>
+  </si>
+  <si>
+    <t>30/05/2018 10:48:16</t>
+  </si>
+  <si>
+    <t>30/05/2018</t>
+  </si>
+  <si>
+    <t>05/06/2018 16:03:16</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>13/06/2018 13:21:09</t>
+  </si>
+  <si>
+    <t>15/06/2018 13:42:44</t>
+  </si>
+  <si>
+    <t>15/06/2018</t>
+  </si>
+  <si>
+    <t>20/06/2018 13:03:54</t>
+  </si>
+  <si>
+    <t>20/06/2018</t>
+  </si>
+  <si>
+    <t>22/06/2018 13:21:07</t>
+  </si>
+  <si>
+    <t>22/06/2018</t>
+  </si>
+  <si>
+    <t>25/06/2018 14:48:59</t>
+  </si>
+  <si>
+    <t>25/06/2018</t>
+  </si>
+  <si>
+    <t>06/07/2018 14:21:25</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>10/07/2018 12:45:05</t>
+  </si>
+  <si>
+    <t>10/07/2018</t>
+  </si>
+  <si>
+    <t>13/07/2018 12:44:29</t>
+  </si>
+  <si>
+    <t>13/07/2018</t>
+  </si>
+  <si>
+    <t>20/07/2018 10:45:51</t>
+  </si>
+  <si>
+    <t>20/07/2018</t>
+  </si>
+  <si>
+    <t>23/07/2018 11:36:26</t>
+  </si>
+  <si>
+    <t>23/07/2018</t>
+  </si>
+  <si>
+    <t>20/06/2018 12:11:10</t>
+  </si>
+  <si>
+    <t>25/06/2018 11:40:05</t>
+  </si>
+  <si>
+    <t>28/06/2018 11:15:15</t>
+  </si>
+  <si>
+    <t>04/07/2018 11:03:05</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>09/07/2018 14:16:22</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>14/05/2018 13:21:24</t>
+  </si>
+  <si>
+    <t>14/05/2018</t>
+  </si>
+  <si>
+    <t>17/05/2018 13:35:36</t>
+  </si>
+  <si>
+    <t>17/05/2018</t>
+  </si>
+  <si>
+    <t>22/05/2018 13:09:56</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>24/05/2018 13:10:34</t>
+  </si>
+  <si>
+    <t>24/05/2018</t>
+  </si>
+  <si>
+    <t>29/05/2018 13:08:53</t>
+  </si>
+  <si>
+    <t>25/05/2018 09:16:57</t>
+  </si>
+  <si>
+    <t>07/07/1991</t>
+  </si>
+  <si>
+    <t>29/05/2018 11:35:34</t>
+  </si>
+  <si>
+    <t>01/06/2018 13:05:25</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>05/06/2018 09:12:12</t>
+  </si>
+  <si>
+    <t>08/06/2018 10:43:16</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>15/06/2018 14:09:21</t>
+  </si>
+  <si>
+    <t>22/06/2018 14:34:07</t>
+  </si>
+  <si>
+    <t>25/06/2018 14:10:14</t>
+  </si>
+  <si>
+    <t>27/06/2018 11:12:27</t>
+  </si>
+  <si>
+    <t>27/06/2018</t>
+  </si>
+  <si>
+    <t>29/06/2018 14:49:16</t>
+  </si>
+  <si>
+    <t>12/06/2018 15:41:08</t>
+  </si>
+  <si>
+    <t>15/06/2018 14:56:51</t>
+  </si>
+  <si>
+    <t>22/06/2018 16:02:39</t>
+  </si>
+  <si>
+    <t>27/06/2018 10:35:32</t>
+  </si>
+  <si>
+    <t>29/06/2018 12:30:30</t>
+  </si>
+  <si>
+    <t>04/07/2018 10:24:27</t>
+  </si>
+  <si>
+    <t>06/07/2018 14:39:30</t>
+  </si>
+  <si>
+    <t>11/07/2018 12:17:04</t>
+  </si>
+  <si>
+    <t>11/07/2018</t>
+  </si>
+  <si>
+    <t>13/07/2018 13:08:58</t>
+  </si>
+  <si>
+    <t>18/07/2018 11:31:22</t>
+  </si>
+  <si>
+    <t>18/07/2018</t>
+  </si>
+  <si>
+    <t>09/07/2018 12:11:58</t>
+  </si>
+  <si>
+    <t>11/07/2018 13:08:10</t>
+  </si>
+  <si>
+    <t>16/07/2018 12:16:41</t>
+  </si>
+  <si>
+    <t>16/07/2018</t>
+  </si>
+  <si>
+    <t>19/07/2018 12:26:16</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
   </si>
 </sst>
 </file>
@@ -1158,14 +1533,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1182,8 +1571,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1193,13 +1582,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1213,3855 +1615,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P101</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>28.5714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66.667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P102</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$20:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>37.931</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P103</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$21:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>23.8095</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66.667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P104</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$22:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>51.7241</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.7586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P105</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$23:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>33.333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.7143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P106</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$24:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>51.7241</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.3103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P107</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$25:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>23.8095</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.9524</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P108</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$26:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>48.2759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P110</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$27:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>48.2759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P111</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$28:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>14.2857</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90.7462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P112</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$29:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>48.2759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75.8621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P113</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$30:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>38.0952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.9524</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P114</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$31:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>44.8276</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.3103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Listening Info'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P115</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Listening Info'!$B$33:$G$33</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>scan 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>scan 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Listening Info'!$B$32:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>19.0476</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.1905</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2110738408"/>
-        <c:axId val="2110741960"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2110738408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2110741960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2110741960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2110738408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="20.0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Listening Info'!$M$3:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>12.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Listening Info'!$H$3:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>66.667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.7586</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.7143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.3103</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80.9524</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86.29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.7462</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75.8621</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80.9524</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.3103</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76.1905</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2113043864"/>
-        <c:axId val="2048456328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2113043864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Number of Listens</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2048456328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2048456328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="50.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Final Lyric Modification</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Score</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2113043864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Listening Info'!$M$3:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>12.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Listening Info'!$K$3:$K$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>91.3043</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.65219999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.3043</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.3043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86.9596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>82.6087</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.6087</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.65219999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>86.9565</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>95.65219999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95.65219999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2048475688"/>
-        <c:axId val="2048484648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2048475688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Number of Listens</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2048484648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2048484648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="50.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Melody Memory Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2048475688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>607218</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>853280</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1055688</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>39689</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>33339</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5319,7 +1872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5327,11 +1880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6406,669 +2959,866 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
-    <row r="17" spans="1:23">
-      <c r="S17" s="4" t="s">
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>330</v>
+      </c>
+      <c r="L17">
+        <v>95</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18">
+        <v>99</v>
+      </c>
+      <c r="N18">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>19</v>
+      </c>
+      <c r="P18">
+        <v>18</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18" s="8">
+        <v>19</v>
+      </c>
+      <c r="S18" s="8">
+        <v>15</v>
+      </c>
+      <c r="T18" s="8">
+        <v>18</v>
+      </c>
+      <c r="U18" s="8">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19">
+        <v>111</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20">
+        <v>129</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>11</v>
+      </c>
+      <c r="R20" s="8">
+        <v>11</v>
+      </c>
+      <c r="S20" s="8">
+        <v>10</v>
+      </c>
+      <c r="T20" s="8">
+        <v>11</v>
+      </c>
+      <c r="U20" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="L21">
+        <v>113</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21">
+        <v>9</v>
+      </c>
+      <c r="W21">
+        <v>14</v>
+      </c>
+      <c r="X21">
+        <v>12</v>
+      </c>
+      <c r="Y21">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>11</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="L22">
+        <v>121</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22">
+        <v>19</v>
+      </c>
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22">
+        <v>22</v>
+      </c>
+      <c r="Y22">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>16</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>17</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>337</v>
+      </c>
+      <c r="L23">
+        <v>88</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23" s="8">
+        <v>5</v>
+      </c>
+      <c r="S23" s="8">
+        <v>4</v>
+      </c>
+      <c r="T23" s="8">
+        <v>8</v>
+      </c>
+      <c r="U23" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
+        <v>338</v>
+      </c>
+      <c r="L24">
+        <v>103</v>
+      </c>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="L25">
+        <v>109</v>
+      </c>
+      <c r="N25">
+        <v>11</v>
+      </c>
+      <c r="O25">
+        <v>15</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25" s="8">
+        <v>10</v>
+      </c>
+      <c r="S25" s="8">
+        <v>10</v>
+      </c>
+      <c r="T25" s="8">
+        <v>10</v>
+      </c>
+      <c r="U25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s">
+        <v>340</v>
+      </c>
+      <c r="L26">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="R27" t="s">
+        <v>316</v>
+      </c>
+      <c r="S27" t="s">
+        <v>314</v>
+      </c>
+      <c r="T27" t="s">
+        <v>313</v>
+      </c>
+      <c r="U27" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="S29" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
-      <c r="H18">
-        <f>AVERAGE(H3:H16)</f>
-        <v>82.244364285714269</v>
-      </c>
-      <c r="K18">
-        <f>AVERAGE(K3:K16)</f>
-        <v>92.475371428571435</v>
-      </c>
-      <c r="R18" t="s">
+    <row r="30" spans="1:29">
+      <c r="R30" t="s">
         <v>9</v>
       </c>
-      <c r="S18">
+      <c r="S30">
         <f>AVERAGE(R3:U3)</f>
         <v>11.5</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T30" s="15">
         <v>13</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U30" s="15">
         <v>10</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V30" s="15">
         <v>11</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W30" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>28.571400000000001</v>
-      </c>
-      <c r="C19">
-        <v>60</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>80</v>
-      </c>
-      <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19">
-        <v>66.667000000000002</v>
-      </c>
-      <c r="R19" t="s">
+    <row r="31" spans="1:29">
+      <c r="R31" t="s">
         <v>10</v>
       </c>
-      <c r="S19">
+      <c r="S31">
         <f>AVERAGE(Z4:AC4)</f>
         <v>14.25</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T31" s="15">
         <v>15</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U31" s="16">
         <v>13</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V31" s="15">
         <v>15</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W31" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>37.930999999999997</v>
-      </c>
-      <c r="C20">
-        <v>80</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="R20" t="s">
+    <row r="32" spans="1:29">
+      <c r="R32" t="s">
         <v>11</v>
       </c>
-      <c r="S20">
+      <c r="S32">
         <f>AVERAGE(R5:U5)</f>
         <v>18.5</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T32" s="15">
         <v>18</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U32" s="15">
         <v>19</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V32" s="15">
         <v>19</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W32" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>23.8095</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>70</v>
-      </c>
-      <c r="F21">
-        <v>90</v>
-      </c>
-      <c r="G21" s="2">
-        <v>66.667000000000002</v>
-      </c>
-      <c r="R21" t="s">
+    <row r="33" spans="18:23">
+      <c r="R33" t="s">
         <v>12</v>
       </c>
-      <c r="S21">
+      <c r="S33">
         <f>AVERAGE(Z6:AC6)</f>
         <v>19</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T33" s="15">
         <v>18</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U33" s="15">
         <v>21</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V33" s="16">
         <v>18</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W33" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>51.7241</v>
-      </c>
-      <c r="C22">
-        <v>70</v>
-      </c>
-      <c r="D22">
-        <v>90</v>
-      </c>
-      <c r="E22">
-        <v>80</v>
-      </c>
-      <c r="F22">
-        <v>90</v>
-      </c>
-      <c r="G22" s="3">
-        <v>82.758600000000001</v>
-      </c>
-      <c r="R22" t="s">
+    <row r="34" spans="18:23">
+      <c r="R34" t="s">
         <v>13</v>
       </c>
-      <c r="S22">
+      <c r="S34">
         <f>AVERAGE(R7:U7)</f>
         <v>16.75</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T34" s="15">
         <v>16</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U34" s="15">
         <v>16</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V34" s="15">
         <v>17</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W34" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="C23">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>80</v>
-      </c>
-      <c r="F23">
-        <v>80</v>
-      </c>
-      <c r="G23">
-        <v>85.714299999999994</v>
-      </c>
-      <c r="R23" t="s">
+    <row r="35" spans="18:23">
+      <c r="R35" t="s">
         <v>14</v>
       </c>
-      <c r="S23">
+      <c r="S35">
         <f>AVERAGE(Z8:AC8)</f>
         <v>18</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T35" s="15">
         <v>17</v>
       </c>
-      <c r="U23" s="15">
+      <c r="U35" s="15">
         <v>18</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V35" s="15">
         <v>19</v>
       </c>
-      <c r="W23" s="15">
+      <c r="W35" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24">
-        <v>51.7241</v>
-      </c>
-      <c r="C24">
-        <v>90</v>
-      </c>
-      <c r="D24">
-        <v>80</v>
-      </c>
-      <c r="E24">
-        <v>80</v>
-      </c>
-      <c r="F24">
-        <v>60</v>
-      </c>
-      <c r="G24">
-        <v>79.310299999999998</v>
-      </c>
-      <c r="R24" t="s">
+    <row r="36" spans="18:23">
+      <c r="R36" t="s">
         <v>15</v>
       </c>
-      <c r="S24">
+      <c r="S36">
         <f>AVERAGE(R9:U9)</f>
         <v>7</v>
       </c>
-      <c r="T24" s="15">
+      <c r="T36" s="15">
         <v>6</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U36" s="15">
         <v>8</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V36" s="15">
         <v>7</v>
       </c>
-      <c r="W24" s="15">
+      <c r="W36" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25">
-        <v>23.8095</v>
-      </c>
-      <c r="C25">
-        <v>70</v>
-      </c>
-      <c r="D25">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <v>70</v>
-      </c>
-      <c r="G25" s="3">
-        <v>80.952399999999997</v>
-      </c>
-      <c r="R25" t="s">
+    <row r="37" spans="18:23">
+      <c r="R37" t="s">
         <v>198</v>
       </c>
-      <c r="S25">
+      <c r="S37">
         <f>AVERAGE(Z10:AC10)</f>
         <v>8.75</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T37" s="15">
         <v>9</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U37" s="15">
         <v>7</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V37" s="15">
         <v>11</v>
       </c>
-      <c r="W25" s="15">
+      <c r="W37" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26">
-        <v>48.2759</v>
-      </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>90</v>
-      </c>
-      <c r="E26">
-        <v>80</v>
-      </c>
-      <c r="F26">
-        <v>70</v>
-      </c>
-      <c r="G26">
-        <v>86.29</v>
-      </c>
-      <c r="R26" t="s">
+    <row r="38" spans="18:23">
+      <c r="R38" t="s">
         <v>199</v>
       </c>
-      <c r="S26">
+      <c r="S38">
         <f>AVERAGE(Z11:AC11)</f>
         <v>9.75</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T38" s="15">
         <v>10</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U38" s="15">
         <v>10</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V38" s="15">
         <v>9</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W38" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27">
-        <v>48.2759</v>
-      </c>
-      <c r="C27">
-        <v>80</v>
-      </c>
-      <c r="D27">
-        <v>90</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="F27">
-        <v>90</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
+    <row r="39" spans="18:23">
+      <c r="R39" t="s">
         <v>200</v>
       </c>
-      <c r="B28">
-        <v>14.2857</v>
-      </c>
-      <c r="C28">
-        <v>40</v>
-      </c>
-      <c r="D28">
-        <v>50</v>
-      </c>
-      <c r="E28">
-        <v>50</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>90.746200000000002</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="S39">
+        <f>AVERAGE(R12:U12)</f>
+        <v>14.75</v>
+      </c>
+      <c r="T39" s="15">
+        <v>14</v>
+      </c>
+      <c r="U39" s="15">
+        <v>14</v>
+      </c>
+      <c r="V39" s="15">
+        <v>14</v>
+      </c>
+      <c r="W39" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="18:23">
+      <c r="R40" t="s">
         <v>201</v>
       </c>
-      <c r="S28">
+      <c r="S40">
         <f>AVERAGE(Z13:AC13)</f>
         <v>8.25</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T40" s="15">
         <v>9</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U40" s="15">
         <v>9</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V40" s="15">
         <v>8</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W40" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29">
-        <v>48.2759</v>
-      </c>
-      <c r="C29">
-        <v>70</v>
-      </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29">
-        <v>60</v>
-      </c>
-      <c r="F29">
-        <v>70</v>
-      </c>
-      <c r="G29">
-        <v>75.862099999999998</v>
-      </c>
-      <c r="R29" t="s">
+    <row r="41" spans="18:23">
+      <c r="R41" t="s">
         <v>202</v>
       </c>
-      <c r="S29">
+      <c r="S41">
         <f>AVERAGE(R14:U14)</f>
         <v>8.5</v>
       </c>
-      <c r="T29" s="15">
+      <c r="T41" s="15">
         <v>8</v>
       </c>
-      <c r="U29" s="15">
+      <c r="U41" s="15">
         <v>9</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V41" s="15">
         <v>8</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W41" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30">
-        <v>38.095199999999998</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>60</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <v>40</v>
-      </c>
-      <c r="G30">
-        <v>80.952399999999997</v>
-      </c>
-      <c r="R30" t="s">
+    <row r="42" spans="18:23">
+      <c r="R42" t="s">
         <v>203</v>
       </c>
-      <c r="S30">
+      <c r="S42">
         <f>AVERAGE(Z15:AC15)</f>
         <v>17</v>
       </c>
-      <c r="T30" s="15">
+      <c r="T42" s="15">
         <v>18</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U42" s="15">
         <v>18</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V42" s="15">
         <v>16</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W42" s="15">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
-      <c r="A31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31">
-        <v>44.827599999999997</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>80</v>
-      </c>
-      <c r="E31">
-        <v>70</v>
-      </c>
-      <c r="F31">
-        <v>80</v>
-      </c>
-      <c r="G31">
-        <v>79.310299999999998</v>
-      </c>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
+    <row r="43" spans="18:23">
+      <c r="R43" t="s">
         <v>204</v>
       </c>
-      <c r="B32">
-        <v>19.047599999999999</v>
-      </c>
-      <c r="C32">
-        <v>70</v>
-      </c>
-      <c r="D32">
-        <v>70</v>
-      </c>
-      <c r="E32">
-        <v>60</v>
-      </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <v>76.1905</v>
-      </c>
-      <c r="R32" t="s">
-        <v>200</v>
-      </c>
-      <c r="S32">
-        <f>AVERAGE(R12:U12)</f>
-        <v>14.75</v>
-      </c>
-      <c r="T32" s="15">
-        <v>14</v>
-      </c>
-      <c r="U32" s="15">
-        <v>14</v>
-      </c>
-      <c r="V32" s="15">
-        <v>14</v>
-      </c>
-      <c r="W32" s="15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23">
-      <c r="B33" t="s">
-        <v>318</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>319</v>
-      </c>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-    </row>
-    <row r="34" spans="2:23">
-      <c r="R34" t="s">
-        <v>204</v>
-      </c>
-      <c r="S34">
+      <c r="S43">
         <f>AVERAGE(R16:U16)</f>
         <v>12.5</v>
       </c>
-      <c r="T34" s="15">
+      <c r="T43" s="15">
         <v>11</v>
       </c>
-      <c r="U34" s="15">
+      <c r="U43" s="15">
         <v>16</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V43" s="15">
         <v>12</v>
       </c>
-      <c r="W34" s="15">
+      <c r="W43" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:23">
-      <c r="B35">
-        <f>AVERAGE(B19:B32)</f>
-        <v>36.570457142857137</v>
-      </c>
-      <c r="G35">
-        <f>AVERAGE(G19:G32)</f>
-        <v>82.244364285714269</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="S36">
-        <f>AVERAGE(S18:S34)</f>
-        <v>13.178571428571429</v>
+    <row r="44" spans="18:23">
+      <c r="R44" t="s">
+        <v>330</v>
+      </c>
+      <c r="S44">
+        <f>AVERAGE(Z17:AC17)</f>
+        <v>6.25</v>
+      </c>
+      <c r="T44" s="15">
+        <v>6</v>
+      </c>
+      <c r="U44" s="15">
+        <v>6</v>
+      </c>
+      <c r="V44" s="15">
+        <v>7</v>
+      </c>
+      <c r="W44" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="18:23">
+      <c r="R45" t="s">
+        <v>331</v>
+      </c>
+      <c r="S45">
+        <f>AVERAGE(R18:U18)</f>
+        <v>17.75</v>
+      </c>
+      <c r="T45" s="15">
+        <v>18</v>
+      </c>
+      <c r="U45" s="15">
+        <v>15</v>
+      </c>
+      <c r="V45" s="15">
+        <v>19</v>
+      </c>
+      <c r="W45" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="18:23">
+      <c r="R46" t="s">
+        <v>332</v>
+      </c>
+      <c r="S46">
+        <f>AVERAGE(Z19:AC19)</f>
+        <v>3.75</v>
+      </c>
+      <c r="T46" s="15">
+        <v>5</v>
+      </c>
+      <c r="U46" s="15">
+        <v>3</v>
+      </c>
+      <c r="V46" s="15">
+        <v>1</v>
+      </c>
+      <c r="W46" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="18:23">
+      <c r="R47" t="s">
+        <v>333</v>
+      </c>
+      <c r="S47">
+        <f>AVERAGE(R20:U20)</f>
+        <v>11</v>
+      </c>
+      <c r="T47" s="15">
+        <v>11</v>
+      </c>
+      <c r="U47" s="15">
+        <v>10</v>
+      </c>
+      <c r="V47" s="15">
+        <v>12</v>
+      </c>
+      <c r="W47" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="18:23">
+      <c r="R48" t="s">
+        <v>334</v>
+      </c>
+      <c r="S48">
+        <f>AVERAGE(Z21:AC21)</f>
+        <v>10.5</v>
+      </c>
+      <c r="T48" s="15">
+        <v>10</v>
+      </c>
+      <c r="U48" s="15">
+        <v>11</v>
+      </c>
+      <c r="V48" s="15">
+        <v>11</v>
+      </c>
+      <c r="W48" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="18:23">
+      <c r="R49" t="s">
+        <v>336</v>
+      </c>
+      <c r="S49">
+        <f>AVERAGE(Z22:AC22)</f>
+        <v>16.25</v>
+      </c>
+      <c r="T49" s="15">
+        <v>17</v>
+      </c>
+      <c r="U49" s="15">
+        <v>16</v>
+      </c>
+      <c r="V49" s="15">
+        <v>17</v>
+      </c>
+      <c r="W49" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="18:23">
+      <c r="R50" t="s">
+        <v>337</v>
+      </c>
+      <c r="S50">
+        <f>AVERAGE(R23:U23)</f>
+        <v>6</v>
+      </c>
+      <c r="T50" s="15">
+        <v>8</v>
+      </c>
+      <c r="U50" s="15">
+        <v>4</v>
+      </c>
+      <c r="V50" s="15">
+        <v>7</v>
+      </c>
+      <c r="W50" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="18:23">
+      <c r="R51" t="s">
+        <v>338</v>
+      </c>
+      <c r="S51">
+        <f>AVERAGE(Z24:AC24)</f>
+        <v>3.75</v>
+      </c>
+      <c r="T51" s="15">
+        <v>3</v>
+      </c>
+      <c r="U51" s="15">
+        <v>3</v>
+      </c>
+      <c r="V51" s="15">
+        <v>6</v>
+      </c>
+      <c r="W51" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="18:23">
+      <c r="R52" t="s">
+        <v>339</v>
+      </c>
+      <c r="S52">
+        <f>AVERAGE(R25:U25)</f>
+        <v>10</v>
+      </c>
+      <c r="T52" s="15">
+        <v>10</v>
+      </c>
+      <c r="U52" s="15">
+        <v>10</v>
+      </c>
+      <c r="V52" s="15">
+        <v>10</v>
+      </c>
+      <c r="W52" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="18:23">
+      <c r="R53" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -7078,7 +3828,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7089,50 +3838,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
         <v>320</v>
       </c>
-      <c r="C1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>321</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>322</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>323</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>324</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>325</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>326</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>327</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>328</v>
-      </c>
-      <c r="L1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7675,7 +4424,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -7716,7 +4465,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -7757,7 +4506,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -7798,7 +4547,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -7839,7 +4588,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -7879,13 +4628,13 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="21" t="s">
-        <v>337</v>
+      <c r="A21" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -7926,17 +4675,89 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>95</v>
+      </c>
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -7977,12 +4798,43 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>37</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>132</v>
+      </c>
+      <c r="K26">
+        <v>54</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7997,10 +4849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9772,11 +6624,1156 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="1">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="1">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+    </row>
     <row r="19" spans="1:39">
-      <c r="D19">
-        <f>AVERAGE(D2:D10,D12:D17)</f>
-        <v>23.733333333333334</v>
-      </c>
+      <c r="A19" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="1">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="1">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="1">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="1">
+        <v>7</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="1">
+        <v>119</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="1">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+    </row>
+    <row r="23" spans="1:39" s="6" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="5">
+        <v>121</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="5">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
+        <v>6</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>7</v>
+      </c>
+      <c r="AG23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="1">
+        <v>122</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="1">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" s="1">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="1">
+        <v>6</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="1">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="1">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="1">
+        <v>7</v>
+      </c>
+      <c r="N26" s="1">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" s="1">
+        <v>125</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="1">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="A28" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28" s="1">
+        <v>126</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D28" s="1">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
+        <v>7</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9790,10 +7787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11284,6 +9281,886 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45" s="1">
+        <v>117</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" s="1">
+        <v>117</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" s="1">
+        <v>117</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" s="1">
+        <v>117</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B49" s="1">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B51" s="1">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>4</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B52" s="1">
+        <v>119</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="1">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B54" s="1">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B55" s="1">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>5</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B57" s="1">
+        <v>123</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>3</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" s="1">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1">
+        <v>3</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" s="1">
+        <v>123</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B60" s="1">
+        <v>123</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>3</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" s="1">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1">
+        <v>3</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" s="1">
+        <v>125</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" s="1">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3</v>
+      </c>
+      <c r="J64" s="1">
+        <v>3</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B65" s="1">
+        <v>125</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>3</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B66" s="1">
+        <v>125</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>3</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B67" s="1">
+        <v>125</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11297,10 +10174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:R42"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12780,6 +11657,1280 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B44" s="1">
+        <v>116</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B45" s="1">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B46" s="1">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B47" s="1">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" s="1">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B50" s="1">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51" s="1">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="1">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" s="1">
+        <v>118</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B54" s="1">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B56" s="1">
+        <v>120</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>3</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B57" s="1">
+        <v>120</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2</v>
+      </c>
+      <c r="K57" s="1">
+        <v>3</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B58" s="1">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1">
+        <v>3</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B59" s="1">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B60" s="1">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B62" s="1">
+        <v>122</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="1">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>3</v>
+      </c>
+      <c r="K63" s="1">
+        <v>3</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64" s="1">
+        <v>122</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2</v>
+      </c>
+      <c r="K64" s="1">
+        <v>3</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B65" s="1">
+        <v>122</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2</v>
+      </c>
+      <c r="K65" s="1">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B66" s="1">
+        <v>122</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>3</v>
+      </c>
+      <c r="J66" s="1">
+        <v>3</v>
+      </c>
+      <c r="K66" s="1">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" s="1">
+        <v>124</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>3</v>
+      </c>
+      <c r="J68" s="1">
+        <v>3</v>
+      </c>
+      <c r="K68" s="1">
+        <v>4</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69" s="1">
+        <v>124</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>3</v>
+      </c>
+      <c r="J69" s="1">
+        <v>3</v>
+      </c>
+      <c r="K69" s="1">
+        <v>3</v>
+      </c>
+      <c r="L69" s="1">
+        <v>3</v>
+      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70" s="1">
+        <v>124</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4</v>
+      </c>
+      <c r="I70" s="1">
+        <v>4</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3</v>
+      </c>
+      <c r="K70" s="1">
+        <v>3</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" s="1">
+        <v>124</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>4</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
+        <v>3</v>
+      </c>
+      <c r="K71" s="1">
+        <v>3</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B72" s="1">
+        <v>124</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>2</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B74" s="1">
+        <v>126</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>3</v>
+      </c>
+      <c r="J74" s="1">
+        <v>3</v>
+      </c>
+      <c r="K74" s="1">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B75" s="1">
+        <v>126</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3</v>
+      </c>
+      <c r="J75" s="1">
+        <v>5</v>
+      </c>
+      <c r="K75" s="1">
+        <v>3</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B76" s="1">
+        <v>126</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4</v>
+      </c>
+      <c r="J76" s="1">
+        <v>4</v>
+      </c>
+      <c r="K76" s="1">
+        <v>3</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B77" s="1">
+        <v>126</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4</v>
+      </c>
+      <c r="J77" s="1">
+        <v>5</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\BehaviouralResults\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="860" windowWidth="29520" windowHeight="21640" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="855" windowWidth="29520" windowHeight="21645" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Group A - pref" sheetId="2" r:id="rId4"/>
     <sheet name="Group B - pref" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="471">
   <si>
     <t>ID</t>
   </si>
@@ -1430,6 +1435,12 @@
   </si>
   <si>
     <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>BOLD</t>
+  </si>
+  <si>
+    <t>ISS</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1565,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1582,6 +1593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1872,7 +1884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1882,22 +1894,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N1" s="18" t="s">
         <v>196</v>
       </c>
@@ -1919,7 +1931,7 @@
       <c r="AB1" s="20"/>
       <c r="AC1" s="20"/>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2085,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2096,10 +2108,12 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <f>9/17</f>
+        <v>0.52941176470588236</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <f>11/13</f>
+        <v>0.84615384615384615</v>
       </c>
       <c r="K4">
         <v>95.652199999999993</v>
@@ -2140,7 +2154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2163,10 +2177,12 @@
         <v>66.667000000000002</v>
       </c>
       <c r="I5" s="2">
-        <v>11</v>
+        <f>11/17</f>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <f>7/13</f>
+        <v>0.53846153846153844</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -2211,7 +2227,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2234,10 +2250,12 @@
         <v>82.758600000000001</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <f>16/17</f>
+        <v>0.94117647058823528</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <f>11/13</f>
+        <v>0.84615384615384615</v>
       </c>
       <c r="K6" s="3">
         <v>90.304299999999998</v>
@@ -2278,7 +2296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2301,7 +2319,8 @@
         <v>85.714299999999994</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <f>11/17</f>
+        <v>0.6470588235294118</v>
       </c>
       <c r="K7">
         <v>91.304299999999998</v>
@@ -2346,7 +2365,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2369,10 +2388,12 @@
         <v>79.310299999999998</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <f>11/17</f>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <f>9/13</f>
+        <v>0.69230769230769229</v>
       </c>
       <c r="K8">
         <v>86.959599999999995</v>
@@ -2413,7 +2434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2436,10 +2457,12 @@
         <v>80.952399999999997</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <f>10/17</f>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <f>9/13</f>
+        <v>0.69230769230769229</v>
       </c>
       <c r="K9" s="3">
         <v>82.608699999999999</v>
@@ -2484,7 +2507,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -2507,10 +2530,12 @@
         <v>86.29</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <f>12/17</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <f>12/13</f>
+        <v>0.92307692307692313</v>
       </c>
       <c r="K10">
         <v>82.608699999999999</v>
@@ -2551,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2574,10 +2599,12 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <f>12/17</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <f>10/13</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="K11">
         <v>95.652199999999993</v>
@@ -2618,7 +2645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2638,10 +2665,12 @@
         <v>90.746200000000002</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <f>11/17</f>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <f>8/13</f>
+        <v>0.61538461538461542</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2686,7 +2715,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -2709,7 +2738,8 @@
         <v>75.862099999999998</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <f>7/13</f>
+        <v>0.53846153846153844</v>
       </c>
       <c r="K13">
         <v>86.956500000000005</v>
@@ -2750,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -2773,10 +2803,12 @@
         <v>80.952399999999997</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <f>12/17</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <f>6/13</f>
+        <v>0.46153846153846156</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -2821,7 +2853,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -2844,10 +2876,12 @@
         <v>79.310299999999998</v>
       </c>
       <c r="I15">
-        <v>17</v>
+        <f>17/17</f>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <f>9/13</f>
+        <v>0.69230769230769229</v>
       </c>
       <c r="K15">
         <v>95.652199999999993</v>
@@ -2888,7 +2922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -2911,10 +2945,12 @@
         <v>76.1905</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <f>15/15</f>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <f>10/13</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="K16">
         <v>95.652199999999993</v>
@@ -2959,12 +2995,45 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>330</v>
       </c>
+      <c r="B17">
+        <v>34.482799999999997</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>58.620699999999999</v>
+      </c>
+      <c r="I17">
+        <f>7/17</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="J17">
+        <f>10/13</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="K17" s="6">
+        <v>52.173900000000003</v>
+      </c>
       <c r="L17">
         <v>95</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M26" si="1">AVERAGE(N17:AC17)</f>
+        <v>6.75</v>
       </c>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -2995,12 +3064,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>331</v>
       </c>
+      <c r="B18">
+        <v>14.2857</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="H18">
+        <v>95.238100000000003</v>
+      </c>
+      <c r="I18">
+        <f>9/17</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="J18">
+        <f>9/13</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="K18">
+        <v>95.652199999999993</v>
+      </c>
       <c r="L18">
         <v>99</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>18.125</v>
       </c>
       <c r="N18">
         <v>20</v>
@@ -3031,12 +3133,42 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>332</v>
       </c>
+      <c r="B19">
+        <v>51.7241</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="H19">
+        <v>58.620699999999999</v>
+      </c>
+      <c r="I19">
+        <f>9/17</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19">
+        <v>78.260900000000007</v>
+      </c>
       <c r="L19">
         <v>111</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>3.875</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -3067,12 +3199,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
+      <c r="B20">
+        <v>19.047599999999999</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <v>80.952399999999997</v>
+      </c>
+      <c r="I20">
+        <f>12/17</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="J20">
+        <f>9/13</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
       <c r="L20">
         <v>129</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>10.875</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -3103,13 +3268,40 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>334</v>
       </c>
+      <c r="B21">
+        <v>51.7241</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
       <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>65.517200000000003</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21">
+        <v>78.260900000000007</v>
+      </c>
       <c r="L21">
         <v>113</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>10.75</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -3140,13 +3332,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>336</v>
       </c>
+      <c r="B22">
+        <v>27.586200000000002</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
       <c r="G22" s="3"/>
+      <c r="H22" s="2">
+        <v>55.172400000000003</v>
+      </c>
+      <c r="I22">
+        <f>6/13</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J22">
+        <f>7/13</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="K22">
+        <v>78.260900000000007</v>
+      </c>
       <c r="L22">
         <v>121</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>18.25</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -3177,12 +3402,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
+      <c r="B23">
+        <v>52.381</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2">
+        <v>76.1905</v>
+      </c>
+      <c r="I23" s="21">
+        <f>8/11</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23">
+        <v>95.652199999999993</v>
+      </c>
       <c r="L23">
         <v>88</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>6.375</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -3213,12 +3468,45 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>338</v>
       </c>
+      <c r="B24">
+        <v>48.2759</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
+      <c r="H24" s="2">
+        <v>68.965500000000006</v>
+      </c>
+      <c r="I24">
+        <f>11/14</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="J24">
+        <f>6/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K24" s="6">
+        <v>65.217399999999998</v>
+      </c>
       <c r="L24">
         <v>103</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -3249,14 +3537,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>339</v>
       </c>
+      <c r="B25">
+        <v>23.8095</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
       <c r="G25" s="3"/>
+      <c r="H25" s="2">
+        <v>85.714299999999994</v>
+      </c>
+      <c r="I25">
+        <f>14/17</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="J25">
+        <f>3/13</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="K25">
+        <v>91.304299999999998</v>
+      </c>
       <c r="L25">
         <v>109</v>
       </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="N25">
         <v>11</v>
       </c>
@@ -3282,15 +3603,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>340</v>
       </c>
+      <c r="B26">
+        <v>37.930999999999997</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+      <c r="I26">
+        <f>12/17</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="J26">
+        <f>8/13</f>
+        <v>0.61538461538461542</v>
+      </c>
       <c r="L26">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="M26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>316</v>
       </c>
@@ -3316,7 +3664,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S29" s="4" t="s">
         <v>317</v>
       </c>
@@ -3333,7 +3681,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R30" t="s">
         <v>9</v>
       </c>
@@ -3353,8 +3701,14 @@
       <c r="W30" s="15">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="Z30" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>10</v>
       </c>
@@ -3375,7 +3729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R32" t="s">
         <v>11</v>
       </c>
@@ -3396,7 +3750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="18:23">
+    <row r="33" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R33" t="s">
         <v>12</v>
       </c>
@@ -3417,7 +3771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="18:23">
+    <row r="34" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R34" t="s">
         <v>13</v>
       </c>
@@ -3438,7 +3792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="18:23">
+    <row r="35" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="18:23">
+    <row r="36" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R36" t="s">
         <v>15</v>
       </c>
@@ -3480,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="18:23">
+    <row r="37" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
         <v>198</v>
       </c>
@@ -3501,7 +3855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="18:23">
+    <row r="38" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
         <v>199</v>
       </c>
@@ -3522,7 +3876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="18:23">
+    <row r="39" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
         <v>200</v>
       </c>
@@ -3543,7 +3897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="18:23">
+    <row r="40" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R40" t="s">
         <v>201</v>
       </c>
@@ -3564,7 +3918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="18:23">
+    <row r="41" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
         <v>202</v>
       </c>
@@ -3585,7 +3939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="18:23">
+    <row r="42" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R42" t="s">
         <v>203</v>
       </c>
@@ -3606,7 +3960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="18:23">
+    <row r="43" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>204</v>
       </c>
@@ -3627,7 +3981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="18:23">
+    <row r="44" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>330</v>
       </c>
@@ -3648,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="18:23">
+    <row r="45" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>331</v>
       </c>
@@ -3669,7 +4023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="18:23">
+    <row r="46" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>332</v>
       </c>
@@ -3690,7 +4044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="18:23">
+    <row r="47" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
         <v>333</v>
       </c>
@@ -3711,7 +4065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="18:23">
+    <row r="48" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
         <v>334</v>
       </c>
@@ -3732,7 +4086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="18:23">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>336</v>
       </c>
@@ -3753,7 +4107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="18:23">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R50" t="s">
         <v>337</v>
       </c>
@@ -3774,7 +4128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="18:23">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R51" t="s">
         <v>338</v>
       </c>
@@ -3795,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="18:23">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R52" t="s">
         <v>339</v>
       </c>
@@ -3816,7 +4170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="18:23">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R53" t="s">
         <v>340</v>
       </c>
@@ -3827,7 +4181,7 @@
     <mergeCell ref="V1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3844,9 +4198,9 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>318</v>
       </c>
@@ -3884,7 +4238,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3925,7 +4279,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3966,7 +4320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4007,7 +4361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4048,7 +4402,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4089,12 +4443,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4135,7 +4489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -4176,7 +4530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -4217,7 +4571,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -4258,7 +4612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -4299,7 +4653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4340,7 +4694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -4381,7 +4735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>204</v>
       </c>
@@ -4422,7 +4776,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>330</v>
       </c>
@@ -4463,7 +4817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -4504,7 +4858,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -4545,7 +4899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -4586,7 +4940,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>334</v>
       </c>
@@ -4627,12 +4981,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>336</v>
       </c>
@@ -4673,7 +5027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -4714,7 +5068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>338</v>
       </c>
@@ -4755,7 +5109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>339</v>
       </c>
@@ -4796,7 +5150,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>340</v>
       </c>
@@ -4852,12 +5206,12 @@
   <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -4962,7 +5316,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -5067,7 +5421,7 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -5168,7 +5522,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
@@ -5271,7 +5625,7 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -5374,7 +5728,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -5475,7 +5829,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -5580,7 +5934,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -5683,7 +6037,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>181</v>
       </c>
@@ -5784,7 +6138,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>264</v>
       </c>
@@ -5889,7 +6243,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" s="6" customFormat="1">
+    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>269</v>
       </c>
@@ -5994,7 +6348,7 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>276</v>
       </c>
@@ -6099,7 +6453,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>283</v>
       </c>
@@ -6206,7 +6560,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>287</v>
       </c>
@@ -6311,7 +6665,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -6414,7 +6768,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>304</v>
       </c>
@@ -6521,7 +6875,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>299</v>
       </c>
@@ -6624,7 +6978,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>341</v>
       </c>
@@ -6725,7 +7079,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>344</v>
       </c>
@@ -6830,7 +7184,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>351</v>
       </c>
@@ -6933,7 +7287,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>355</v>
       </c>
@@ -7040,7 +7394,7 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>361</v>
       </c>
@@ -7143,7 +7497,7 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" s="6" customFormat="1">
+    <row r="23" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>366</v>
       </c>
@@ -7244,7 +7598,7 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>370</v>
       </c>
@@ -7351,7 +7705,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>376</v>
       </c>
@@ -7458,7 +7812,7 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>379</v>
       </c>
@@ -7565,7 +7919,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>384</v>
       </c>
@@ -7670,7 +8024,7 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>389</v>
       </c>
@@ -7793,12 +8147,12 @@
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>29</v>
       </c>
@@ -7824,7 +8178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7862,7 +8216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -7900,7 +8254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -7938,7 +8292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7976,7 +8330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8014,7 +8368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8052,7 +8406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8090,7 +8444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -8128,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -8166,7 +8520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -8204,7 +8558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -8242,7 +8596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -8280,7 +8634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -8318,7 +8672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -8356,7 +8710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -8394,7 +8748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -8432,7 +8786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -8470,7 +8824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -8508,7 +8862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -8546,7 +8900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -8584,7 +8938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -8622,7 +8976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>205</v>
       </c>
@@ -8666,7 +9020,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
@@ -8710,7 +9064,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
@@ -8754,7 +9108,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>211</v>
       </c>
@@ -8798,7 +9152,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>214</v>
       </c>
@@ -8842,7 +9196,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -8886,7 +9240,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>218</v>
       </c>
@@ -8930,7 +9284,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>220</v>
       </c>
@@ -8974,7 +9328,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>222</v>
       </c>
@@ -9018,7 +9372,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>224</v>
       </c>
@@ -9062,7 +9416,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>226</v>
       </c>
@@ -9106,7 +9460,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>228</v>
       </c>
@@ -9150,7 +9504,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -9194,7 +9548,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>231</v>
       </c>
@@ -9238,7 +9592,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>233</v>
       </c>
@@ -9282,7 +9636,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>393</v>
       </c>
@@ -9326,7 +9680,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>394</v>
       </c>
@@ -9370,7 +9724,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>396</v>
       </c>
@@ -9414,7 +9768,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>398</v>
       </c>
@@ -9458,7 +9812,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>400</v>
       </c>
@@ -9502,7 +9856,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>402</v>
       </c>
@@ -9546,7 +9900,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>403</v>
       </c>
@@ -9590,7 +9944,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>405</v>
       </c>
@@ -9634,7 +9988,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>407</v>
       </c>
@@ -9678,7 +10032,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>409</v>
       </c>
@@ -9722,7 +10076,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>411</v>
       </c>
@@ -9766,7 +10120,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>413</v>
       </c>
@@ -9810,7 +10164,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>415</v>
       </c>
@@ -9854,7 +10208,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>417</v>
       </c>
@@ -9898,7 +10252,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>419</v>
       </c>
@@ -9942,7 +10296,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>421</v>
       </c>
@@ -9986,7 +10340,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>422</v>
       </c>
@@ -10030,7 +10384,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>423</v>
       </c>
@@ -10074,7 +10428,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>424</v>
       </c>
@@ -10118,7 +10472,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>426</v>
       </c>
@@ -10180,9 +10534,9 @@
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>52</v>
       </c>
@@ -10208,7 +10562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10246,7 +10600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -10284,7 +10638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -10322,7 +10676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -10360,7 +10714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -10398,7 +10752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -10436,7 +10790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -10474,7 +10828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -10512,7 +10866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -10550,7 +10904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -10588,7 +10942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -10626,7 +10980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -10664,7 +11018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -10702,7 +11056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -10740,7 +11094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -10778,7 +11132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>234</v>
       </c>
@@ -10822,7 +11176,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>236</v>
       </c>
@@ -10866,7 +11220,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>238</v>
       </c>
@@ -10910,7 +11264,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>240</v>
       </c>
@@ -10954,7 +11308,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>242</v>
       </c>
@@ -10998,7 +11352,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>243</v>
       </c>
@@ -11042,7 +11396,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>245</v>
       </c>
@@ -11086,7 +11440,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>247</v>
       </c>
@@ -11130,7 +11484,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>249</v>
       </c>
@@ -11174,7 +11528,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>250</v>
       </c>
@@ -11218,7 +11572,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
@@ -11262,7 +11616,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -11306,7 +11660,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>255</v>
       </c>
@@ -11350,7 +11704,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>256</v>
       </c>
@@ -11394,7 +11748,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>257</v>
       </c>
@@ -11438,7 +11792,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>259</v>
       </c>
@@ -11482,7 +11836,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>260</v>
       </c>
@@ -11526,7 +11880,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>261</v>
       </c>
@@ -11570,7 +11924,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>262</v>
       </c>
@@ -11614,7 +11968,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>263</v>
       </c>
@@ -11658,7 +12012,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>428</v>
       </c>
@@ -11702,7 +12056,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>430</v>
       </c>
@@ -11746,7 +12100,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>432</v>
       </c>
@@ -11790,7 +12144,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>434</v>
       </c>
@@ -11834,7 +12188,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>436</v>
       </c>
@@ -11878,7 +12232,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>437</v>
       </c>
@@ -11922,7 +12276,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>439</v>
       </c>
@@ -11966,7 +12320,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>440</v>
       </c>
@@ -12010,7 +12364,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>442</v>
       </c>
@@ -12054,7 +12408,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>443</v>
       </c>
@@ -12098,7 +12452,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>445</v>
       </c>
@@ -12142,7 +12496,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>446</v>
       </c>
@@ -12186,7 +12540,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>447</v>
       </c>
@@ -12230,7 +12584,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>448</v>
       </c>
@@ -12274,7 +12628,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>450</v>
       </c>
@@ -12316,7 +12670,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>451</v>
       </c>
@@ -12360,7 +12714,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>452</v>
       </c>
@@ -12404,7 +12758,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>453</v>
       </c>
@@ -12448,7 +12802,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>454</v>
       </c>
@@ -12492,7 +12846,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>455</v>
       </c>
@@ -12536,7 +12890,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>456</v>
       </c>
@@ -12580,7 +12934,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>457</v>
       </c>
@@ -12624,7 +12978,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>458</v>
       </c>
@@ -12668,7 +13022,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>460</v>
       </c>
@@ -12712,7 +13066,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>461</v>
       </c>
@@ -12756,7 +13110,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>463</v>
       </c>
@@ -12800,7 +13154,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>464</v>
       </c>
@@ -12844,7 +13198,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>465</v>
       </c>
@@ -12888,7 +13242,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>467</v>
       </c>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="471">
   <si>
     <t>ID</t>
   </si>
@@ -1526,7 +1526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1541,6 +1541,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1565,7 +1580,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1584,6 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1593,7 +1609,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1894,9 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1910,26 +1935,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3424,7 +3449,7 @@
       <c r="H23" s="2">
         <v>76.1905</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="18">
         <f>8/11</f>
         <v>0.72727272727272729</v>
       </c>
@@ -3622,6 +3647,9 @@
       <c r="F26">
         <v>90</v>
       </c>
+      <c r="H26" s="2">
+        <v>82.758600000000001</v>
+      </c>
       <c r="I26">
         <f>12/17</f>
         <v>0.70588235294117652</v>
@@ -3630,12 +3658,39 @@
         <f>8/13</f>
         <v>0.61538461538461542</v>
       </c>
+      <c r="K26">
+        <v>86.956500000000005</v>
+      </c>
       <c r="L26">
         <v>137</v>
       </c>
-      <c r="M26" t="e">
+      <c r="M26">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+      <c r="V26">
+        <v>9</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>11</v>
+      </c>
+      <c r="Y26">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -4173,6 +4228,22 @@
     <row r="53" spans="18:23" x14ac:dyDescent="0.25">
       <c r="R53" t="s">
         <v>340</v>
+      </c>
+      <c r="S53">
+        <f>AVERAGE(Z26:AC26)</f>
+        <v>9.75</v>
+      </c>
+      <c r="T53" s="15">
+        <v>10</v>
+      </c>
+      <c r="U53" s="15">
+        <v>10</v>
+      </c>
+      <c r="V53" s="15">
+        <v>10</v>
+      </c>
+      <c r="W53" s="15">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5205,7 +5276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -8143,7 +8214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -10528,13 +10599,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
@@ -13242,7 +13316,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>467</v>
       </c>
@@ -13286,8 +13360,53 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
+    <row r="78" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
+        <v>43314.561597222222</v>
+      </c>
+      <c r="B78" s="22">
+        <v>126</v>
+      </c>
+      <c r="C78" s="23">
+        <v>43314</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="22">
+        <v>5</v>
+      </c>
+      <c r="F78" s="22">
+        <v>5</v>
+      </c>
+      <c r="G78" s="22">
+        <v>4</v>
+      </c>
+      <c r="H78" s="22">
+        <v>2</v>
+      </c>
+      <c r="I78" s="22">
+        <v>4</v>
+      </c>
+      <c r="J78" s="22">
+        <v>5</v>
+      </c>
+      <c r="K78" s="22">
+        <v>4</v>
+      </c>
+      <c r="L78" s="22">
+        <v>2</v>
+      </c>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\BehaviouralResults\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="855" windowWidth="29520" windowHeight="21645" tabRatio="500"/>
+    <workbookView xWindow="-28300" yWindow="1200" windowWidth="23660" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1554,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1579,8 +1574,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1600,15 +1603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1619,8 +1613,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1630,6 +1635,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1639,6 +1648,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1909,7 +1922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1919,44 +1932,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
     <col min="11" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N1" s="19" t="s">
+    <row r="1" spans="1:29">
+      <c r="N1" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-    </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2110,7 +2123,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2265,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2390,7 +2403,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2532,7 +2545,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -2601,7 +2614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2670,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2740,7 +2753,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -2805,7 +2818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -2878,7 +2891,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -2947,7 +2960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -3020,76 +3033,76 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:29" s="6" customFormat="1">
+      <c r="A17" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>34.482799999999997</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>50</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>30</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>58.620699999999999</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <f>7/17</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <f>10/13</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="K17" s="6">
         <v>52.173900000000003</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>95</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <f t="shared" ref="M17:M26" si="1">AVERAGE(N17:AC17)</f>
         <v>6.75</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="6">
         <v>7</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="6">
         <v>8</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="6">
         <v>7</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="6">
         <v>7</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="27">
         <v>6</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="27">
         <v>6</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="27">
         <v>6</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AC17" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>331</v>
       </c>
@@ -3158,7 +3171,7 @@
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>332</v>
       </c>
@@ -3224,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -3293,7 +3306,7 @@
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -3357,7 +3370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
         <v>336</v>
       </c>
@@ -3427,7 +3440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -3493,76 +3506,76 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:29" s="6" customFormat="1">
+      <c r="A24" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>48.2759</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>40</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>60</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>40</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>80</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="23">
         <v>68.965500000000006</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <f>11/14</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K24" s="6">
         <v>65.217399999999998</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>103</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24">
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="6">
         <v>6</v>
       </c>
-      <c r="W24">
-        <v>5</v>
-      </c>
-      <c r="X24">
+      <c r="W24" s="6">
+        <v>5</v>
+      </c>
+      <c r="X24" s="6">
         <v>7</v>
       </c>
-      <c r="Y24">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="8">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="8">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="8">
+      <c r="Y24" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="27">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="27">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>339</v>
       </c>
@@ -3628,7 +3641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>340</v>
       </c>
@@ -3693,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29">
       <c r="R27" t="s">
         <v>316</v>
       </c>
@@ -3719,7 +3732,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29">
       <c r="S29" s="4" t="s">
         <v>317</v>
       </c>
@@ -3736,7 +3749,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="R30" t="s">
         <v>9</v>
       </c>
@@ -3763,7 +3776,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29">
       <c r="R31" t="s">
         <v>10</v>
       </c>
@@ -3784,7 +3797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29">
       <c r="R32" t="s">
         <v>11</v>
       </c>
@@ -3805,7 +3818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:23">
       <c r="R33" t="s">
         <v>12</v>
       </c>
@@ -3826,7 +3839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:23">
       <c r="R34" t="s">
         <v>13</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="18:23">
       <c r="R35" t="s">
         <v>14</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="18:23">
       <c r="R36" t="s">
         <v>15</v>
       </c>
@@ -3889,7 +3902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="18:23">
       <c r="R37" t="s">
         <v>198</v>
       </c>
@@ -3910,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="18:23">
       <c r="R38" t="s">
         <v>199</v>
       </c>
@@ -3931,7 +3944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="18:23">
       <c r="R39" t="s">
         <v>200</v>
       </c>
@@ -3952,7 +3965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="18:23">
       <c r="R40" t="s">
         <v>201</v>
       </c>
@@ -3973,7 +3986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="18:23">
       <c r="R41" t="s">
         <v>202</v>
       </c>
@@ -3994,7 +4007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:23">
       <c r="R42" t="s">
         <v>203</v>
       </c>
@@ -4015,7 +4028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="18:23">
       <c r="R43" t="s">
         <v>204</v>
       </c>
@@ -4036,7 +4049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="18:23">
       <c r="R44" t="s">
         <v>330</v>
       </c>
@@ -4044,20 +4057,20 @@
         <f>AVERAGE(Z17:AC17)</f>
         <v>6.25</v>
       </c>
-      <c r="T44" s="15">
+      <c r="T44" s="23">
         <v>6</v>
       </c>
-      <c r="U44" s="15">
+      <c r="U44" s="23">
         <v>6</v>
       </c>
-      <c r="V44" s="15">
+      <c r="V44" s="23">
         <v>7</v>
       </c>
-      <c r="W44" s="15">
+      <c r="W44" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="18:23">
       <c r="R45" t="s">
         <v>331</v>
       </c>
@@ -4078,7 +4091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="18:23">
       <c r="R46" t="s">
         <v>332</v>
       </c>
@@ -4099,7 +4112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="18:23">
       <c r="R47" t="s">
         <v>333</v>
       </c>
@@ -4120,7 +4133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="18:23">
       <c r="R48" t="s">
         <v>334</v>
       </c>
@@ -4141,7 +4154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:23">
       <c r="R49" t="s">
         <v>336</v>
       </c>
@@ -4162,7 +4175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:23">
       <c r="R50" t="s">
         <v>337</v>
       </c>
@@ -4183,7 +4196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:23">
       <c r="R51" t="s">
         <v>338</v>
       </c>
@@ -4191,20 +4204,20 @@
         <f>AVERAGE(Z24:AC24)</f>
         <v>3.75</v>
       </c>
-      <c r="T51" s="15">
-        <v>3</v>
-      </c>
-      <c r="U51" s="15">
-        <v>3</v>
-      </c>
-      <c r="V51" s="15">
+      <c r="T51" s="23">
+        <v>3</v>
+      </c>
+      <c r="U51" s="23">
+        <v>3</v>
+      </c>
+      <c r="V51" s="23">
         <v>6</v>
       </c>
-      <c r="W51" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="W51" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="18:23">
       <c r="R52" t="s">
         <v>339</v>
       </c>
@@ -4225,7 +4238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="18:23">
       <c r="R53" t="s">
         <v>340</v>
       </c>
@@ -4252,7 +4265,7 @@
     <mergeCell ref="V1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4269,9 +4282,9 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>318</v>
       </c>
@@ -4309,7 +4322,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4350,7 +4363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4391,7 +4404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4432,7 +4445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4473,7 +4486,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4514,12 +4527,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4560,7 +4573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -4601,7 +4614,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -4642,7 +4655,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -4683,7 +4696,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -4724,7 +4737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4765,7 +4778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>204</v>
       </c>
@@ -4847,7 +4860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>330</v>
       </c>
@@ -4888,7 +4901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -4929,7 +4942,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -4970,7 +4983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -5011,7 +5024,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>334</v>
       </c>
@@ -5052,12 +5065,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>336</v>
       </c>
@@ -5098,7 +5111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -5139,7 +5152,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>338</v>
       </c>
@@ -5180,7 +5193,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>339</v>
       </c>
@@ -5221,7 +5234,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>340</v>
       </c>
@@ -5280,9 +5293,9 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -5387,7 +5400,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -5492,7 +5505,7 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -5593,7 +5606,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
@@ -5696,7 +5709,7 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -5799,7 +5812,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -5900,7 +5913,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -6005,7 +6018,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -6108,7 +6121,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="1" t="s">
         <v>181</v>
       </c>
@@ -6209,7 +6222,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>264</v>
       </c>
@@ -6314,7 +6327,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="6" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>269</v>
       </c>
@@ -6419,7 +6432,7 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>276</v>
       </c>
@@ -6524,7 +6537,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="1" t="s">
         <v>283</v>
       </c>
@@ -6631,7 +6644,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>287</v>
       </c>
@@ -6736,7 +6749,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -6839,7 +6852,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>304</v>
       </c>
@@ -6946,7 +6959,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
         <v>299</v>
       </c>
@@ -7049,7 +7062,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="1" t="s">
         <v>341</v>
       </c>
@@ -7150,7 +7163,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
         <v>344</v>
       </c>
@@ -7255,7 +7268,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="1" t="s">
         <v>351</v>
       </c>
@@ -7358,7 +7371,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
         <v>355</v>
       </c>
@@ -7465,7 +7478,7 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="1" t="s">
         <v>361</v>
       </c>
@@ -7568,7 +7581,7 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" s="6" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>366</v>
       </c>
@@ -7669,7 +7682,7 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39">
       <c r="A24" s="1" t="s">
         <v>370</v>
       </c>
@@ -7776,7 +7789,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
         <v>376</v>
       </c>
@@ -7883,7 +7896,7 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
         <v>379</v>
       </c>
@@ -7990,7 +8003,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
         <v>384</v>
       </c>
@@ -8095,7 +8108,7 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
         <v>389</v>
       </c>
@@ -8218,12 +8231,12 @@
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="E1" t="s">
         <v>29</v>
       </c>
@@ -8249,7 +8262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8287,7 +8300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8325,7 +8338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8363,7 +8376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8401,7 +8414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8439,7 +8452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8477,7 +8490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8515,7 +8528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -8553,7 +8566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -8591,7 +8604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -8629,7 +8642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -8667,7 +8680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -8705,7 +8718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -8743,7 +8756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -8819,7 +8832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -8857,7 +8870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -8895,7 +8908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -8933,7 +8946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -8971,7 +8984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -9009,7 +9022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -9047,7 +9060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>205</v>
       </c>
@@ -9091,7 +9104,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
@@ -9135,7 +9148,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
@@ -9179,7 +9192,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>211</v>
       </c>
@@ -9223,7 +9236,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>214</v>
       </c>
@@ -9267,7 +9280,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -9311,7 +9324,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>218</v>
       </c>
@@ -9355,7 +9368,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>220</v>
       </c>
@@ -9399,7 +9412,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>222</v>
       </c>
@@ -9443,7 +9456,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>224</v>
       </c>
@@ -9487,7 +9500,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>226</v>
       </c>
@@ -9531,7 +9544,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>228</v>
       </c>
@@ -9575,7 +9588,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -9619,7 +9632,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>231</v>
       </c>
@@ -9663,7 +9676,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>233</v>
       </c>
@@ -9707,7 +9720,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>393</v>
       </c>
@@ -9751,7 +9764,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>394</v>
       </c>
@@ -9795,7 +9808,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>396</v>
       </c>
@@ -9839,7 +9852,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>398</v>
       </c>
@@ -9883,7 +9896,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
         <v>400</v>
       </c>
@@ -9927,7 +9940,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>402</v>
       </c>
@@ -9971,7 +9984,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>403</v>
       </c>
@@ -10015,7 +10028,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>405</v>
       </c>
@@ -10059,7 +10072,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>407</v>
       </c>
@@ -10103,7 +10116,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>409</v>
       </c>
@@ -10147,7 +10160,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>411</v>
       </c>
@@ -10191,7 +10204,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>413</v>
       </c>
@@ -10235,7 +10248,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>415</v>
       </c>
@@ -10279,7 +10292,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>417</v>
       </c>
@@ -10323,7 +10336,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
         <v>419</v>
       </c>
@@ -10367,7 +10380,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>421</v>
       </c>
@@ -10411,7 +10424,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
         <v>422</v>
       </c>
@@ -10455,7 +10468,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
         <v>423</v>
       </c>
@@ -10499,7 +10512,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
         <v>424</v>
       </c>
@@ -10543,7 +10556,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
         <v>426</v>
       </c>
@@ -10605,12 +10618,12 @@
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="E1" t="s">
         <v>52</v>
       </c>
@@ -10636,7 +10649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10674,7 +10687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -10712,7 +10725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -10750,7 +10763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -10788,7 +10801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -10826,7 +10839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -10864,7 +10877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -10902,7 +10915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -10940,7 +10953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -10978,7 +10991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -11016,7 +11029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -11054,7 +11067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -11092,7 +11105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -11130,7 +11143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -11168,7 +11181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -11206,7 +11219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>234</v>
       </c>
@@ -11250,7 +11263,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>236</v>
       </c>
@@ -11294,7 +11307,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>238</v>
       </c>
@@ -11338,7 +11351,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>240</v>
       </c>
@@ -11382,7 +11395,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>242</v>
       </c>
@@ -11426,7 +11439,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>243</v>
       </c>
@@ -11470,7 +11483,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>245</v>
       </c>
@@ -11514,7 +11527,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>247</v>
       </c>
@@ -11558,7 +11571,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>249</v>
       </c>
@@ -11602,7 +11615,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>250</v>
       </c>
@@ -11646,7 +11659,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
@@ -11690,7 +11703,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -11734,7 +11747,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>255</v>
       </c>
@@ -11778,7 +11791,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>256</v>
       </c>
@@ -11822,7 +11835,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>257</v>
       </c>
@@ -11866,7 +11879,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>259</v>
       </c>
@@ -11910,7 +11923,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>260</v>
       </c>
@@ -11954,7 +11967,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>261</v>
       </c>
@@ -11998,7 +12011,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>262</v>
       </c>
@@ -12042,7 +12055,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>263</v>
       </c>
@@ -12086,7 +12099,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>428</v>
       </c>
@@ -12130,7 +12143,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>430</v>
       </c>
@@ -12174,7 +12187,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>432</v>
       </c>
@@ -12218,7 +12231,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>434</v>
       </c>
@@ -12262,7 +12275,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>436</v>
       </c>
@@ -12306,7 +12319,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>437</v>
       </c>
@@ -12350,7 +12363,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>439</v>
       </c>
@@ -12394,7 +12407,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>440</v>
       </c>
@@ -12438,7 +12451,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>442</v>
       </c>
@@ -12482,7 +12495,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>443</v>
       </c>
@@ -12526,7 +12539,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>445</v>
       </c>
@@ -12570,7 +12583,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>446</v>
       </c>
@@ -12614,7 +12627,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>447</v>
       </c>
@@ -12658,7 +12671,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>448</v>
       </c>
@@ -12702,7 +12715,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>450</v>
       </c>
@@ -12744,7 +12757,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
         <v>451</v>
       </c>
@@ -12788,7 +12801,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>452</v>
       </c>
@@ -12832,7 +12845,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
         <v>453</v>
       </c>
@@ -12876,7 +12889,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
         <v>454</v>
       </c>
@@ -12920,7 +12933,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
         <v>455</v>
       </c>
@@ -12964,7 +12977,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="1" t="s">
         <v>456</v>
       </c>
@@ -13008,7 +13021,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
         <v>457</v>
       </c>
@@ -13052,7 +13065,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
         <v>458</v>
       </c>
@@ -13096,7 +13109,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
         <v>460</v>
       </c>
@@ -13140,7 +13153,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
         <v>461</v>
       </c>
@@ -13184,7 +13197,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="1" t="s">
         <v>463</v>
       </c>
@@ -13228,7 +13241,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
         <v>464</v>
       </c>
@@ -13272,7 +13285,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
         <v>465</v>
       </c>
@@ -13316,7 +13329,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="16" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>467</v>
       </c>
@@ -13360,53 +13373,53 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25">
+    <row r="78" spans="1:18" ht="16" thickBot="1">
+      <c r="A78" s="22">
         <v>43314.561597222222</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="19">
         <v>126</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="20">
         <v>43314</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="22">
-        <v>5</v>
-      </c>
-      <c r="F78" s="22">
-        <v>5</v>
-      </c>
-      <c r="G78" s="22">
-        <v>4</v>
-      </c>
-      <c r="H78" s="22">
-        <v>2</v>
-      </c>
-      <c r="I78" s="22">
-        <v>4</v>
-      </c>
-      <c r="J78" s="22">
-        <v>5</v>
-      </c>
-      <c r="K78" s="22">
-        <v>4</v>
-      </c>
-      <c r="L78" s="22">
-        <v>2</v>
-      </c>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
+      <c r="E78" s="19">
+        <v>5</v>
+      </c>
+      <c r="F78" s="19">
+        <v>5</v>
+      </c>
+      <c r="G78" s="19">
+        <v>4</v>
+      </c>
+      <c r="H78" s="19">
+        <v>2</v>
+      </c>
+      <c r="I78" s="19">
+        <v>4</v>
+      </c>
+      <c r="J78" s="19">
+        <v>5</v>
+      </c>
+      <c r="K78" s="19">
+        <v>4</v>
+      </c>
+      <c r="L78" s="19">
+        <v>2</v>
+      </c>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\BehaviouralResults\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28300" yWindow="1200" windowWidth="23660" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="474">
   <si>
     <t>ID</t>
   </si>
@@ -1436,13 +1441,25 @@
   </si>
   <si>
     <t>ISS</t>
+  </si>
+  <si>
+    <t>scan 1</t>
+  </si>
+  <si>
+    <t>scan2</t>
+  </si>
+  <si>
+    <t>days between scans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1506,6 +1523,67 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1521,7 +1599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1550,6 +1628,15 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,7 +1670,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1614,6 +1701,35 @@
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,7 +1739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1922,7 +2037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1930,44 +2045,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
     <col min="11" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
@@ -3073,10 +3188,10 @@
         <f t="shared" ref="M17:M26" si="1">AVERAGE(N17:AC17)</f>
         <v>6.75</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
       <c r="V17" s="6">
         <v>7</v>
       </c>
@@ -3089,16 +3204,16 @@
       <c r="Y17" s="6">
         <v>7</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="Z17" s="24">
         <v>6</v>
       </c>
-      <c r="AA17" s="27">
+      <c r="AA17" s="24">
         <v>6</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AB17" s="24">
         <v>6</v>
       </c>
-      <c r="AC17" s="27">
+      <c r="AC17" s="24">
         <v>7</v>
       </c>
     </row>
@@ -3546,10 +3661,10 @@
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
       <c r="V24" s="6">
         <v>6</v>
       </c>
@@ -3562,16 +3677,16 @@
       <c r="Y24" s="6">
         <v>5</v>
       </c>
-      <c r="Z24" s="27">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="27">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="27">
+      <c r="Z24" s="24">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3732,7 +3847,17 @@
         <v>315</v>
       </c>
     </row>
+    <row r="28" spans="1:29">
+      <c r="M28">
+        <f>MIN(M3:M26)</f>
+        <v>3.875</v>
+      </c>
+    </row>
     <row r="29" spans="1:29">
+      <c r="M29">
+        <f>MAX(M3:M26)</f>
+        <v>20.375</v>
+      </c>
       <c r="S29" s="4" t="s">
         <v>317</v>
       </c>
@@ -3750,6 +3875,10 @@
       </c>
     </row>
     <row r="30" spans="1:29">
+      <c r="M30">
+        <f>AVERAGE(M3:M16,M18:M23,M25:M26)</f>
+        <v>12.761363636363637</v>
+      </c>
       <c r="R30" t="s">
         <v>9</v>
       </c>
@@ -3818,7 +3947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="18:23">
+    <row r="33" spans="7:23">
       <c r="R33" t="s">
         <v>12</v>
       </c>
@@ -3839,7 +3968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="18:23">
+    <row r="34" spans="7:23">
       <c r="R34" t="s">
         <v>13</v>
       </c>
@@ -3860,7 +3989,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="18:23">
+    <row r="35" spans="7:23">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="R35" t="s">
         <v>14</v>
       </c>
@@ -3881,7 +4012,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="18:23">
+    <row r="36" spans="7:23">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="R36" t="s">
         <v>15</v>
       </c>
@@ -3902,7 +4035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="18:23">
+    <row r="37" spans="7:23">
       <c r="R37" t="s">
         <v>198</v>
       </c>
@@ -3923,7 +4056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="18:23">
+    <row r="38" spans="7:23">
       <c r="R38" t="s">
         <v>199</v>
       </c>
@@ -3944,7 +4077,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="18:23">
+    <row r="39" spans="7:23">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="R39" t="s">
         <v>200</v>
       </c>
@@ -3965,7 +4100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="18:23">
+    <row r="40" spans="7:23">
       <c r="R40" t="s">
         <v>201</v>
       </c>
@@ -3986,7 +4121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="18:23">
+    <row r="41" spans="7:23">
       <c r="R41" t="s">
         <v>202</v>
       </c>
@@ -4007,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="18:23">
+    <row r="42" spans="7:23">
       <c r="R42" t="s">
         <v>203</v>
       </c>
@@ -4028,7 +4163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="18:23">
+    <row r="43" spans="7:23">
       <c r="R43" t="s">
         <v>204</v>
       </c>
@@ -4049,7 +4184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="18:23">
+    <row r="44" spans="7:23">
       <c r="R44" t="s">
         <v>330</v>
       </c>
@@ -4070,7 +4205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="18:23">
+    <row r="45" spans="7:23">
       <c r="R45" t="s">
         <v>331</v>
       </c>
@@ -4091,7 +4226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="18:23">
+    <row r="46" spans="7:23">
       <c r="R46" t="s">
         <v>332</v>
       </c>
@@ -4112,7 +4247,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="18:23">
+    <row r="47" spans="7:23">
+      <c r="H47" s="6"/>
       <c r="R47" t="s">
         <v>333</v>
       </c>
@@ -4133,7 +4269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="18:23">
+    <row r="48" spans="7:23">
       <c r="R48" t="s">
         <v>334</v>
       </c>
@@ -4154,7 +4290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="18:23">
+    <row r="49" spans="7:23">
       <c r="R49" t="s">
         <v>336</v>
       </c>
@@ -4175,7 +4311,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="18:23">
+    <row r="50" spans="7:23">
+      <c r="G50" s="2"/>
       <c r="R50" t="s">
         <v>337</v>
       </c>
@@ -4196,7 +4333,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="18:23">
+    <row r="51" spans="7:23">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="R51" t="s">
         <v>338</v>
       </c>
@@ -4217,7 +4356,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="18:23">
+    <row r="52" spans="7:23">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
       <c r="R52" t="s">
         <v>339</v>
       </c>
@@ -4238,7 +4379,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="18:23">
+    <row r="53" spans="7:23">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="R53" t="s">
         <v>340</v>
       </c>
@@ -4258,6 +4401,16 @@
       <c r="W53" s="15">
         <v>9</v>
       </c>
+    </row>
+    <row r="54" spans="7:23">
+      <c r="G54" s="2"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="7:23">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="7:23">
+      <c r="H56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4282,7 +4435,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
@@ -5287,13 +5440,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="35" max="35" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
@@ -5394,116 +5551,122 @@
         <v>118</v>
       </c>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
+      <c r="AI1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:39" s="28" customFormat="1">
+      <c r="A2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="27">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27">
+        <v>5</v>
+      </c>
+      <c r="N2" s="27">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="27">
         <v>6</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="27">
         <v>7</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="27">
         <v>6</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="27">
         <v>6</v>
       </c>
-      <c r="AC2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="1">
+      <c r="AC2" s="27">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="27">
         <v>6</v>
       </c>
-      <c r="AE2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AE2" s="27">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="27">
         <v>6</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
@@ -5600,9 +5763,16 @@
         <v>138</v>
       </c>
       <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
+      <c r="AI3" s="32">
+        <v>42908</v>
+      </c>
+      <c r="AJ3" s="29">
+        <v>42937</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>DATEDIF(AI3,AJ3,"d")</f>
+        <v>29</v>
+      </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
@@ -5703,9 +5873,16 @@
         <v>138</v>
       </c>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
+      <c r="AI4" s="32">
+        <v>42998</v>
+      </c>
+      <c r="AJ4" s="37">
+        <v>43018</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK28" si="0">DATEDIF(AI4,AJ4,"d")</f>
+        <v>20</v>
+      </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
@@ -5806,9 +5983,16 @@
         <v>138</v>
       </c>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
+      <c r="AI5" s="32">
+        <v>43007</v>
+      </c>
+      <c r="AJ5" s="37">
+        <v>43031</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
@@ -5907,9 +6091,16 @@
         <v>138</v>
       </c>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
+      <c r="AI6" s="32">
+        <v>43021</v>
+      </c>
+      <c r="AJ6" s="37">
+        <v>43038</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
@@ -6012,9 +6203,16 @@
         <v>138</v>
       </c>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="AI7" s="32">
+        <v>43003</v>
+      </c>
+      <c r="AJ7" s="37">
+        <v>43020</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
@@ -6115,9 +6313,16 @@
         <v>138</v>
       </c>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="AI8" s="32">
+        <v>43014</v>
+      </c>
+      <c r="AJ8" s="37">
+        <v>43033</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
@@ -6216,9 +6421,16 @@
         <v>182</v>
       </c>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
+      <c r="AI9" s="33">
+        <v>43024</v>
+      </c>
+      <c r="AJ9" s="38">
+        <v>43038</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
@@ -6321,9 +6533,16 @@
         <v>138</v>
       </c>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
+      <c r="AI10" s="32">
+        <v>43111</v>
+      </c>
+      <c r="AJ10" s="39">
+        <v>43129</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
@@ -6426,8 +6645,8 @@
         <v>138</v>
       </c>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="46"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -6531,9 +6750,16 @@
         <v>138</v>
       </c>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
+      <c r="AI12" s="34">
+        <v>43109</v>
+      </c>
+      <c r="AJ12" s="40">
+        <v>43124</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
@@ -6638,9 +6864,16 @@
         <v>162</v>
       </c>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="AI13" s="35">
+        <v>43133</v>
+      </c>
+      <c r="AJ13" s="39">
+        <v>43159</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
@@ -6743,9 +6976,16 @@
         <v>293</v>
       </c>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
+      <c r="AI14" s="36">
+        <v>43110</v>
+      </c>
+      <c r="AJ14" s="39">
+        <v>43126</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
@@ -6846,9 +7086,16 @@
         <v>138</v>
       </c>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
+      <c r="AI15" s="35">
+        <v>43117</v>
+      </c>
+      <c r="AJ15" s="41">
+        <v>43133</v>
+      </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
@@ -6953,9 +7200,16 @@
         <v>138</v>
       </c>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
+      <c r="AI16" s="32">
+        <v>43133</v>
+      </c>
+      <c r="AJ16" s="42">
+        <v>43157</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
@@ -7056,112 +7310,126 @@
         <v>138</v>
       </c>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
+      <c r="AI17" s="32">
+        <v>43147</v>
+      </c>
+      <c r="AJ17" s="30">
+        <v>43164</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:39" s="26" customFormat="1">
+      <c r="A18" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="25">
         <v>116</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="25">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1">
+      <c r="L18" s="25"/>
+      <c r="M18" s="25">
         <v>6</v>
       </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="N18" s="25">
+        <v>1</v>
+      </c>
+      <c r="O18" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="Y18" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="1">
+      <c r="Y18" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="25">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="25">
         <v>6</v>
       </c>
-      <c r="AC18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="1">
+      <c r="AC18" s="25">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="25">
         <v>6</v>
       </c>
-      <c r="AE18" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AE18" s="25">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="49">
+        <v>43227</v>
+      </c>
+      <c r="AJ18" s="50">
+        <v>43249</v>
+      </c>
+      <c r="AK18" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
@@ -7262,9 +7530,16 @@
         <v>138</v>
       </c>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
+      <c r="AI19" s="32">
+        <v>43235</v>
+      </c>
+      <c r="AJ19" s="43">
+        <v>43256</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
@@ -7365,9 +7640,16 @@
         <v>138</v>
       </c>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
+      <c r="AI20" s="36">
+        <v>43242</v>
+      </c>
+      <c r="AJ20" s="44">
+        <v>43259</v>
+      </c>
+      <c r="AK20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
@@ -7472,9 +7754,16 @@
         <v>138</v>
       </c>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
+      <c r="AI21" s="36">
+        <v>43259</v>
+      </c>
+      <c r="AJ21" s="44">
+        <v>43276</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
@@ -7575,9 +7864,16 @@
         <v>138</v>
       </c>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
+      <c r="AI22" s="36">
+        <v>43263</v>
+      </c>
+      <c r="AJ22" s="44">
+        <v>43280</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
@@ -7676,8 +7972,8 @@
         <v>138</v>
       </c>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="48"/>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
@@ -7783,9 +8079,16 @@
         <v>138</v>
       </c>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
+      <c r="AI24" s="36">
+        <v>43257</v>
+      </c>
+      <c r="AJ24" s="44">
+        <v>43280</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
@@ -7890,118 +8193,132 @@
         <v>138</v>
       </c>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
+      <c r="AI25" s="36">
+        <v>43284</v>
+      </c>
+      <c r="AJ25" s="44">
+        <v>43304</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:39" s="26" customFormat="1">
+      <c r="A26" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="25">
         <v>124</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="25">
         <v>26</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="25">
         <v>7</v>
       </c>
-      <c r="N26" s="1">
-        <v>5</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="N26" s="25">
+        <v>5</v>
+      </c>
+      <c r="O26" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="25">
         <v>6</v>
       </c>
-      <c r="Z26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="1">
+      <c r="Z26" s="25">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="25">
         <v>6</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="25">
         <v>7</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26" s="25">
         <v>6</v>
       </c>
-      <c r="AD26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="1">
+      <c r="AD26" s="25">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="25">
         <v>6</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26" s="25">
         <v>6</v>
       </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AG26" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="51">
+        <v>43280</v>
+      </c>
+      <c r="AJ26" s="52">
+        <v>43299</v>
+      </c>
+      <c r="AK26" s="25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
@@ -8102,9 +8419,16 @@
         <v>138</v>
       </c>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
+      <c r="AI27" s="36">
+        <v>43270</v>
+      </c>
+      <c r="AJ27" s="44">
+        <v>43290</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
@@ -8207,14 +8531,44 @@
         <v>138</v>
       </c>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
+      <c r="AI28" s="36">
+        <v>43279</v>
+      </c>
+      <c r="AJ28" s="44">
+        <v>43304</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
     </row>
+    <row r="30" spans="1:39">
+      <c r="D30">
+        <f>AVERAGE(D3:D10,D12:D17,D19:D22,D24:D25,D27:D28)</f>
+        <v>24.181818181818183</v>
+      </c>
+      <c r="AK30" s="1">
+        <f>AVERAGE(AK3:AK17,AK19:AK25,AK27:AK28)</f>
+        <v>19.636363636363637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="AK31">
+        <f>MIN(AK3:AK17,AK19:AK25,AK27:AK28)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="AK32">
+        <f>MAX(AK3:AK17,AK19:AK25,AK27:AK28)</f>
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8231,7 +8585,7 @@
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
@@ -10618,7 +10972,7 @@
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -13329,7 +13683,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="16" thickBot="1">
+    <row r="77" spans="1:18" ht="16.5" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>467</v>
       </c>
@@ -13373,7 +13727,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="16" thickBot="1">
+    <row r="78" spans="1:18" ht="16.5" thickBot="1">
       <c r="A78" s="22">
         <v>43314.561597222222</v>
       </c>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="500"/>
+    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
-    <sheet name="CBS" sheetId="5" r:id="rId2"/>
-    <sheet name="Demographic Info" sheetId="4" r:id="rId3"/>
-    <sheet name="Group A - pref" sheetId="2" r:id="rId4"/>
-    <sheet name="Group B - pref" sheetId="3" r:id="rId5"/>
+    <sheet name="fam by song type" sheetId="6" r:id="rId2"/>
+    <sheet name="CBS" sheetId="5" r:id="rId3"/>
+    <sheet name="Demographic Info" sheetId="4" r:id="rId4"/>
+    <sheet name="Group A - pref" sheetId="2" r:id="rId5"/>
+    <sheet name="Group B - pref" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="481">
   <si>
     <t>ID</t>
   </si>
@@ -1450,6 +1451,27 @@
   </si>
   <si>
     <t>days between scans</t>
+  </si>
+  <si>
+    <t>TotalAcc.m</t>
+  </si>
+  <si>
+    <t>a-pre</t>
+  </si>
+  <si>
+    <t>a-post</t>
+  </si>
+  <si>
+    <t>s-pre</t>
+  </si>
+  <si>
+    <t>s-post</t>
+  </si>
+  <si>
+    <t>w-pre</t>
+  </si>
+  <si>
+    <t>w-post</t>
   </si>
 </sst>
 </file>
@@ -2045,46 +2067,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC56"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I39" sqref="I39"/>
+      <selection pane="topRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="13" width="15.5" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="N1" s="53" t="s">
+    <row r="1" spans="1:30">
+      <c r="O1" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="53"/>
       <c r="P1" s="53"/>
       <c r="Q1" s="53"/>
       <c r="R1" s="53"/>
       <c r="S1" s="53"/>
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="53"/>
+      <c r="W1" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="55"/>
       <c r="X1" s="55"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
       <c r="AB1" s="55"/>
       <c r="AC1" s="55"/>
-    </row>
-    <row r="2" spans="1:29" s="4" customFormat="1">
+      <c r="AD1" s="55"/>
+    </row>
+    <row r="2" spans="1:30" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2092,85 +2114,88 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>52</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>42</v>
       </c>
-      <c r="P2" s="4">
-        <v>2</v>
-      </c>
       <c r="Q2" s="4">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4">
         <v>132</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>122</v>
       </c>
-      <c r="S2" s="7">
+      <c r="T2" s="7">
         <v>142</v>
       </c>
-      <c r="T2" s="7">
+      <c r="U2" s="7">
         <v>92</v>
       </c>
-      <c r="U2" s="7">
+      <c r="V2" s="7">
         <v>62</v>
       </c>
-      <c r="V2" s="9">
+      <c r="W2" s="9">
         <v>22</v>
       </c>
-      <c r="W2" s="10">
+      <c r="X2" s="10">
         <v>32</v>
       </c>
-      <c r="X2" s="10">
+      <c r="Y2" s="10">
         <v>12</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Z2" s="10">
         <v>72</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AA2" s="11">
         <v>112</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AB2" s="11">
         <v>152</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AC2" s="11">
         <v>102</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AD2" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2178,67 +2203,70 @@
         <v>28.571400000000001</v>
       </c>
       <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
         <v>60</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>80</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>70</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>66.667000000000002</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>91.304299999999998</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>112</v>
       </c>
-      <c r="M3">
-        <f>AVERAGE(N3:AC3)</f>
+      <c r="N3">
+        <f>AVERAGE(O3:AD3)</f>
         <v>12.125</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
       </c>
       <c r="O3">
         <v>13</v>
       </c>
       <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3">
         <v>12</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>13</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>12</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>10</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
         <v>13</v>
       </c>
-      <c r="U3" s="8">
+      <c r="V3" s="8">
         <v>11</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3" s="14"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2246,10 +2274,10 @@
         <v>37.930999999999997</v>
       </c>
       <c r="C4">
+        <v>42.3</v>
+      </c>
+      <c r="D4">
         <v>80</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2257,36 +2285,36 @@
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>100</v>
       </c>
       <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
         <f>9/17</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>11/13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>95.652199999999993</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>58</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M15" si="0">AVERAGE(N4:AC4)</f>
+      <c r="N4">
+        <f t="shared" ref="N4:N15" si="0">AVERAGE(O4:AD4)</f>
         <v>14.375</v>
       </c>
-      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="12">
+      <c r="V4" s="8"/>
+      <c r="W4" s="12">
         <v>16</v>
-      </c>
-      <c r="W4" s="13">
-        <v>14</v>
       </c>
       <c r="X4" s="13">
         <v>14</v>
@@ -2294,20 +2322,23 @@
       <c r="Y4" s="13">
         <v>14</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="13">
         <v>14</v>
       </c>
       <c r="AA4" s="14">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="14">
         <v>13</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>15</v>
       </c>
       <c r="AC4" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2315,72 +2346,75 @@
         <v>23.8095</v>
       </c>
       <c r="C5">
+        <v>31.25</v>
+      </c>
+      <c r="D5">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>90</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>66.667000000000002</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f>11/17</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>7/13</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>100</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>99</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
-      <c r="N5">
-        <v>21</v>
-      </c>
       <c r="O5">
         <v>21</v>
       </c>
       <c r="P5">
+        <v>21</v>
+      </c>
+      <c r="Q5">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>18</v>
       </c>
-      <c r="R5" s="8">
+      <c r="S5" s="8">
         <v>18</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>19</v>
       </c>
-      <c r="T5" s="8">
+      <c r="U5" s="8">
         <v>18</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <v>19</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
-      <c r="Z5" s="14"/>
+      <c r="Z5" s="13"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5" s="14"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2388,68 +2422,71 @@
         <v>51.7241</v>
       </c>
       <c r="C6">
+        <v>53.6</v>
+      </c>
+      <c r="D6">
         <v>70</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>90</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>80</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>90</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>82.758600000000001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>16/17</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>11/13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>90.304299999999998</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>20.375</v>
       </c>
-      <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="12">
+      <c r="V6" s="8"/>
+      <c r="W6" s="12">
         <v>21</v>
       </c>
-      <c r="W6" s="13">
+      <c r="X6" s="13">
         <v>22</v>
       </c>
-      <c r="X6" s="13">
+      <c r="Y6" s="13">
         <v>23</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Z6" s="13">
         <v>21</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AA6" s="14">
         <v>19</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AB6" s="14">
         <v>21</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>18</v>
       </c>
       <c r="AC6" s="14">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2457,137 +2494,140 @@
         <v>33.332999999999998</v>
       </c>
       <c r="C7">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>50</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
       </c>
       <c r="F7">
         <v>80</v>
       </c>
-      <c r="H7">
+      <c r="G7">
+        <v>80</v>
+      </c>
+      <c r="I7">
         <v>85.714299999999994</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>11/17</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>91.304299999999998</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>82</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>18</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>17</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>18</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>16</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>18</v>
-      </c>
-      <c r="S7" s="8">
-        <v>16</v>
       </c>
       <c r="T7" s="8">
         <v>16</v>
       </c>
       <c r="U7" s="8">
+        <v>16</v>
+      </c>
+      <c r="V7" s="8">
         <v>17</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
+      <c r="W7" s="12"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
-      <c r="Z7" s="14"/>
+      <c r="Z7" s="13"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7" s="14"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>51.7241</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>90</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
       </c>
       <c r="E8">
         <v>80</v>
       </c>
       <c r="F8">
+        <v>80</v>
+      </c>
+      <c r="G8">
         <v>60</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>79.310299999999998</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>11/17</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>9/13</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>86.959599999999995</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>94</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="12">
+      <c r="V8" s="8"/>
+      <c r="W8" s="12">
         <v>21</v>
       </c>
-      <c r="W8" s="13">
+      <c r="X8" s="13">
         <v>18</v>
       </c>
-      <c r="X8" s="13">
+      <c r="Y8" s="13">
         <v>19</v>
       </c>
-      <c r="Y8" s="13">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="13">
         <v>18</v>
       </c>
       <c r="AA8" s="14">
         <v>18</v>
       </c>
       <c r="AB8" s="14">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="14">
         <v>17</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AD8" s="14">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2595,141 +2635,144 @@
         <v>23.8095</v>
       </c>
       <c r="C9">
+        <v>27.8</v>
+      </c>
+      <c r="D9">
         <v>70</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
       </c>
       <c r="E9">
         <v>60</v>
       </c>
       <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
         <v>70</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>80.952399999999997</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>10/17</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>9/13</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>82.608699999999999</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>119</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>7</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
       </c>
       <c r="P9">
         <v>8</v>
       </c>
       <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>7</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>8</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
         <v>6</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <v>7</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="13"/>
+      <c r="W9" s="12"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
+      <c r="Z9" s="13"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9" s="14"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>198</v>
       </c>
       <c r="B10">
         <v>48.2759</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>60</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>90</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>80</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>70</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>86.29</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>12/17</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>12/13</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>82.608699999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>118</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>9.875</v>
       </c>
-      <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="12">
+      <c r="V10" s="8"/>
+      <c r="W10" s="12">
         <v>10</v>
-      </c>
-      <c r="W10" s="13">
-        <v>12</v>
       </c>
       <c r="X10" s="13">
         <v>12</v>
       </c>
       <c r="Y10" s="13">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="13">
         <v>10</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AA10" s="14">
         <v>8</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AB10" s="14">
         <v>7</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AC10" s="14">
         <v>9</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AD10" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2737,10 +2780,10 @@
         <v>48.2759</v>
       </c>
       <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
         <v>80</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
       </c>
       <c r="E11">
         <v>90</v>
@@ -2748,45 +2791,45 @@
       <c r="F11">
         <v>90</v>
       </c>
-      <c r="H11">
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="I11">
         <v>100</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>12/17</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f>10/13</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>95.652199999999993</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>108</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="12">
+      <c r="V11" s="8"/>
+      <c r="W11" s="12">
         <v>11</v>
       </c>
-      <c r="W11" s="13">
+      <c r="X11" s="13">
         <v>11</v>
       </c>
-      <c r="X11" s="13">
+      <c r="Y11" s="13">
         <v>12</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Z11" s="13">
         <v>11</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>10</v>
       </c>
       <c r="AA11" s="14">
         <v>10</v>
@@ -2795,10 +2838,13 @@
         <v>10</v>
       </c>
       <c r="AC11" s="14">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2806,52 +2852,52 @@
         <v>14.2857</v>
       </c>
       <c r="C12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D12">
         <v>40</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
-      <c r="H12">
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="I12">
         <v>90.746200000000002</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>11/17</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>8/13</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>100</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>132</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>14.25</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>15</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>16</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>11</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>13</v>
       </c>
-      <c r="R12" s="8">
+      <c r="S12" s="8">
         <v>17</v>
-      </c>
-      <c r="S12" s="8">
-        <v>14</v>
       </c>
       <c r="T12" s="8">
         <v>14</v>
@@ -2859,16 +2905,19 @@
       <c r="U12" s="8">
         <v>14</v>
       </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="13"/>
+      <c r="V12" s="8">
+        <v>14</v>
+      </c>
+      <c r="W12" s="12"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
+      <c r="Z12" s="13"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12" s="14"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -2876,64 +2925,67 @@
         <v>48.2759</v>
       </c>
       <c r="C13">
+        <v>51.8</v>
+      </c>
+      <c r="D13">
         <v>70</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
       </c>
       <c r="E13">
         <v>60</v>
       </c>
       <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
         <v>70</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>75.862099999999998</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>7/13</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>86.956500000000005</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>89</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="12">
+      <c r="V13" s="8"/>
+      <c r="W13" s="12">
         <v>12</v>
       </c>
-      <c r="W13" s="13">
+      <c r="X13" s="13">
         <v>12</v>
       </c>
-      <c r="X13" s="13">
+      <c r="Y13" s="13">
         <v>11</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Z13" s="13">
         <v>10</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AA13" s="14">
         <v>9</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AB13" s="14">
         <v>7</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AC13" s="14">
         <v>9</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AD13" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -2941,43 +2993,43 @@
         <v>38.095199999999998</v>
       </c>
       <c r="C14">
+        <v>47.1</v>
+      </c>
+      <c r="D14">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>60</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>40</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>80.952399999999997</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>12/17</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f>6/13</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>100</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>112</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>7</v>
-      </c>
-      <c r="O14">
-        <v>9</v>
       </c>
       <c r="P14">
         <v>9</v>
@@ -2985,97 +3037,100 @@
       <c r="Q14">
         <v>9</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14">
         <v>9</v>
       </c>
       <c r="S14" s="8">
         <v>9</v>
       </c>
       <c r="T14" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14" s="8">
         <v>8</v>
       </c>
-      <c r="V14" s="12"/>
-      <c r="W14" s="13"/>
+      <c r="V14" s="8">
+        <v>8</v>
+      </c>
+      <c r="W14" s="12"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
+      <c r="Z14" s="13"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14" s="14"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>203</v>
       </c>
       <c r="B15">
         <v>44.827599999999997</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>50</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>80</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>70</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>80</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>79.310299999999998</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>17/17</f>
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f>9/13</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>95.652199999999993</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>127</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>17.125</v>
       </c>
-      <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="12">
+      <c r="V15" s="8"/>
+      <c r="W15" s="12">
         <v>16</v>
       </c>
-      <c r="W15" s="13">
+      <c r="X15" s="13">
         <v>17</v>
       </c>
-      <c r="X15" s="13">
+      <c r="Y15" s="13">
         <v>19</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Z15" s="13">
         <v>17</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AA15" s="14">
         <v>16</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>18</v>
       </c>
       <c r="AB15" s="14">
         <v>18</v>
       </c>
       <c r="AC15" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD15" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -3083,72 +3138,75 @@
         <v>19.047599999999999</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>70</v>
       </c>
       <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
         <v>60</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>76.1905</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>15/15</f>
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>10/13</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>95.652199999999993</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>113</v>
       </c>
-      <c r="M16">
-        <f>AVERAGE(N16:AC16)</f>
+      <c r="N16">
+        <f>AVERAGE(O16:AD16)</f>
         <v>12.625</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>14</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>12</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>13</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>12</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>11</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>16</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <v>11</v>
       </c>
-      <c r="U16" s="8">
+      <c r="V16" s="8">
         <v>12</v>
       </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
+      <c r="Z16" s="13"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
-    </row>
-    <row r="17" spans="1:29" s="6" customFormat="1">
+      <c r="AD16" s="14"/>
+    </row>
+    <row r="17" spans="1:30" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>330</v>
       </c>
@@ -3156,7 +3214,7 @@
         <v>34.482799999999997</v>
       </c>
       <c r="C17" s="6">
-        <v>50</v>
+        <v>43.4</v>
       </c>
       <c r="D17" s="6">
         <v>50</v>
@@ -3165,47 +3223,47 @@
         <v>50</v>
       </c>
       <c r="F17" s="6">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6">
         <v>30</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>58.620699999999999</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <f>7/17</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <f>10/13</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>52.173900000000003</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>95</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" ref="M17:M26" si="1">AVERAGE(N17:AC17)</f>
+      <c r="N17" s="6">
+        <f t="shared" ref="N17:N26" si="1">AVERAGE(O17:AD17)</f>
         <v>6.75</v>
       </c>
-      <c r="R17" s="24"/>
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="6">
+      <c r="V17" s="24"/>
+      <c r="W17" s="6">
         <v>7</v>
       </c>
-      <c r="W17" s="6">
+      <c r="X17" s="6">
         <v>8</v>
-      </c>
-      <c r="X17" s="6">
-        <v>7</v>
       </c>
       <c r="Y17" s="6">
         <v>7</v>
       </c>
-      <c r="Z17" s="24">
-        <v>6</v>
+      <c r="Z17" s="6">
+        <v>7</v>
       </c>
       <c r="AA17" s="24">
         <v>6</v>
@@ -3214,10 +3272,13 @@
         <v>6</v>
       </c>
       <c r="AC17" s="24">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>331</v>
       </c>
@@ -3225,68 +3286,71 @@
         <v>14.2857</v>
       </c>
       <c r="C18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D18">
         <v>90</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
         <v>90</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>95.238100000000003</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f>9/17</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f>9/13</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>95.652199999999993</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>99</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="1"/>
         <v>18.125</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>20</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>19</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>18</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>17</v>
       </c>
-      <c r="R18" s="8">
+      <c r="S18" s="8">
         <v>19</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>15</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
         <v>18</v>
       </c>
-      <c r="U18" s="8">
+      <c r="V18" s="8">
         <v>19</v>
       </c>
-      <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" s="8"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>332</v>
       </c>
@@ -3294,10 +3358,10 @@
         <v>51.7241</v>
       </c>
       <c r="C19">
+        <v>55.5</v>
+      </c>
+      <c r="D19">
         <v>30</v>
-      </c>
-      <c r="D19">
-        <v>70</v>
       </c>
       <c r="E19">
         <v>70</v>
@@ -3305,123 +3369,126 @@
       <c r="F19">
         <v>70</v>
       </c>
-      <c r="H19">
+      <c r="G19">
+        <v>70</v>
+      </c>
+      <c r="I19">
         <v>58.620699999999999</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f>9/17</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19">
+      <c r="K19" s="6"/>
+      <c r="L19">
         <v>78.260900000000007</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>111</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>3.875</v>
       </c>
-      <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
-      <c r="V19">
-        <v>2</v>
-      </c>
+      <c r="V19" s="8"/>
       <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
         <v>6</v>
       </c>
-      <c r="X19">
-        <v>4</v>
-      </c>
       <c r="Y19">
         <v>4</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="8">
         <v>6</v>
       </c>
-      <c r="AA19" s="8">
-        <v>3</v>
-      </c>
       <c r="AB19" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>333</v>
       </c>
       <c r="B20">
         <v>19.047599999999999</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>80</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>70</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>80</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>90</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>80.952399999999997</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f>12/17</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>9/13</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>100</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>129</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>10.875</v>
       </c>
-      <c r="N20">
-        <v>10</v>
-      </c>
       <c r="O20">
         <v>10</v>
       </c>
       <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
         <v>12</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>11</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S20" s="8">
         <v>11</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>10</v>
       </c>
-      <c r="T20" s="8">
+      <c r="U20" s="8">
         <v>11</v>
       </c>
-      <c r="U20" s="8">
+      <c r="V20" s="8">
         <v>12</v>
       </c>
-      <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -3429,133 +3496,136 @@
         <v>51.7241</v>
       </c>
       <c r="C21">
+        <v>55.5</v>
+      </c>
+      <c r="D21">
         <v>70</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>60</v>
-      </c>
-      <c r="E21">
-        <v>70</v>
       </c>
       <c r="F21">
         <v>70</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
+      <c r="G21">
+        <v>70</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
         <v>65.517200000000003</v>
       </c>
-      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21">
+      <c r="K21" s="6"/>
+      <c r="L21">
         <v>78.260900000000007</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>113</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
-      <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
-      <c r="V21">
+      <c r="V21" s="8"/>
+      <c r="W21">
         <v>9</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>14</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>12</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>9</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="AA21" s="8">
         <v>10</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AB21" s="8">
         <v>11</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AC21" s="8">
         <v>10</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AD21" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>336</v>
       </c>
       <c r="B22">
         <v>27.586200000000002</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>60</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>50</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>80</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>70</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2">
+      <c r="H22" s="3"/>
+      <c r="I22" s="2">
         <v>55.172400000000003</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f>6/13</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f>7/13</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>78.260900000000007</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>121</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="1"/>
         <v>18.25</v>
       </c>
-      <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
-      <c r="V22">
+      <c r="V22" s="8"/>
+      <c r="W22">
         <v>19</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>20</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>22</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>20</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="AA22" s="8">
         <v>15</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AB22" s="8">
         <v>16</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>17</v>
       </c>
       <c r="AC22" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -3563,122 +3633,122 @@
         <v>52.381</v>
       </c>
       <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
         <v>50</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>80</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>40</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>70</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>76.1905</v>
       </c>
-      <c r="I23" s="18">
+      <c r="J23" s="18">
         <f>8/11</f>
         <v>0.72727272727272729</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23">
+      <c r="K23" s="6"/>
+      <c r="L23">
         <v>95.652199999999993</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>88</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="1"/>
         <v>6.375</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>8</v>
       </c>
-      <c r="O23">
-        <v>5</v>
-      </c>
       <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
         <v>9</v>
       </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-      <c r="R23" s="8">
+      <c r="R23">
         <v>5</v>
       </c>
       <c r="S23" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" s="8">
+        <v>4</v>
+      </c>
+      <c r="U23" s="8">
         <v>8</v>
       </c>
-      <c r="U23" s="8">
+      <c r="V23" s="8">
         <v>7</v>
       </c>
-      <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
-    </row>
-    <row r="24" spans="1:29" s="6" customFormat="1">
+      <c r="AD23" s="8"/>
+    </row>
+    <row r="24" spans="1:30" s="6" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>338</v>
       </c>
       <c r="B24" s="6">
         <v>48.2759</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <v>40</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>60</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>40</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>80</v>
       </c>
-      <c r="H24" s="23">
+      <c r="I24" s="23">
         <v>68.965500000000006</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <f>11/14</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>65.217399999999998</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>103</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
-      <c r="V24" s="6">
+      <c r="V24" s="24"/>
+      <c r="W24" s="6">
         <v>6</v>
       </c>
-      <c r="W24" s="6">
-        <v>5</v>
-      </c>
       <c r="X24" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="6">
         <v>7</v>
       </c>
-      <c r="Y24" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="24">
-        <v>3</v>
+      <c r="Z24" s="6">
+        <v>5</v>
       </c>
       <c r="AA24" s="24">
         <v>3</v>
@@ -3687,63 +3757,63 @@
         <v>3</v>
       </c>
       <c r="AC24" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>339</v>
       </c>
       <c r="B25">
         <v>23.8095</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>90</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>70</v>
-      </c>
-      <c r="E25">
-        <v>60</v>
       </c>
       <c r="F25">
         <v>60</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2">
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2">
         <v>85.714299999999994</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f>14/17</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f>3/13</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>91.304299999999998</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>109</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>11</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>15</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>12</v>
       </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-      <c r="R25" s="8">
+      <c r="R25">
         <v>10</v>
       </c>
       <c r="S25" s="8">
@@ -3755,8 +3825,11 @@
       <c r="U25" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="V25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>340</v>
       </c>
@@ -3764,55 +3837,55 @@
         <v>37.930999999999997</v>
       </c>
       <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26">
         <v>90</v>
-      </c>
-      <c r="D26">
-        <v>60</v>
       </c>
       <c r="E26">
         <v>60</v>
       </c>
       <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
         <v>90</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>82.758600000000001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f>12/17</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f>8/13</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>86.956500000000005</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>137</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>9</v>
-      </c>
-      <c r="W26">
-        <v>11</v>
       </c>
       <c r="X26">
         <v>11</v>
       </c>
       <c r="Y26">
+        <v>11</v>
+      </c>
+      <c r="Z26">
         <v>10</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="AA26" s="8">
         <v>9</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>10</v>
       </c>
       <c r="AB26" s="8">
         <v>10</v>
@@ -3820,275 +3893,275 @@
       <c r="AC26" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="R27" t="s">
+      <c r="AD26" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="S27" t="s">
         <v>316</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>314</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>313</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>315</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>316</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>314</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>313</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
-      <c r="M28">
-        <f>MIN(M3:M26)</f>
+    <row r="28" spans="1:30">
+      <c r="N28">
+        <f>MIN(N3:N26)</f>
         <v>3.875</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
-      <c r="M29">
-        <f>MAX(M3:M26)</f>
+    <row r="29" spans="1:30">
+      <c r="N29">
+        <f>MAX(N3:N26)</f>
         <v>20.375</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
-      <c r="M30">
-        <f>AVERAGE(M3:M16,M18:M23,M25:M26)</f>
+    <row r="30" spans="1:30">
+      <c r="N30">
+        <f>AVERAGE(N3:N16,N18:N23,N25:N26)</f>
         <v>12.761363636363637</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>9</v>
       </c>
-      <c r="S30">
-        <f>AVERAGE(R3:U3)</f>
+      <c r="T30">
+        <f>AVERAGE(S3:V3)</f>
         <v>11.5</v>
       </c>
-      <c r="T30" s="15">
+      <c r="U30" s="15">
         <v>13</v>
       </c>
-      <c r="U30" s="15">
+      <c r="V30" s="15">
         <v>10</v>
       </c>
-      <c r="V30" s="15">
+      <c r="W30" s="15">
         <v>11</v>
       </c>
-      <c r="W30" s="15">
+      <c r="X30" s="15">
         <v>12</v>
       </c>
-      <c r="Z30" s="8" t="s">
+      <c r="AA30" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
-      <c r="R31" t="s">
+    <row r="31" spans="1:30">
+      <c r="S31" t="s">
         <v>10</v>
       </c>
-      <c r="S31">
-        <f>AVERAGE(Z4:AC4)</f>
+      <c r="T31">
+        <f>AVERAGE(AA4:AD4)</f>
         <v>14.25</v>
       </c>
-      <c r="T31" s="15">
+      <c r="U31" s="15">
         <v>15</v>
       </c>
-      <c r="U31" s="16">
+      <c r="V31" s="16">
         <v>13</v>
       </c>
-      <c r="V31" s="15">
+      <c r="W31" s="15">
         <v>15</v>
       </c>
-      <c r="W31" s="15">
+      <c r="X31" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
-      <c r="R32" t="s">
+    <row r="32" spans="1:30">
+      <c r="S32" t="s">
         <v>11</v>
       </c>
-      <c r="S32">
-        <f>AVERAGE(R5:U5)</f>
+      <c r="T32">
+        <f>AVERAGE(S5:V5)</f>
         <v>18.5</v>
       </c>
-      <c r="T32" s="15">
+      <c r="U32" s="15">
         <v>18</v>
-      </c>
-      <c r="U32" s="15">
-        <v>19</v>
       </c>
       <c r="V32" s="15">
         <v>19</v>
       </c>
       <c r="W32" s="15">
+        <v>19</v>
+      </c>
+      <c r="X32" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="7:23">
-      <c r="R33" t="s">
+    <row r="33" spans="8:24">
+      <c r="S33" t="s">
         <v>12</v>
       </c>
-      <c r="S33">
-        <f>AVERAGE(Z6:AC6)</f>
+      <c r="T33">
+        <f>AVERAGE(AA6:AD6)</f>
         <v>19</v>
       </c>
-      <c r="T33" s="15">
+      <c r="U33" s="15">
         <v>18</v>
       </c>
-      <c r="U33" s="15">
+      <c r="V33" s="15">
         <v>21</v>
       </c>
-      <c r="V33" s="16">
+      <c r="W33" s="16">
         <v>18</v>
       </c>
-      <c r="W33" s="16">
+      <c r="X33" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="7:23">
-      <c r="R34" t="s">
+    <row r="34" spans="8:24">
+      <c r="S34" t="s">
         <v>13</v>
       </c>
-      <c r="S34">
-        <f>AVERAGE(R7:U7)</f>
+      <c r="T34">
+        <f>AVERAGE(S7:V7)</f>
         <v>16.75</v>
-      </c>
-      <c r="T34" s="15">
-        <v>16</v>
       </c>
       <c r="U34" s="15">
         <v>16</v>
       </c>
       <c r="V34" s="15">
+        <v>16</v>
+      </c>
+      <c r="W34" s="15">
         <v>17</v>
       </c>
-      <c r="W34" s="15">
+      <c r="X34" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="7:23">
-      <c r="G35" s="2"/>
+    <row r="35" spans="8:24">
       <c r="H35" s="2"/>
-      <c r="R35" t="s">
+      <c r="I35" s="2"/>
+      <c r="S35" t="s">
         <v>14</v>
       </c>
-      <c r="S35">
-        <f>AVERAGE(Z8:AC8)</f>
+      <c r="T35">
+        <f>AVERAGE(AA8:AD8)</f>
         <v>18</v>
       </c>
-      <c r="T35" s="15">
+      <c r="U35" s="15">
         <v>17</v>
       </c>
-      <c r="U35" s="15">
+      <c r="V35" s="15">
         <v>18</v>
       </c>
-      <c r="V35" s="15">
+      <c r="W35" s="15">
         <v>19</v>
       </c>
-      <c r="W35" s="15">
+      <c r="X35" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="7:23">
-      <c r="G36" s="3"/>
+    <row r="36" spans="8:24">
       <c r="H36" s="3"/>
-      <c r="R36" t="s">
+      <c r="I36" s="3"/>
+      <c r="S36" t="s">
         <v>15</v>
       </c>
-      <c r="S36">
-        <f>AVERAGE(R9:U9)</f>
+      <c r="T36">
+        <f>AVERAGE(S9:V9)</f>
         <v>7</v>
       </c>
-      <c r="T36" s="15">
+      <c r="U36" s="15">
         <v>6</v>
       </c>
-      <c r="U36" s="15">
+      <c r="V36" s="15">
         <v>8</v>
-      </c>
-      <c r="V36" s="15">
-        <v>7</v>
       </c>
       <c r="W36" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="7:23">
-      <c r="R37" t="s">
+      <c r="X36" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="8:24">
+      <c r="S37" t="s">
         <v>198</v>
       </c>
-      <c r="S37">
-        <f>AVERAGE(Z10:AC10)</f>
+      <c r="T37">
+        <f>AVERAGE(AA10:AD10)</f>
         <v>8.75</v>
       </c>
-      <c r="T37" s="15">
+      <c r="U37" s="15">
         <v>9</v>
       </c>
-      <c r="U37" s="15">
+      <c r="V37" s="15">
         <v>7</v>
       </c>
-      <c r="V37" s="15">
+      <c r="W37" s="15">
         <v>11</v>
       </c>
-      <c r="W37" s="15">
+      <c r="X37" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="7:23">
-      <c r="R38" t="s">
+    <row r="38" spans="8:24">
+      <c r="S38" t="s">
         <v>199</v>
       </c>
-      <c r="S38">
-        <f>AVERAGE(Z11:AC11)</f>
+      <c r="T38">
+        <f>AVERAGE(AA11:AD11)</f>
         <v>9.75</v>
-      </c>
-      <c r="T38" s="15">
-        <v>10</v>
       </c>
       <c r="U38" s="15">
         <v>10</v>
       </c>
       <c r="V38" s="15">
+        <v>10</v>
+      </c>
+      <c r="W38" s="15">
         <v>9</v>
       </c>
-      <c r="W38" s="15">
+      <c r="X38" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="7:23">
-      <c r="G39" s="3"/>
+    <row r="39" spans="8:24">
       <c r="H39" s="3"/>
-      <c r="R39" t="s">
+      <c r="I39" s="3"/>
+      <c r="S39" t="s">
         <v>200</v>
       </c>
-      <c r="S39">
-        <f>AVERAGE(R12:U12)</f>
+      <c r="T39">
+        <f>AVERAGE(S12:V12)</f>
         <v>14.75</v>
-      </c>
-      <c r="T39" s="15">
-        <v>14</v>
       </c>
       <c r="U39" s="15">
         <v>14</v>
@@ -4097,276 +4170,276 @@
         <v>14</v>
       </c>
       <c r="W39" s="15">
+        <v>14</v>
+      </c>
+      <c r="X39" s="15">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="7:23">
-      <c r="R40" t="s">
+    <row r="40" spans="8:24">
+      <c r="S40" t="s">
         <v>201</v>
       </c>
-      <c r="S40">
-        <f>AVERAGE(Z13:AC13)</f>
+      <c r="T40">
+        <f>AVERAGE(AA13:AD13)</f>
         <v>8.25</v>
-      </c>
-      <c r="T40" s="15">
-        <v>9</v>
       </c>
       <c r="U40" s="15">
         <v>9</v>
       </c>
       <c r="V40" s="15">
+        <v>9</v>
+      </c>
+      <c r="W40" s="15">
         <v>8</v>
       </c>
-      <c r="W40" s="15">
+      <c r="X40" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="7:23">
-      <c r="R41" t="s">
+    <row r="41" spans="8:24">
+      <c r="S41" t="s">
         <v>202</v>
       </c>
-      <c r="S41">
-        <f>AVERAGE(R14:U14)</f>
+      <c r="T41">
+        <f>AVERAGE(S14:V14)</f>
         <v>8.5</v>
       </c>
-      <c r="T41" s="15">
+      <c r="U41" s="15">
         <v>8</v>
       </c>
-      <c r="U41" s="15">
+      <c r="V41" s="15">
         <v>9</v>
       </c>
-      <c r="V41" s="15">
+      <c r="W41" s="15">
         <v>8</v>
       </c>
-      <c r="W41" s="15">
+      <c r="X41" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="7:23">
-      <c r="R42" t="s">
+    <row r="42" spans="8:24">
+      <c r="S42" t="s">
         <v>203</v>
       </c>
-      <c r="S42">
-        <f>AVERAGE(Z15:AC15)</f>
+      <c r="T42">
+        <f>AVERAGE(AA15:AD15)</f>
         <v>17</v>
-      </c>
-      <c r="T42" s="15">
-        <v>18</v>
       </c>
       <c r="U42" s="15">
         <v>18</v>
       </c>
       <c r="V42" s="15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W42" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="7:23">
-      <c r="R43" t="s">
+      <c r="X42" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="8:24">
+      <c r="S43" t="s">
         <v>204</v>
       </c>
-      <c r="S43">
-        <f>AVERAGE(R16:U16)</f>
+      <c r="T43">
+        <f>AVERAGE(S16:V16)</f>
         <v>12.5</v>
       </c>
-      <c r="T43" s="15">
+      <c r="U43" s="15">
         <v>11</v>
       </c>
-      <c r="U43" s="15">
+      <c r="V43" s="15">
         <v>16</v>
       </c>
-      <c r="V43" s="15">
+      <c r="W43" s="15">
         <v>12</v>
       </c>
-      <c r="W43" s="15">
+      <c r="X43" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="7:23">
-      <c r="R44" t="s">
+    <row r="44" spans="8:24">
+      <c r="S44" t="s">
         <v>330</v>
       </c>
-      <c r="S44">
-        <f>AVERAGE(Z17:AC17)</f>
+      <c r="T44">
+        <f>AVERAGE(AA17:AD17)</f>
         <v>6.25</v>
-      </c>
-      <c r="T44" s="23">
-        <v>6</v>
       </c>
       <c r="U44" s="23">
         <v>6</v>
       </c>
       <c r="V44" s="23">
+        <v>6</v>
+      </c>
+      <c r="W44" s="23">
         <v>7</v>
       </c>
-      <c r="W44" s="23">
+      <c r="X44" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="7:23">
-      <c r="R45" t="s">
+    <row r="45" spans="8:24">
+      <c r="S45" t="s">
         <v>331</v>
       </c>
-      <c r="S45">
-        <f>AVERAGE(R18:U18)</f>
+      <c r="T45">
+        <f>AVERAGE(S18:V18)</f>
         <v>17.75</v>
       </c>
-      <c r="T45" s="15">
+      <c r="U45" s="15">
         <v>18</v>
       </c>
-      <c r="U45" s="15">
+      <c r="V45" s="15">
         <v>15</v>
-      </c>
-      <c r="V45" s="15">
-        <v>19</v>
       </c>
       <c r="W45" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="7:23">
-      <c r="R46" t="s">
+      <c r="X45" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="8:24">
+      <c r="S46" t="s">
         <v>332</v>
       </c>
-      <c r="S46">
-        <f>AVERAGE(Z19:AC19)</f>
+      <c r="T46">
+        <f>AVERAGE(AA19:AD19)</f>
         <v>3.75</v>
       </c>
-      <c r="T46" s="15">
-        <v>5</v>
-      </c>
       <c r="U46" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W46" s="15">
+        <v>1</v>
+      </c>
+      <c r="X46" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="7:23">
-      <c r="H47" s="6"/>
-      <c r="R47" t="s">
+    <row r="47" spans="8:24">
+      <c r="I47" s="6"/>
+      <c r="S47" t="s">
         <v>333</v>
       </c>
-      <c r="S47">
-        <f>AVERAGE(R20:U20)</f>
+      <c r="T47">
+        <f>AVERAGE(S20:V20)</f>
         <v>11</v>
       </c>
-      <c r="T47" s="15">
+      <c r="U47" s="15">
         <v>11</v>
       </c>
-      <c r="U47" s="15">
+      <c r="V47" s="15">
         <v>10</v>
       </c>
-      <c r="V47" s="15">
+      <c r="W47" s="15">
         <v>12</v>
       </c>
-      <c r="W47" s="15">
+      <c r="X47" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="7:23">
-      <c r="R48" t="s">
+    <row r="48" spans="8:24">
+      <c r="S48" t="s">
         <v>334</v>
       </c>
-      <c r="S48">
-        <f>AVERAGE(Z21:AC21)</f>
+      <c r="T48">
+        <f>AVERAGE(AA21:AD21)</f>
         <v>10.5</v>
       </c>
-      <c r="T48" s="15">
+      <c r="U48" s="15">
         <v>10</v>
-      </c>
-      <c r="U48" s="15">
-        <v>11</v>
       </c>
       <c r="V48" s="15">
         <v>11</v>
       </c>
       <c r="W48" s="15">
+        <v>11</v>
+      </c>
+      <c r="X48" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="7:23">
-      <c r="R49" t="s">
+    <row r="49" spans="8:24">
+      <c r="S49" t="s">
         <v>336</v>
       </c>
-      <c r="S49">
-        <f>AVERAGE(Z22:AC22)</f>
+      <c r="T49">
+        <f>AVERAGE(AA22:AD22)</f>
         <v>16.25</v>
       </c>
-      <c r="T49" s="15">
+      <c r="U49" s="15">
         <v>17</v>
       </c>
-      <c r="U49" s="15">
+      <c r="V49" s="15">
         <v>16</v>
       </c>
-      <c r="V49" s="15">
+      <c r="W49" s="15">
         <v>17</v>
       </c>
-      <c r="W49" s="15">
+      <c r="X49" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="7:23">
-      <c r="G50" s="2"/>
-      <c r="R50" t="s">
+    <row r="50" spans="8:24">
+      <c r="H50" s="2"/>
+      <c r="S50" t="s">
         <v>337</v>
       </c>
-      <c r="S50">
-        <f>AVERAGE(R23:U23)</f>
+      <c r="T50">
+        <f>AVERAGE(S23:V23)</f>
         <v>6</v>
       </c>
-      <c r="T50" s="15">
+      <c r="U50" s="15">
         <v>8</v>
       </c>
-      <c r="U50" s="15">
-        <v>4</v>
-      </c>
       <c r="V50" s="15">
+        <v>4</v>
+      </c>
+      <c r="W50" s="15">
         <v>7</v>
       </c>
-      <c r="W50" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="7:23">
-      <c r="G51" s="2"/>
+      <c r="X50" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="8:24">
       <c r="H51" s="2"/>
-      <c r="R51" t="s">
+      <c r="I51" s="2"/>
+      <c r="S51" t="s">
         <v>338</v>
       </c>
-      <c r="S51">
-        <f>AVERAGE(Z24:AC24)</f>
+      <c r="T51">
+        <f>AVERAGE(AA24:AD24)</f>
         <v>3.75</v>
       </c>
-      <c r="T51" s="23">
-        <v>3</v>
-      </c>
       <c r="U51" s="23">
         <v>3</v>
       </c>
       <c r="V51" s="23">
+        <v>3</v>
+      </c>
+      <c r="W51" s="23">
         <v>6</v>
       </c>
-      <c r="W51" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="7:23">
-      <c r="G52" s="2"/>
+      <c r="X51" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="8:24">
       <c r="H52" s="2"/>
-      <c r="R52" t="s">
+      <c r="I52" s="2"/>
+      <c r="S52" t="s">
         <v>339</v>
       </c>
-      <c r="S52">
-        <f>AVERAGE(R25:U25)</f>
-        <v>10</v>
-      </c>
-      <c r="T52" s="15">
+      <c r="T52">
+        <f>AVERAGE(S25:V25)</f>
         <v>10</v>
       </c>
       <c r="U52" s="15">
@@ -4378,19 +4451,19 @@
       <c r="W52" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="7:23">
-      <c r="G53" s="2"/>
+      <c r="X52" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="8:24">
       <c r="H53" s="2"/>
-      <c r="R53" t="s">
+      <c r="I53" s="2"/>
+      <c r="S53" t="s">
         <v>340</v>
       </c>
-      <c r="S53">
-        <f>AVERAGE(Z26:AC26)</f>
+      <c r="T53">
+        <f>AVERAGE(AA26:AD26)</f>
         <v>9.75</v>
-      </c>
-      <c r="T53" s="15">
-        <v>10</v>
       </c>
       <c r="U53" s="15">
         <v>10</v>
@@ -4399,23 +4472,26 @@
         <v>10</v>
       </c>
       <c r="W53" s="15">
+        <v>10</v>
+      </c>
+      <c r="X53" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="7:23">
-      <c r="G54" s="2"/>
-      <c r="H54" s="23"/>
-    </row>
-    <row r="55" spans="7:23">
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="7:23">
-      <c r="H56" s="2"/>
+    <row r="54" spans="8:24">
+      <c r="H54" s="2"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="8:24">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="8:24">
+      <c r="I56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="W1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4429,6 +4505,2741 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1">
+        <v>101</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
+      </c>
+      <c r="C1">
+        <v>0.5</v>
+      </c>
+      <c r="D1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" t="s">
+        <v>476</v>
+      </c>
+      <c r="K3" t="s">
+        <v>478</v>
+      </c>
+      <c r="L3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>B1</f>
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:I4" si="0">C1</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <f>B7</f>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:L4" si="1">C7</f>
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f>B8</f>
+        <v>0.375</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:I5" si="2">C8</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="J5">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:L5" si="3">C13</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f>B14</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:I6" si="4">C14</f>
+        <v>0.4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <f>B19</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:L6" si="5">C19</f>
+        <v>0.75</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <f>B20</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:I7" si="6">C20</f>
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J7">
+        <f>B25</f>
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:L7" si="7">C25</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>0.375</v>
+      </c>
+      <c r="C8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D8">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <f>B26</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:I8" si="8">C26</f>
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <f>B31</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:L8" si="9">C31</f>
+        <v>0.875</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <f>B32</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:I9" si="10">C32</f>
+        <v>0.7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <f>B37</f>
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:L9" si="11">C37</f>
+        <v>0.9</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="11"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f>B38</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:I10" si="12">C38</f>
+        <v>0.375</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="12"/>
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="J10">
+        <f>B43</f>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:L10" si="13">C43</f>
+        <v>0.875</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="13"/>
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11">
+        <f>B44</f>
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:I11" si="14">C44</f>
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <f>B49</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:L11" si="15">C49</f>
+        <v>0.9</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12">
+        <f>B51</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:I12" si="16">C51</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <f>B56</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:L12" si="17">C56</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>102</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <f>B57</f>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:I13" si="18">C57</f>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="18"/>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="J13">
+        <f>B61</f>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:L13" si="19">C61</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="19"/>
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C14">
+        <v>0.4</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14">
+        <f>B62</f>
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:I14" si="20">C62</f>
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <f>B67</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:L14" si="21">C67</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C15">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D15">
+        <v>0.75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15">
+        <f>B68</f>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:I15" si="22">C68</f>
+        <v>0.75</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="22"/>
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J15">
+        <f>B73</f>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:L15" si="23">C73</f>
+        <v>0.875</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="23"/>
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>103</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16">
+        <f>B74</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:I16" si="24">C74</f>
+        <v>0.6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="24"/>
+        <v>0.4</v>
+      </c>
+      <c r="J16">
+        <f>B79</f>
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:L16" si="25">C79</f>
+        <v>0.9</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="25"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>103</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17">
+        <f>B80</f>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:I17" si="26">C80</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="26"/>
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="J17">
+        <f>B84</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:L17" si="27">C84</f>
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="27"/>
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18">
+        <f>B85</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:I18" si="28">C85</f>
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="28"/>
+        <v>0.3</v>
+      </c>
+      <c r="J18">
+        <f>B90</f>
+        <v>0.625</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:L18" si="29">C90</f>
+        <v>0.8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C19">
+        <v>0.75</v>
+      </c>
+      <c r="D19">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19">
+        <f>B91</f>
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:I19" si="30">C91</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="30"/>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="J19">
+        <f>B96</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:L19" si="31">C96</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="31"/>
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C20">
+        <v>0.6</v>
+      </c>
+      <c r="D20">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F20" t="s">
+        <v>332</v>
+      </c>
+      <c r="G20">
+        <f>B97</f>
+        <v>0.375</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:I20" si="32">C97</f>
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="32"/>
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="J20">
+        <f>B102</f>
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:L20" si="33">C102</f>
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="33"/>
+        <v>0.55555555555555602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>104</v>
+      </c>
+      <c r="B21">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G21">
+        <f>B103</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:I21" si="34">C103</f>
+        <v>0.125</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="34"/>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="J21">
+        <f>B108</f>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:L21" si="35">C108</f>
+        <v>0.875</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="35"/>
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>104</v>
+      </c>
+      <c r="B22">
+        <v>0.75</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22">
+        <f>B109</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:I22" si="36">C109</f>
+        <v>0.875</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="J22">
+        <f>B114</f>
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:L22" si="37">C114</f>
+        <v>0.7</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="37"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23">
+        <f>B116</f>
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:I23" si="38">C116</f>
+        <v>0.4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="38"/>
+        <v>0.3</v>
+      </c>
+      <c r="J23">
+        <f>B121</f>
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:L23" si="39">C121</f>
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="39"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>0.75</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24">
+        <f>B122</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:I24" si="40">C122</f>
+        <v>0.25</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="40"/>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="J24">
+        <f>B127</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:L24" si="41">C127</f>
+        <v>0.875</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="41"/>
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25">
+        <f>B128</f>
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:I25" si="42">C128</f>
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="42"/>
+        <v>0.4</v>
+      </c>
+      <c r="J25">
+        <f>B133</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:L25" si="43">C133</f>
+        <v>0.9</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="43"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26">
+        <f>B134</f>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:I26" si="44">C134</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="44"/>
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="J26">
+        <f>B139</f>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:L26" si="45">C139</f>
+        <v>0.875</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="45"/>
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>105</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27">
+        <f>B140</f>
+        <v>0.25</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:I27" si="46">C140</f>
+        <v>0.6</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="46"/>
+        <v>0.375</v>
+      </c>
+      <c r="J27">
+        <f>B145</f>
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:L27" si="47">C145</f>
+        <v>0.8</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="47"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C28">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>105</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G4:G27)</f>
+        <v>0.35033068783068771</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:L29" si="48">AVERAGE(H4:H27)</f>
+        <v>0.43930224867724871</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="48"/>
+        <v>0.41413690476190484</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="48"/>
+        <v>0.75983796296296313</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="48"/>
+        <v>0.85115740740740753</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="48"/>
+        <v>0.75449735449735433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>0.75</v>
+      </c>
+      <c r="C30">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0.875</v>
+      </c>
+      <c r="D31">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>106</v>
+      </c>
+      <c r="B32">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C32">
+        <v>0.7</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>106</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>0.75</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="C37">
+        <v>0.9</v>
+      </c>
+      <c r="D37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.375</v>
+      </c>
+      <c r="D38">
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>107</v>
+      </c>
+      <c r="B40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C40">
+        <v>0.75</v>
+      </c>
+      <c r="D40">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>0.25</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D42">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>107</v>
+      </c>
+      <c r="B43">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C43">
+        <v>0.875</v>
+      </c>
+      <c r="D43">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>108</v>
+      </c>
+      <c r="B44">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>108</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>108</v>
+      </c>
+      <c r="B47">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>108</v>
+      </c>
+      <c r="B49">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C49">
+        <v>0.9</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>109</v>
+      </c>
+      <c r="B50">
+        <v>0.2</v>
+      </c>
+      <c r="C50">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>110</v>
+      </c>
+      <c r="B51">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C51">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>110</v>
+      </c>
+      <c r="B52">
+        <v>0.75</v>
+      </c>
+      <c r="C52">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>110</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0.75</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>110</v>
+      </c>
+      <c r="B54">
+        <v>0.75</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <v>0.75</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>110</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>111</v>
+      </c>
+      <c r="B57">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C57">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D57">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>111</v>
+      </c>
+      <c r="B58">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C58">
+        <v>0.4</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>111</v>
+      </c>
+      <c r="B59">
+        <v>0.25</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>111</v>
+      </c>
+      <c r="B60">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C60">
+        <v>0.75</v>
+      </c>
+      <c r="D60">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>111</v>
+      </c>
+      <c r="B61">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>112</v>
+      </c>
+      <c r="B62">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="C62">
+        <v>0.6</v>
+      </c>
+      <c r="D62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>112</v>
+      </c>
+      <c r="B63">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>112</v>
+      </c>
+      <c r="B64">
+        <v>0.5</v>
+      </c>
+      <c r="C64">
+        <v>0.75</v>
+      </c>
+      <c r="D64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>112</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="D65">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>112</v>
+      </c>
+      <c r="B66">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C66">
+        <v>0.8</v>
+      </c>
+      <c r="D66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>112</v>
+      </c>
+      <c r="B67">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>113</v>
+      </c>
+      <c r="B68">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C68">
+        <v>0.75</v>
+      </c>
+      <c r="D68">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>113</v>
+      </c>
+      <c r="B69">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C69">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>113</v>
+      </c>
+      <c r="B70">
+        <v>0.5</v>
+      </c>
+      <c r="C70">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D70">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>113</v>
+      </c>
+      <c r="B71">
+        <v>0.25</v>
+      </c>
+      <c r="C71">
+        <v>0.25</v>
+      </c>
+      <c r="D71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>113</v>
+      </c>
+      <c r="B72">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C72">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D72">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>113</v>
+      </c>
+      <c r="B73">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C73">
+        <v>0.875</v>
+      </c>
+      <c r="D73">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>114</v>
+      </c>
+      <c r="B74">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C74">
+        <v>0.6</v>
+      </c>
+      <c r="D74">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>114</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>114</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>114</v>
+      </c>
+      <c r="B77">
+        <v>0.75</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>114</v>
+      </c>
+      <c r="B78">
+        <v>0.75</v>
+      </c>
+      <c r="C78">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>114</v>
+      </c>
+      <c r="B79">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="C79">
+        <v>0.9</v>
+      </c>
+      <c r="D79">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>115</v>
+      </c>
+      <c r="B80">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>115</v>
+      </c>
+      <c r="B81">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C81">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D81">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>115</v>
+      </c>
+      <c r="B82">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C83">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>115</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0.75</v>
+      </c>
+      <c r="D84">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>116</v>
+      </c>
+      <c r="B85">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C85">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>116</v>
+      </c>
+      <c r="B86">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>116</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0.25</v>
+      </c>
+      <c r="D87">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C88">
+        <v>0.5</v>
+      </c>
+      <c r="D88">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>116</v>
+      </c>
+      <c r="B89">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C89">
+        <v>0.2</v>
+      </c>
+      <c r="D89">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>116</v>
+      </c>
+      <c r="B90">
+        <v>0.625</v>
+      </c>
+      <c r="C90">
+        <v>0.8</v>
+      </c>
+      <c r="D90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>117</v>
+      </c>
+      <c r="B91">
+        <v>0.5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>117</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>117</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>117</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>117</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>117</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>118</v>
+      </c>
+      <c r="B97">
+        <v>0.375</v>
+      </c>
+      <c r="C97">
+        <v>0.8</v>
+      </c>
+      <c r="D97">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>118</v>
+      </c>
+      <c r="B98">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C98">
+        <v>0.25</v>
+      </c>
+      <c r="D98">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>118</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>118</v>
+      </c>
+      <c r="B100">
+        <v>0.5</v>
+      </c>
+      <c r="C100">
+        <v>0.6</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>118</v>
+      </c>
+      <c r="B101">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C101">
+        <v>0.75</v>
+      </c>
+      <c r="D101">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>118</v>
+      </c>
+      <c r="B102">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="C102">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="D102">
+        <v>0.55555555555555602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>119</v>
+      </c>
+      <c r="B103">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C103">
+        <v>0.125</v>
+      </c>
+      <c r="D103">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>119</v>
+      </c>
+      <c r="B104">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C104">
+        <v>0.75</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>119</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>119</v>
+      </c>
+      <c r="B106">
+        <v>0.75</v>
+      </c>
+      <c r="C106">
+        <v>0.8</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>119</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C108">
+        <v>0.875</v>
+      </c>
+      <c r="D108">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>120</v>
+      </c>
+      <c r="B109">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C109">
+        <v>0.875</v>
+      </c>
+      <c r="D109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>120</v>
+      </c>
+      <c r="B110">
+        <v>0.5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>120</v>
+      </c>
+      <c r="B111">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C111">
+        <v>0.25</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>120</v>
+      </c>
+      <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D112">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>120</v>
+      </c>
+      <c r="B113">
+        <v>0.8</v>
+      </c>
+      <c r="C113">
+        <v>0.5</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C114">
+        <v>0.7</v>
+      </c>
+      <c r="D114">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0.25</v>
+      </c>
+      <c r="D115">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>122</v>
+      </c>
+      <c r="B116">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="C116">
+        <v>0.4</v>
+      </c>
+      <c r="D116">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C117">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D117">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <v>0.6</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>0.4</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="C121">
+        <v>0.5</v>
+      </c>
+      <c r="D121">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C122">
+        <v>0.25</v>
+      </c>
+      <c r="D122">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>0.75</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C125">
+        <v>0.5</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C127">
+        <v>0.875</v>
+      </c>
+      <c r="D127">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C128">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="D128">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>124</v>
+      </c>
+      <c r="B129">
+        <v>0.4</v>
+      </c>
+      <c r="C129">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>124</v>
+      </c>
+      <c r="B130">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C130">
+        <v>0.75</v>
+      </c>
+      <c r="D130">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>124</v>
+      </c>
+      <c r="B131">
+        <v>0.25</v>
+      </c>
+      <c r="C131">
+        <v>0.75</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>124</v>
+      </c>
+      <c r="B132">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C132">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>124</v>
+      </c>
+      <c r="B133">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C133">
+        <v>0.9</v>
+      </c>
+      <c r="D133">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>125</v>
+      </c>
+      <c r="B134">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>125</v>
+      </c>
+      <c r="B135">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>125</v>
+      </c>
+      <c r="B136">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C136">
+        <v>0.75</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>125</v>
+      </c>
+      <c r="B137">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C137">
+        <v>0.5</v>
+      </c>
+      <c r="D137">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>125</v>
+      </c>
+      <c r="B138">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C138">
+        <v>0.75</v>
+      </c>
+      <c r="D138">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>125</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>0.875</v>
+      </c>
+      <c r="D139">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>126</v>
+      </c>
+      <c r="B140">
+        <v>0.25</v>
+      </c>
+      <c r="C140">
+        <v>0.6</v>
+      </c>
+      <c r="D140">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>126</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>126</v>
+      </c>
+      <c r="B142">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C142">
+        <v>0.8</v>
+      </c>
+      <c r="D142">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>126</v>
+      </c>
+      <c r="B143">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C143">
+        <v>0.5</v>
+      </c>
+      <c r="D143">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>126</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>126</v>
+      </c>
+      <c r="B145">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="C145">
+        <v>0.8</v>
+      </c>
+      <c r="D145">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5438,7 +8249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
@@ -8577,7 +11388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
@@ -10964,7 +13775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592" activeTab="1"/>
+    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="482">
   <si>
     <t>ID</t>
   </si>
@@ -1472,6 +1472,9 @@
   </si>
   <si>
     <t>w-post</t>
+  </si>
+  <si>
+    <t>all but 5 speak more than one language</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I23" sqref="I23"/>
     </sheetView>
@@ -4507,7 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -8253,12 +8256,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView topLeftCell="AA1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
     <col min="35" max="35" width="17.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" customWidth="1"/>
   </cols>
@@ -11360,18 +11365,41 @@
         <f>AVERAGE(D3:D10,D12:D17,D19:D22,D24:D25,D27:D28)</f>
         <v>24.181818181818183</v>
       </c>
+      <c r="E30">
+        <f>COUNTIF(E3:E28,"*Female*")</f>
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <f>COUNTIF(H3:H28,"english")</f>
+        <v>14</v>
+      </c>
       <c r="AK30" s="1">
         <f>AVERAGE(AK3:AK17,AK19:AK25,AK27:AK28)</f>
         <v>19.636363636363637</v>
       </c>
     </row>
     <row r="31" spans="1:39">
+      <c r="D31">
+        <f>MIN(D3:D28)</f>
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIF(E3:E28,"Male*")</f>
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>481</v>
+      </c>
       <c r="AK31">
         <f>MIN(AK3:AK17,AK19:AK25,AK27:AK28)</f>
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:39">
+      <c r="D32">
+        <f>MAX(D3:D28)</f>
+        <v>39</v>
+      </c>
       <c r="AK32">
         <f>MAX(AK3:AK17,AK19:AK25,AK27:AK28)</f>
         <v>29</v>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="484">
   <si>
     <t>ID</t>
   </si>
@@ -1475,6 +1475,12 @@
   </si>
   <si>
     <t>all but 5 speak more than one language</t>
+  </si>
+  <si>
+    <t>mean # of listens</t>
+  </si>
+  <si>
+    <t>Lyric+oldnew</t>
   </si>
 </sst>
 </file>
@@ -2070,11 +2076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I23" sqref="I23"/>
+      <selection pane="topRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2084,32 +2090,32 @@
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="14" width="15.5" customWidth="1"/>
+    <col min="12" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="O1" s="53" t="s">
+    <row r="1" spans="1:33">
+      <c r="R1" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
       <c r="S1" s="53"/>
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
       <c r="V1" s="53"/>
-      <c r="W1" s="54" t="s">
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
       <c r="AB1" s="55"/>
       <c r="AC1" s="55"/>
       <c r="AD1" s="55"/>
-    </row>
-    <row r="2" spans="1:30" s="4" customFormat="1">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+    </row>
+    <row r="2" spans="1:33" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2149,56 +2155,65 @@
       <c r="M2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="O2" s="4">
+      <c r="N2" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="R2" s="4">
         <v>52</v>
       </c>
-      <c r="P2" s="4">
+      <c r="S2" s="4">
         <v>42</v>
       </c>
-      <c r="Q2" s="4">
-        <v>2</v>
-      </c>
-      <c r="R2" s="4">
+      <c r="T2" s="4">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4">
         <v>132</v>
       </c>
-      <c r="S2" s="7">
+      <c r="V2" s="7">
         <v>122</v>
       </c>
-      <c r="T2" s="7">
+      <c r="W2" s="7">
         <v>142</v>
       </c>
-      <c r="U2" s="7">
+      <c r="X2" s="7">
         <v>92</v>
       </c>
-      <c r="V2" s="7">
+      <c r="Y2" s="7">
         <v>62</v>
       </c>
-      <c r="W2" s="9">
+      <c r="Z2" s="9">
         <v>22</v>
       </c>
-      <c r="X2" s="10">
+      <c r="AA2" s="10">
         <v>32</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="AB2" s="10">
         <v>12</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="AC2" s="10">
         <v>72</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AD2" s="11">
         <v>112</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AE2" s="11">
         <v>152</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AF2" s="11">
         <v>102</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AG2" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2233,43 +2248,54 @@
         <v>112</v>
       </c>
       <c r="N3">
-        <f>AVERAGE(O3:AD3)</f>
+        <f>AVERAGE(I3,L3)</f>
+        <v>78.985649999999993</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(R3:AG3)</f>
         <v>12.125</v>
       </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>13</v>
+      <c r="P3" s="1">
+        <v>29</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <f>O3/P3</f>
+        <v>0.41810344827586204</v>
       </c>
       <c r="R3">
         <v>13</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
         <v>12</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3" s="8">
+        <v>12</v>
+      </c>
+      <c r="W3" s="8">
         <v>10</v>
       </c>
-      <c r="U3" s="8">
+      <c r="X3" s="8">
         <v>13</v>
       </c>
-      <c r="V3" s="8">
+      <c r="Y3" s="8">
         <v>11</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
       <c r="AD3" s="14"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2309,39 +2335,50 @@
         <v>58</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N15" si="0">AVERAGE(O4:AD4)</f>
+        <f t="shared" ref="N4:N26" si="0">AVERAGE(I4,L4)</f>
+        <v>97.826099999999997</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O15" si="1">AVERAGE(R4:AG4)</f>
         <v>14.375</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="P4" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q26" si="2">O4/P4</f>
+        <v>0.71875</v>
+      </c>
       <c r="V4" s="8"/>
-      <c r="W4" s="12">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="12">
         <v>16</v>
       </c>
-      <c r="X4" s="13">
+      <c r="AA4" s="13">
         <v>14</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="AB4" s="13">
         <v>14</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="AC4" s="13">
         <v>14</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AD4" s="14">
         <v>14</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AE4" s="14">
         <v>13</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AF4" s="14">
         <v>15</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AG4" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2382,42 +2419,53 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
+        <v>83.333500000000001</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="R5">
         <v>21</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>21</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>20</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>18</v>
       </c>
-      <c r="S5" s="8">
+      <c r="V5" s="8">
         <v>18</v>
       </c>
-      <c r="T5" s="8">
+      <c r="W5" s="8">
         <v>19</v>
       </c>
-      <c r="U5" s="8">
+      <c r="X5" s="8">
         <v>18</v>
       </c>
-      <c r="V5" s="8">
+      <c r="Y5" s="8">
         <v>19</v>
       </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="14"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2458,38 +2506,49 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
+        <v>86.531450000000007</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
         <v>20.375</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="P6" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>1.1985294117647058</v>
+      </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="12">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="12">
         <v>21</v>
       </c>
-      <c r="X6" s="13">
+      <c r="AA6" s="13">
         <v>22</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="AB6" s="13">
         <v>23</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="AC6" s="13">
         <v>21</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AD6" s="14">
         <v>19</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AE6" s="14">
         <v>21</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AF6" s="14">
         <v>18</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AG6" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2526,42 +2585,53 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
+        <v>88.509299999999996</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O7">
+      <c r="P7" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>18</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>17</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>18</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>16</v>
       </c>
-      <c r="S7" s="8">
+      <c r="V7" s="8">
         <v>18</v>
       </c>
-      <c r="T7" s="8">
+      <c r="W7" s="8">
         <v>16</v>
       </c>
-      <c r="U7" s="8">
+      <c r="X7" s="8">
         <v>16</v>
       </c>
-      <c r="V7" s="8">
+      <c r="Y7" s="8">
         <v>17</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
       <c r="AD7" s="14"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2599,38 +2669,49 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
+        <v>83.134950000000003</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="P8" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0.97368421052631582</v>
+      </c>
       <c r="V8" s="8"/>
-      <c r="W8" s="12">
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="12">
         <v>21</v>
       </c>
-      <c r="X8" s="13">
+      <c r="AA8" s="13">
         <v>18</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="AB8" s="13">
         <v>19</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="AC8" s="13">
         <v>18</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AD8" s="14">
         <v>18</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AE8" s="14">
         <v>18</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AF8" s="14">
         <v>17</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AG8" s="14">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2671,42 +2752,53 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
+        <v>81.780550000000005</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>8</v>
+      <c r="P9" s="1">
+        <v>14</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>0.5178571428571429</v>
       </c>
       <c r="R9">
         <v>7</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
         <v>7</v>
-      </c>
-      <c r="T9" s="8">
-        <v>8</v>
-      </c>
-      <c r="U9" s="8">
-        <v>6</v>
       </c>
       <c r="V9" s="8">
         <v>7</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
+      <c r="W9" s="8">
+        <v>8</v>
+      </c>
+      <c r="X9" s="8">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
       <c r="AD9" s="14"/>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -2744,38 +2836,49 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
+        <v>84.44935000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
         <v>9.875</v>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="P10" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0.54861111111111116</v>
+      </c>
       <c r="V10" s="8"/>
-      <c r="W10" s="12">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="12">
         <v>10</v>
       </c>
-      <c r="X10" s="13">
+      <c r="AA10" s="13">
         <v>12</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="AB10" s="13">
         <v>12</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="AC10" s="13">
         <v>10</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AD10" s="14">
         <v>8</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AE10" s="14">
         <v>7</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AF10" s="14">
         <v>9</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AG10" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2816,38 +2919,49 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
+        <v>97.826099999999997</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="P11" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
       <c r="V11" s="8"/>
-      <c r="W11" s="12">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="12">
         <v>11</v>
       </c>
-      <c r="X11" s="13">
+      <c r="AA11" s="13">
         <v>11</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="AB11" s="13">
         <v>12</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="AC11" s="13">
         <v>11</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AD11" s="14">
         <v>10</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AE11" s="14">
         <v>10</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AF11" s="14">
         <v>10</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AG11" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2885,42 +2999,53 @@
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
+        <v>95.373099999999994</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
         <v>14.25</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0.54807692307692313</v>
+      </c>
+      <c r="R12">
         <v>15</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>16</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>11</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>13</v>
       </c>
-      <c r="S12" s="8">
+      <c r="V12" s="8">
         <v>17</v>
       </c>
-      <c r="T12" s="8">
+      <c r="W12" s="8">
         <v>14</v>
       </c>
-      <c r="U12" s="8">
+      <c r="X12" s="8">
         <v>14</v>
       </c>
-      <c r="V12" s="8">
+      <c r="Y12" s="8">
         <v>14</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
       <c r="AD12" s="14"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -2957,38 +3082,49 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
+        <v>81.409300000000002</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
         <v>9.75</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="P13" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0.609375</v>
+      </c>
       <c r="V13" s="8"/>
-      <c r="W13" s="12">
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="12">
         <v>12</v>
       </c>
-      <c r="X13" s="13">
+      <c r="AA13" s="13">
         <v>12</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="AB13" s="13">
         <v>11</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="AC13" s="13">
         <v>10</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AD13" s="14">
         <v>9</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AE13" s="14">
         <v>7</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AF13" s="14">
         <v>9</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AG13" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -3029,42 +3165,53 @@
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
+        <v>90.476200000000006</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0.53125</v>
+      </c>
+      <c r="R14">
         <v>7</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>9</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>9</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>9</v>
       </c>
-      <c r="S14" s="8">
+      <c r="V14" s="8">
         <v>9</v>
       </c>
-      <c r="T14" s="8">
+      <c r="W14" s="8">
         <v>9</v>
       </c>
-      <c r="U14" s="8">
+      <c r="X14" s="8">
         <v>8</v>
       </c>
-      <c r="V14" s="8">
+      <c r="Y14" s="8">
         <v>8</v>
       </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
       <c r="AD14" s="14"/>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -3102,38 +3249,49 @@
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
+        <v>87.481249999999989</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
         <v>17.125</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="P15" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>0.71354166666666663</v>
+      </c>
       <c r="V15" s="8"/>
-      <c r="W15" s="12">
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="12">
         <v>16</v>
       </c>
-      <c r="X15" s="13">
+      <c r="AA15" s="13">
         <v>17</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="AB15" s="13">
         <v>19</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="AC15" s="13">
         <v>17</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>16</v>
-      </c>
-      <c r="AB15" s="14">
-        <v>18</v>
-      </c>
-      <c r="AC15" s="14">
-        <v>18</v>
       </c>
       <c r="AD15" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" s="14">
+        <v>18</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>18</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -3173,43 +3331,54 @@
         <v>113</v>
       </c>
       <c r="N16">
-        <f>AVERAGE(O16:AD16)</f>
+        <f t="shared" si="0"/>
+        <v>85.92134999999999</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(R16:AG16)</f>
         <v>12.625</v>
       </c>
-      <c r="O16">
+      <c r="P16" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0.74264705882352944</v>
+      </c>
+      <c r="R16">
         <v>14</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>12</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>13</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>12</v>
       </c>
-      <c r="S16" s="8">
+      <c r="V16" s="8">
         <v>11</v>
       </c>
-      <c r="T16" s="8">
+      <c r="W16" s="8">
         <v>16</v>
       </c>
-      <c r="U16" s="8">
+      <c r="X16" s="8">
         <v>11</v>
       </c>
-      <c r="V16" s="8">
+      <c r="Y16" s="8">
         <v>12</v>
       </c>
-      <c r="W16" s="12"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
       <c r="AD16" s="14"/>
-    </row>
-    <row r="17" spans="1:30" s="6" customFormat="1">
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+    </row>
+    <row r="17" spans="1:33" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>330</v>
       </c>
@@ -3249,39 +3418,50 @@
         <v>95</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17:N26" si="1">AVERAGE(O17:AD17)</f>
+        <f t="shared" si="0"/>
+        <v>55.397300000000001</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" ref="O17:O26" si="3">AVERAGE(R17:AG17)</f>
         <v>6.75</v>
       </c>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
+      <c r="P17" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0.30681818181818182</v>
+      </c>
       <c r="V17" s="24"/>
-      <c r="W17" s="6">
-        <v>7</v>
-      </c>
-      <c r="X17" s="6">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>7</v>
-      </c>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
       <c r="Z17" s="6">
         <v>7</v>
       </c>
-      <c r="AA17" s="24">
+      <c r="AA17" s="6">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD17" s="24">
         <v>6</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AE17" s="24">
         <v>6</v>
       </c>
-      <c r="AC17" s="24">
+      <c r="AF17" s="24">
         <v>6</v>
       </c>
-      <c r="AD17" s="24">
+      <c r="AG17" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>331</v>
       </c>
@@ -3321,43 +3501,54 @@
         <v>99</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>95.445149999999998</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
         <v>18.125</v>
       </c>
-      <c r="O18">
+      <c r="P18" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0.86309523809523814</v>
+      </c>
+      <c r="R18">
         <v>20</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>19</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>18</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>17</v>
-      </c>
-      <c r="S18" s="8">
-        <v>19</v>
-      </c>
-      <c r="T18" s="8">
-        <v>15</v>
-      </c>
-      <c r="U18" s="8">
-        <v>18</v>
       </c>
       <c r="V18" s="8">
         <v>19</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
+      <c r="W18" s="8">
+        <v>15</v>
+      </c>
+      <c r="X18" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>19</v>
+      </c>
       <c r="AD18" s="8"/>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>332</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>51.7241</v>
       </c>
       <c r="C19">
@@ -3375,7 +3566,7 @@
       <c r="G19">
         <v>70</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>58.620699999999999</v>
       </c>
       <c r="J19">
@@ -3383,46 +3574,57 @@
         <v>0.52941176470588236</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>78.260900000000007</v>
       </c>
       <c r="M19">
         <v>111</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
+      <c r="N19" s="6">
+        <f t="shared" si="0"/>
+        <v>68.440799999999996</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="3"/>
         <v>3.875</v>
       </c>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
+      <c r="P19" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>0.22794117647058823</v>
+      </c>
       <c r="V19" s="8"/>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19">
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
         <v>6</v>
       </c>
-      <c r="Y19">
-        <v>4</v>
-      </c>
-      <c r="Z19">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="8">
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="8">
         <v>6</v>
       </c>
-      <c r="AB19" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC19" s="8">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -3459,39 +3661,50 @@
         <v>129</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>90.476200000000006</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
         <v>10.875</v>
       </c>
-      <c r="O20">
+      <c r="P20" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>0.63970588235294112</v>
+      </c>
+      <c r="R20">
         <v>10</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>10</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>12</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>11</v>
       </c>
-      <c r="S20" s="8">
+      <c r="V20" s="8">
         <v>11</v>
       </c>
-      <c r="T20" s="8">
+      <c r="W20" s="8">
         <v>10</v>
       </c>
-      <c r="U20" s="8">
+      <c r="X20" s="8">
         <v>11</v>
       </c>
-      <c r="V20" s="8">
+      <c r="Y20" s="8">
         <v>12</v>
       </c>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -3526,43 +3739,54 @@
         <v>113</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>71.889049999999997</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+      <c r="P21" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>0.63235294117647056</v>
+      </c>
       <c r="V21" s="8"/>
-      <c r="W21">
-        <v>9</v>
-      </c>
-      <c r="X21">
-        <v>14</v>
-      </c>
-      <c r="Y21">
-        <v>12</v>
-      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
       <c r="Z21">
         <v>9</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21">
+        <v>14</v>
+      </c>
+      <c r="AB21">
+        <v>12</v>
+      </c>
+      <c r="AC21">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="8">
         <v>10</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AE21" s="8">
         <v>11</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AF21" s="8">
         <v>10</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AG21" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>336</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>27.586200000000002</v>
       </c>
       <c r="D22">
@@ -3578,7 +3802,7 @@
         <v>70</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="2">
+      <c r="I22" s="23">
         <v>55.172400000000003</v>
       </c>
       <c r="J22">
@@ -3589,46 +3813,57 @@
         <f>7/13</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>78.260900000000007</v>
       </c>
       <c r="M22">
         <v>121</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
+      <c r="N22" s="6">
+        <f t="shared" si="0"/>
+        <v>66.716650000000001</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="3"/>
         <v>18.25</v>
       </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="P22" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>0.79347826086956519</v>
+      </c>
       <c r="V22" s="8"/>
-      <c r="W22">
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22">
         <v>19</v>
       </c>
-      <c r="X22">
+      <c r="AA22">
         <v>20</v>
       </c>
-      <c r="Y22">
+      <c r="AB22">
         <v>22</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
         <v>20</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AD22" s="8">
         <v>15</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AE22" s="8">
         <v>16</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AF22" s="8">
         <v>17</v>
       </c>
-      <c r="AD22" s="8">
+      <c r="AG22" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -3665,39 +3900,50 @@
         <v>88</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>85.92134999999999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
         <v>6.375</v>
       </c>
-      <c r="O23">
+      <c r="P23" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>0.31874999999999998</v>
+      </c>
+      <c r="R23">
         <v>8</v>
       </c>
-      <c r="P23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
         <v>9</v>
       </c>
-      <c r="R23">
-        <v>5</v>
-      </c>
-      <c r="S23" s="8">
-        <v>5</v>
-      </c>
-      <c r="T23" s="8">
-        <v>4</v>
-      </c>
-      <c r="U23" s="8">
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23" s="8">
+        <v>5</v>
+      </c>
+      <c r="W23" s="8">
+        <v>4</v>
+      </c>
+      <c r="X23" s="8">
         <v>8</v>
       </c>
-      <c r="V23" s="8">
+      <c r="Y23" s="8">
         <v>7</v>
       </c>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-    </row>
-    <row r="24" spans="1:30" s="6" customFormat="1">
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+    </row>
+    <row r="24" spans="1:33" s="6" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>338</v>
       </c>
@@ -3734,39 +3980,50 @@
         <v>103</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>67.091450000000009</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
+      <c r="P24" s="25">
+        <v>19</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
       <c r="V24" s="24"/>
-      <c r="W24" s="6">
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="6">
         <v>6</v>
       </c>
-      <c r="X24" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="6">
+      <c r="AA24" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="6">
         <v>7</v>
       </c>
-      <c r="Z24" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="24">
-        <v>3</v>
+      <c r="AC24" s="6">
+        <v>5</v>
       </c>
       <c r="AD24" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="24">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="24">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>339</v>
       </c>
@@ -3804,35 +4061,46 @@
         <v>109</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>88.509299999999996</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="O25">
+      <c r="P25" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R25">
         <v>11</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>15</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>12</v>
       </c>
-      <c r="R25">
-        <v>10</v>
-      </c>
-      <c r="S25" s="8">
-        <v>10</v>
-      </c>
-      <c r="T25" s="8">
-        <v>10</v>
-      </c>
-      <c r="U25" s="8">
+      <c r="U25">
         <v>10</v>
       </c>
       <c r="V25" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="W25" s="8">
+        <v>10</v>
+      </c>
+      <c r="X25" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>340</v>
       </c>
@@ -3872,632 +4140,671 @@
         <v>137</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>84.857550000000003</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="W26">
+      <c r="P26" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z26">
         <v>9</v>
       </c>
-      <c r="X26">
+      <c r="AA26">
         <v>11</v>
       </c>
-      <c r="Y26">
+      <c r="AB26">
         <v>11</v>
       </c>
-      <c r="Z26">
+      <c r="AC26">
         <v>10</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AD26" s="8">
         <v>9</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AE26" s="8">
         <v>10</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AF26" s="8">
         <v>10</v>
       </c>
-      <c r="AD26" s="8">
+      <c r="AG26" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
-      <c r="S27" t="s">
+    <row r="27" spans="1:33">
+      <c r="V27" t="s">
         <v>316</v>
       </c>
-      <c r="T27" t="s">
+      <c r="W27" t="s">
         <v>314</v>
       </c>
-      <c r="U27" t="s">
+      <c r="X27" t="s">
         <v>313</v>
       </c>
-      <c r="V27" t="s">
+      <c r="Y27" t="s">
         <v>315</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AD27" t="s">
         <v>316</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AE27" t="s">
         <v>314</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AF27" t="s">
         <v>313</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AG27" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
-      <c r="N28">
-        <f>MIN(N3:N26)</f>
+    <row r="28" spans="1:33">
+      <c r="B28">
+        <f>AVERAGE(B3:B16,B18,B20:B21,B23,B25:B26)</f>
+        <v>35.558264999999992</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(I3:I16,I18,I20:I21,I23,I25:I26)</f>
+        <v>81.88960999999999</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(L3:L16,L18,L20:L21,L23,L25:L26)</f>
+        <v>92.124065000000002</v>
+      </c>
+      <c r="O28">
+        <f>MIN(O3:O26)</f>
         <v>3.875</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
-      <c r="N29">
-        <f>MAX(N3:N26)</f>
+    <row r="29" spans="1:33">
+      <c r="B29">
+        <f>STDEV(B3:B16,B18,B20:B21,B23,B25:B26)</f>
+        <v>13.715060555281076</v>
+      </c>
+      <c r="I29">
+        <f>STDEV(I3:I16,I18,I20:I21,I23,I25:I26)</f>
+        <v>9.7642390603295048</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(L3:L16,L18,L20:L21,L23,L25:L26)</f>
+        <v>6.4133342070108714</v>
+      </c>
+      <c r="O29">
+        <f>MAX(O3:O26)</f>
         <v>20.375</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="Z29" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="AA29" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
-      <c r="N30">
-        <f>AVERAGE(N3:N16,N18:N23,N25:N26)</f>
+    <row r="30" spans="1:33">
+      <c r="O30">
+        <f>AVERAGE(O3:O16,O18:O23,O25:O26)</f>
         <v>12.761363636363637</v>
       </c>
-      <c r="S30" t="s">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="T30">
-        <f>AVERAGE(S3:V3)</f>
+      <c r="W30">
+        <f>AVERAGE(V3:Y3)</f>
         <v>11.5</v>
       </c>
-      <c r="U30" s="15">
+      <c r="X30" s="15">
         <v>13</v>
       </c>
-      <c r="V30" s="15">
+      <c r="Y30" s="15">
         <v>10</v>
       </c>
-      <c r="W30" s="15">
+      <c r="Z30" s="15">
         <v>11</v>
       </c>
-      <c r="X30" s="15">
+      <c r="AA30" s="15">
         <v>12</v>
       </c>
-      <c r="AA30" s="8" t="s">
+      <c r="AD30" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AE30" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
-      <c r="S31" t="s">
+    <row r="31" spans="1:33">
+      <c r="O31">
+        <f>STDEV(O3:O16,O18:O23,O25:O26)</f>
+        <v>4.5943982925945441</v>
+      </c>
+      <c r="V31" t="s">
         <v>10</v>
       </c>
-      <c r="T31">
-        <f>AVERAGE(AA4:AD4)</f>
+      <c r="W31">
+        <f>AVERAGE(AD4:AG4)</f>
         <v>14.25</v>
       </c>
-      <c r="U31" s="15">
+      <c r="X31" s="15">
         <v>15</v>
       </c>
-      <c r="V31" s="16">
+      <c r="Y31" s="16">
         <v>13</v>
       </c>
-      <c r="W31" s="15">
+      <c r="Z31" s="15">
         <v>15</v>
       </c>
-      <c r="X31" s="15">
+      <c r="AA31" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
-      <c r="S32" t="s">
+    <row r="32" spans="1:33">
+      <c r="V32" t="s">
         <v>11</v>
       </c>
-      <c r="T32">
-        <f>AVERAGE(S5:V5)</f>
+      <c r="W32">
+        <f>AVERAGE(V5:Y5)</f>
         <v>18.5</v>
-      </c>
-      <c r="U32" s="15">
-        <v>18</v>
-      </c>
-      <c r="V32" s="15">
-        <v>19</v>
-      </c>
-      <c r="W32" s="15">
-        <v>19</v>
       </c>
       <c r="X32" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="8:24">
-      <c r="S33" t="s">
+      <c r="Y32" s="15">
+        <v>19</v>
+      </c>
+      <c r="Z32" s="15">
+        <v>19</v>
+      </c>
+      <c r="AA32" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="8:27">
+      <c r="V33" t="s">
         <v>12</v>
       </c>
-      <c r="T33">
-        <f>AVERAGE(AA6:AD6)</f>
+      <c r="W33">
+        <f>AVERAGE(AD6:AG6)</f>
         <v>19</v>
       </c>
-      <c r="U33" s="15">
+      <c r="X33" s="15">
         <v>18</v>
       </c>
-      <c r="V33" s="15">
+      <c r="Y33" s="15">
         <v>21</v>
       </c>
-      <c r="W33" s="16">
+      <c r="Z33" s="16">
         <v>18</v>
       </c>
-      <c r="X33" s="16">
+      <c r="AA33" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="8:24">
-      <c r="S34" t="s">
+    <row r="34" spans="8:27">
+      <c r="V34" t="s">
         <v>13</v>
       </c>
-      <c r="T34">
-        <f>AVERAGE(S7:V7)</f>
+      <c r="W34">
+        <f>AVERAGE(V7:Y7)</f>
         <v>16.75</v>
       </c>
-      <c r="U34" s="15">
+      <c r="X34" s="15">
         <v>16</v>
       </c>
-      <c r="V34" s="15">
+      <c r="Y34" s="15">
         <v>16</v>
       </c>
-      <c r="W34" s="15">
+      <c r="Z34" s="15">
         <v>17</v>
       </c>
-      <c r="X34" s="15">
+      <c r="AA34" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="8:24">
+    <row r="35" spans="8:27">
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="S35" t="s">
+      <c r="V35" t="s">
         <v>14</v>
       </c>
-      <c r="T35">
-        <f>AVERAGE(AA8:AD8)</f>
+      <c r="W35">
+        <f>AVERAGE(AD8:AG8)</f>
         <v>18</v>
       </c>
-      <c r="U35" s="15">
+      <c r="X35" s="15">
         <v>17</v>
       </c>
-      <c r="V35" s="15">
+      <c r="Y35" s="15">
         <v>18</v>
       </c>
-      <c r="W35" s="15">
+      <c r="Z35" s="15">
         <v>19</v>
       </c>
-      <c r="X35" s="15">
+      <c r="AA35" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="8:24">
+    <row r="36" spans="8:27">
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="S36" t="s">
+      <c r="V36" t="s">
         <v>15</v>
       </c>
-      <c r="T36">
-        <f>AVERAGE(S9:V9)</f>
+      <c r="W36">
+        <f>AVERAGE(V9:Y9)</f>
         <v>7</v>
       </c>
-      <c r="U36" s="15">
+      <c r="X36" s="15">
         <v>6</v>
       </c>
-      <c r="V36" s="15">
+      <c r="Y36" s="15">
         <v>8</v>
       </c>
-      <c r="W36" s="15">
+      <c r="Z36" s="15">
         <v>7</v>
       </c>
-      <c r="X36" s="15">
+      <c r="AA36" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="8:24">
-      <c r="S37" t="s">
+    <row r="37" spans="8:27">
+      <c r="V37" t="s">
         <v>198</v>
       </c>
-      <c r="T37">
-        <f>AVERAGE(AA10:AD10)</f>
+      <c r="W37">
+        <f>AVERAGE(AD10:AG10)</f>
         <v>8.75</v>
       </c>
-      <c r="U37" s="15">
+      <c r="X37" s="15">
         <v>9</v>
       </c>
-      <c r="V37" s="15">
+      <c r="Y37" s="15">
         <v>7</v>
       </c>
-      <c r="W37" s="15">
+      <c r="Z37" s="15">
         <v>11</v>
       </c>
-      <c r="X37" s="15">
+      <c r="AA37" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="8:24">
-      <c r="S38" t="s">
+    <row r="38" spans="8:27">
+      <c r="V38" t="s">
         <v>199</v>
       </c>
-      <c r="T38">
-        <f>AVERAGE(AA11:AD11)</f>
+      <c r="W38">
+        <f>AVERAGE(AD11:AG11)</f>
         <v>9.75</v>
-      </c>
-      <c r="U38" s="15">
-        <v>10</v>
-      </c>
-      <c r="V38" s="15">
-        <v>10</v>
-      </c>
-      <c r="W38" s="15">
-        <v>9</v>
       </c>
       <c r="X38" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="8:24">
+      <c r="Y38" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="15">
+        <v>9</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="8:27">
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="S39" t="s">
+      <c r="V39" t="s">
         <v>200</v>
       </c>
-      <c r="T39">
-        <f>AVERAGE(S12:V12)</f>
+      <c r="W39">
+        <f>AVERAGE(V12:Y12)</f>
         <v>14.75</v>
       </c>
-      <c r="U39" s="15">
+      <c r="X39" s="15">
         <v>14</v>
       </c>
-      <c r="V39" s="15">
+      <c r="Y39" s="15">
         <v>14</v>
       </c>
-      <c r="W39" s="15">
+      <c r="Z39" s="15">
         <v>14</v>
       </c>
-      <c r="X39" s="15">
+      <c r="AA39" s="15">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="8:24">
-      <c r="S40" t="s">
+    <row r="40" spans="8:27">
+      <c r="V40" t="s">
         <v>201</v>
       </c>
-      <c r="T40">
-        <f>AVERAGE(AA13:AD13)</f>
+      <c r="W40">
+        <f>AVERAGE(AD13:AG13)</f>
         <v>8.25</v>
-      </c>
-      <c r="U40" s="15">
-        <v>9</v>
-      </c>
-      <c r="V40" s="15">
-        <v>9</v>
-      </c>
-      <c r="W40" s="15">
-        <v>8</v>
       </c>
       <c r="X40" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="8:24">
-      <c r="S41" t="s">
+      <c r="Y40" s="15">
+        <v>9</v>
+      </c>
+      <c r="Z40" s="15">
+        <v>8</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="8:27">
+      <c r="V41" t="s">
         <v>202</v>
       </c>
-      <c r="T41">
-        <f>AVERAGE(S14:V14)</f>
+      <c r="W41">
+        <f>AVERAGE(V14:Y14)</f>
         <v>8.5</v>
       </c>
-      <c r="U41" s="15">
+      <c r="X41" s="15">
         <v>8</v>
       </c>
-      <c r="V41" s="15">
+      <c r="Y41" s="15">
         <v>9</v>
       </c>
-      <c r="W41" s="15">
+      <c r="Z41" s="15">
         <v>8</v>
       </c>
-      <c r="X41" s="15">
+      <c r="AA41" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="8:24">
-      <c r="S42" t="s">
+    <row r="42" spans="8:27">
+      <c r="V42" t="s">
         <v>203</v>
       </c>
-      <c r="T42">
-        <f>AVERAGE(AA15:AD15)</f>
+      <c r="W42">
+        <f>AVERAGE(AD15:AG15)</f>
         <v>17</v>
       </c>
-      <c r="U42" s="15">
+      <c r="X42" s="15">
         <v>18</v>
       </c>
-      <c r="V42" s="15">
+      <c r="Y42" s="15">
         <v>18</v>
       </c>
-      <c r="W42" s="15">
+      <c r="Z42" s="15">
         <v>16</v>
       </c>
-      <c r="X42" s="15">
+      <c r="AA42" s="15">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="8:24">
-      <c r="S43" t="s">
+    <row r="43" spans="8:27">
+      <c r="V43" t="s">
         <v>204</v>
       </c>
-      <c r="T43">
-        <f>AVERAGE(S16:V16)</f>
+      <c r="W43">
+        <f>AVERAGE(V16:Y16)</f>
         <v>12.5</v>
-      </c>
-      <c r="U43" s="15">
-        <v>11</v>
-      </c>
-      <c r="V43" s="15">
-        <v>16</v>
-      </c>
-      <c r="W43" s="15">
-        <v>12</v>
       </c>
       <c r="X43" s="15">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="8:24">
-      <c r="S44" t="s">
+      <c r="Y43" s="15">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="8:27">
+      <c r="V44" t="s">
         <v>330</v>
       </c>
-      <c r="T44">
-        <f>AVERAGE(AA17:AD17)</f>
+      <c r="W44">
+        <f>AVERAGE(AD17:AG17)</f>
         <v>6.25</v>
-      </c>
-      <c r="U44" s="23">
-        <v>6</v>
-      </c>
-      <c r="V44" s="23">
-        <v>6</v>
-      </c>
-      <c r="W44" s="23">
-        <v>7</v>
       </c>
       <c r="X44" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="8:24">
-      <c r="S45" t="s">
+      <c r="Y44" s="23">
+        <v>6</v>
+      </c>
+      <c r="Z44" s="23">
+        <v>7</v>
+      </c>
+      <c r="AA44" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="8:27">
+      <c r="V45" t="s">
         <v>331</v>
       </c>
-      <c r="T45">
-        <f>AVERAGE(S18:V18)</f>
+      <c r="W45">
+        <f>AVERAGE(V18:Y18)</f>
         <v>17.75</v>
       </c>
-      <c r="U45" s="15">
+      <c r="X45" s="15">
         <v>18</v>
       </c>
-      <c r="V45" s="15">
+      <c r="Y45" s="15">
         <v>15</v>
       </c>
-      <c r="W45" s="15">
+      <c r="Z45" s="15">
         <v>19</v>
       </c>
-      <c r="X45" s="15">
+      <c r="AA45" s="15">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="8:24">
-      <c r="S46" t="s">
+    <row r="46" spans="8:27">
+      <c r="V46" t="s">
         <v>332</v>
       </c>
-      <c r="T46">
-        <f>AVERAGE(AA19:AD19)</f>
+      <c r="W46">
+        <f>AVERAGE(AD19:AG19)</f>
         <v>3.75</v>
       </c>
-      <c r="U46" s="15">
-        <v>5</v>
-      </c>
-      <c r="V46" s="15">
-        <v>3</v>
-      </c>
-      <c r="W46" s="15">
-        <v>1</v>
-      </c>
       <c r="X46" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="8:24">
+    <row r="47" spans="8:27">
       <c r="I47" s="6"/>
-      <c r="S47" t="s">
+      <c r="V47" t="s">
         <v>333</v>
       </c>
-      <c r="T47">
-        <f>AVERAGE(S20:V20)</f>
+      <c r="W47">
+        <f>AVERAGE(V20:Y20)</f>
         <v>11</v>
-      </c>
-      <c r="U47" s="15">
-        <v>11</v>
-      </c>
-      <c r="V47" s="15">
-        <v>10</v>
-      </c>
-      <c r="W47" s="15">
-        <v>12</v>
       </c>
       <c r="X47" s="15">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="8:24">
-      <c r="S48" t="s">
+      <c r="Y47" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z47" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA47" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="8:27">
+      <c r="V48" t="s">
         <v>334</v>
       </c>
-      <c r="T48">
-        <f>AVERAGE(AA21:AD21)</f>
+      <c r="W48">
+        <f>AVERAGE(AD21:AG21)</f>
         <v>10.5</v>
-      </c>
-      <c r="U48" s="15">
-        <v>10</v>
-      </c>
-      <c r="V48" s="15">
-        <v>11</v>
-      </c>
-      <c r="W48" s="15">
-        <v>11</v>
       </c>
       <c r="X48" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="8:24">
-      <c r="S49" t="s">
+      <c r="Y48" s="15">
+        <v>11</v>
+      </c>
+      <c r="Z48" s="15">
+        <v>11</v>
+      </c>
+      <c r="AA48" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="8:27">
+      <c r="V49" t="s">
         <v>336</v>
       </c>
-      <c r="T49">
-        <f>AVERAGE(AA22:AD22)</f>
+      <c r="W49">
+        <f>AVERAGE(AD22:AG22)</f>
         <v>16.25</v>
       </c>
-      <c r="U49" s="15">
+      <c r="X49" s="15">
         <v>17</v>
       </c>
-      <c r="V49" s="15">
+      <c r="Y49" s="15">
         <v>16</v>
       </c>
-      <c r="W49" s="15">
+      <c r="Z49" s="15">
         <v>17</v>
       </c>
-      <c r="X49" s="15">
+      <c r="AA49" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="8:24">
+    <row r="50" spans="8:27">
       <c r="H50" s="2"/>
-      <c r="S50" t="s">
+      <c r="V50" t="s">
         <v>337</v>
       </c>
-      <c r="T50">
-        <f>AVERAGE(S23:V23)</f>
+      <c r="W50">
+        <f>AVERAGE(V23:Y23)</f>
         <v>6</v>
       </c>
-      <c r="U50" s="15">
+      <c r="X50" s="15">
         <v>8</v>
       </c>
-      <c r="V50" s="15">
-        <v>4</v>
-      </c>
-      <c r="W50" s="15">
+      <c r="Y50" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z50" s="15">
         <v>7</v>
       </c>
-      <c r="X50" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="8:24">
+      <c r="AA50" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="8:27">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="S51" t="s">
+      <c r="V51" t="s">
         <v>338</v>
       </c>
-      <c r="T51">
-        <f>AVERAGE(AA24:AD24)</f>
+      <c r="W51">
+        <f>AVERAGE(AD24:AG24)</f>
         <v>3.75</v>
       </c>
-      <c r="U51" s="23">
-        <v>3</v>
-      </c>
-      <c r="V51" s="23">
-        <v>3</v>
-      </c>
-      <c r="W51" s="23">
+      <c r="X51" s="23">
+        <v>3</v>
+      </c>
+      <c r="Y51" s="23">
+        <v>3</v>
+      </c>
+      <c r="Z51" s="23">
         <v>6</v>
       </c>
-      <c r="X51" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="8:24">
+      <c r="AA51" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="8:27">
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="S52" t="s">
+      <c r="V52" t="s">
         <v>339</v>
       </c>
-      <c r="T52">
-        <f>AVERAGE(S25:V25)</f>
-        <v>10</v>
-      </c>
-      <c r="U52" s="15">
-        <v>10</v>
-      </c>
-      <c r="V52" s="15">
-        <v>10</v>
-      </c>
-      <c r="W52" s="15">
+      <c r="W52">
+        <f>AVERAGE(V25:Y25)</f>
         <v>10</v>
       </c>
       <c r="X52" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="8:24">
+      <c r="Y52" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z52" s="15">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="8:27">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="S53" t="s">
+      <c r="V53" t="s">
         <v>340</v>
       </c>
-      <c r="T53">
-        <f>AVERAGE(AA26:AD26)</f>
+      <c r="W53">
+        <f>AVERAGE(AD26:AG26)</f>
         <v>9.75</v>
       </c>
-      <c r="U53" s="15">
+      <c r="X53" s="15">
         <v>10</v>
       </c>
-      <c r="V53" s="15">
+      <c r="Y53" s="15">
         <v>10</v>
       </c>
-      <c r="W53" s="15">
+      <c r="Z53" s="15">
         <v>10</v>
       </c>
-      <c r="X53" s="15">
+      <c r="AA53" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="8:24">
+    <row r="54" spans="8:27">
       <c r="H54" s="2"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="8:24">
+    <row r="55" spans="8:27">
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="8:24">
+    <row r="56" spans="8:27">
       <c r="I56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="W1:AD1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4511,7 +4818,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G4" sqref="G4:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8256,8 +8563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592"/>
+    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Demographic Info" sheetId="4" r:id="rId4"/>
     <sheet name="Group A - pref" sheetId="2" r:id="rId5"/>
     <sheet name="Group B - pref" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="484">
   <si>
     <t>ID</t>
   </si>
@@ -2078,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O22" sqref="O22"/>
     </sheetView>
@@ -11725,10 +11726,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="B43" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14099,6 +14100,66 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="E69">
+        <f>AVERAGE(E2:E67)</f>
+        <v>3.5357142857142856</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:L69" si="0">AVERAGE(F2:F67)</f>
+        <v>3.3035714285714284</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>1.9464285714285714</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>3.4464285714285716</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>3.5535714285714284</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="0"/>
+        <v>2.5535714285714284</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>2.3214285714285716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="E70" t="s">
+        <v>316</v>
+      </c>
+      <c r="F70" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" t="s">
+        <v>313</v>
+      </c>
+      <c r="H70" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" t="s">
+        <v>316</v>
+      </c>
+      <c r="J70" t="s">
+        <v>314</v>
+      </c>
+      <c r="K70" t="s">
+        <v>313</v>
+      </c>
+      <c r="L70" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14112,15 +14173,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -16246,7 +16307,9 @@
       <c r="J60" s="1">
         <v>2</v>
       </c>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1">
+        <v>3</v>
+      </c>
       <c r="L60" s="1">
         <v>2</v>
       </c>
@@ -16916,6 +16979,66 @@
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="E80">
+        <f>AVERAGE(E2:E78)</f>
+        <v>3.3076923076923075</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:L80" si="0">AVERAGE(F2:F78)</f>
+        <v>3.9846153846153847</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="0"/>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>3.523076923076923</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="0"/>
+        <v>3.5076923076923077</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="0"/>
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="0"/>
+        <v>1.7692307692307692</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12">
+      <c r="E81" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" t="s">
+        <v>314</v>
+      </c>
+      <c r="G81" t="s">
+        <v>313</v>
+      </c>
+      <c r="H81" t="s">
+        <v>315</v>
+      </c>
+      <c r="I81" t="s">
+        <v>316</v>
+      </c>
+      <c r="J81" t="s">
+        <v>314</v>
+      </c>
+      <c r="K81" t="s">
+        <v>313</v>
+      </c>
+      <c r="L81" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16926,4 +17049,3421 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D243"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>3</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>3</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>3</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>3</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2</v>
+      </c>
+      <c r="D136" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
+        <v>5</v>
+      </c>
+      <c r="C137" s="1">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>3</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
+        <v>5</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>2</v>
+      </c>
+      <c r="B152" s="1">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>3</v>
+      </c>
+      <c r="B155" s="1">
+        <v>5</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1">
+        <v>5</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>3</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>3</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>3</v>
+      </c>
+      <c r="B160" s="1">
+        <v>3</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>3</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>3</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>2</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>3</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1">
+        <v>3</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4</v>
+      </c>
+      <c r="D169" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3</v>
+      </c>
+      <c r="D170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>3</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1">
+        <v>4</v>
+      </c>
+      <c r="D172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1">
+        <v>4</v>
+      </c>
+      <c r="D173" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1">
+        <v>3</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>3</v>
+      </c>
+      <c r="B175" s="1">
+        <v>4</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A177" s="1">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A178" s="19">
+        <v>4</v>
+      </c>
+      <c r="B178" s="19">
+        <v>5</v>
+      </c>
+      <c r="C178" s="19">
+        <v>2</v>
+      </c>
+      <c r="D178" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>3</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>3</v>
+      </c>
+      <c r="B194" s="1">
+        <v>4</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>3</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>3</v>
+      </c>
+      <c r="B196" s="1">
+        <v>4</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>3</v>
+      </c>
+      <c r="B197" s="1">
+        <v>4</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>3</v>
+      </c>
+      <c r="B198" s="1">
+        <v>4</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1">
+        <v>5</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>3</v>
+      </c>
+      <c r="B200" s="1">
+        <v>5</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>4</v>
+      </c>
+      <c r="B201" s="1">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>4</v>
+      </c>
+      <c r="B202" s="1">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>3</v>
+      </c>
+      <c r="B203" s="1">
+        <v>5</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>4</v>
+      </c>
+      <c r="B204" s="1">
+        <v>5</v>
+      </c>
+      <c r="C204" s="1">
+        <v>3</v>
+      </c>
+      <c r="D204" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>4</v>
+      </c>
+      <c r="B205" s="1">
+        <v>5</v>
+      </c>
+      <c r="C205" s="1">
+        <v>3</v>
+      </c>
+      <c r="D205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>4</v>
+      </c>
+      <c r="B206" s="1">
+        <v>5</v>
+      </c>
+      <c r="C206" s="1">
+        <v>4</v>
+      </c>
+      <c r="D206" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>3</v>
+      </c>
+      <c r="B207" s="1">
+        <v>5</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3</v>
+      </c>
+      <c r="D207" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>4</v>
+      </c>
+      <c r="B208" s="1">
+        <v>5</v>
+      </c>
+      <c r="C208" s="1">
+        <v>3</v>
+      </c>
+      <c r="D208" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>1</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1">
+        <v>3</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>1</v>
+      </c>
+      <c r="B214" s="1">
+        <v>3</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>2</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>2</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>2</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>3</v>
+      </c>
+      <c r="B220" s="1">
+        <v>3</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>3</v>
+      </c>
+      <c r="B221" s="1">
+        <v>3</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>3</v>
+      </c>
+      <c r="B222" s="1">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>3</v>
+      </c>
+      <c r="B223" s="1">
+        <v>4</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>3</v>
+      </c>
+      <c r="B224" s="1">
+        <v>3</v>
+      </c>
+      <c r="C224" s="1">
+        <v>3</v>
+      </c>
+      <c r="D224" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>3</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>3</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2</v>
+      </c>
+      <c r="D226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>3</v>
+      </c>
+      <c r="B227" s="1">
+        <v>2</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>3</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>3</v>
+      </c>
+      <c r="B230" s="1">
+        <v>3</v>
+      </c>
+      <c r="C230" s="1">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>3</v>
+      </c>
+      <c r="B231" s="1">
+        <v>2</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1">
+        <v>2</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2</v>
+      </c>
+      <c r="D232" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2</v>
+      </c>
+      <c r="D233" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>4</v>
+      </c>
+      <c r="B234" s="1">
+        <v>3</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2</v>
+      </c>
+      <c r="D234" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>3</v>
+      </c>
+      <c r="B235" s="1">
+        <v>3</v>
+      </c>
+      <c r="C235" s="1">
+        <v>3</v>
+      </c>
+      <c r="D235" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>3</v>
+      </c>
+      <c r="B236" s="1">
+        <v>3</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>3</v>
+      </c>
+      <c r="B237" s="1">
+        <v>3</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>4</v>
+      </c>
+      <c r="B239" s="1">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>3</v>
+      </c>
+      <c r="B240" s="1">
+        <v>5</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>3</v>
+      </c>
+      <c r="B241" s="1">
+        <v>4</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A242" s="1">
+        <v>4</v>
+      </c>
+      <c r="B242" s="1">
+        <v>5</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A243" s="19">
+        <v>4</v>
+      </c>
+      <c r="B243" s="19">
+        <v>5</v>
+      </c>
+      <c r="C243" s="19">
+        <v>2</v>
+      </c>
+      <c r="D243" s="19">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -2081,7 +2081,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O22" sqref="O22"/>
+      <selection pane="topRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3589,7 +3589,7 @@
         <f t="shared" si="3"/>
         <v>3.875</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="5">
         <v>17</v>
       </c>
       <c r="Q19">
@@ -3828,7 +3828,7 @@
         <f t="shared" si="3"/>
         <v>18.25</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="5">
         <v>23</v>
       </c>
       <c r="Q22">
@@ -4220,8 +4220,12 @@
         <v>92.124065000000002</v>
       </c>
       <c r="O28">
-        <f>MIN(O3:O26)</f>
-        <v>3.875</v>
+        <f>MIN(O3:O16,O18,O20:O21,O23,O25:O26)</f>
+        <v>6.375</v>
+      </c>
+      <c r="P28">
+        <f>MIN(P3:P16,P18,P20:P21,P23,P25:P26)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -4238,8 +4242,12 @@
         <v>6.4133342070108714</v>
       </c>
       <c r="O29">
-        <f>MAX(O3:O26)</f>
+        <f>MAX(O3:O16,O18,O20:O21,O23,O25:O26)</f>
         <v>20.375</v>
+      </c>
+      <c r="P29">
+        <f>MAX(P3:P16,P18,P20:P21,P23,P25:P26)</f>
+        <v>29</v>
       </c>
       <c r="W29" s="4" t="s">
         <v>317</v>
@@ -4262,6 +4270,10 @@
         <f>AVERAGE(O3:O16,O18:O23,O25:O26)</f>
         <v>12.761363636363637</v>
       </c>
+      <c r="P30">
+        <f>AVERAGE(P3:P16,P18:P23,P25:P26)</f>
+        <v>19.636363636363637</v>
+      </c>
       <c r="V30" t="s">
         <v>9</v>
       </c>
@@ -4292,6 +4304,10 @@
       <c r="O31">
         <f>STDEV(O3:O16,O18:O23,O25:O26)</f>
         <v>4.5943982925945441</v>
+      </c>
+      <c r="P31">
+        <f>STDEV(P3:P16,P18:P23,P25:P26)</f>
+        <v>3.9826463389901821</v>
       </c>
       <c r="V31" t="s">
         <v>10</v>
@@ -8564,8 +8580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AK26" sqref="AK26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -17055,7 +17071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -2080,7 +2080,7 @@
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -8581,7 +8581,7 @@
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11696,6 +11696,9 @@
       <c r="H30">
         <f>COUNTIF(H3:H28,"english")</f>
         <v>14</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
       </c>
       <c r="AK30" s="1">
         <f>AVERAGE(AK3:AK17,AK19:AK25,AK27:AK28)</f>
@@ -11744,8 +11747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I67"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\BehaviouralResults\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28305" yWindow="1200" windowWidth="23655" windowHeight="16515" tabRatio="592" activeTab="3"/>
+    <workbookView xWindow="-28300" yWindow="1200" windowWidth="23660" windowHeight="16520" tabRatio="592"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Group B - pref" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1491,7 +1486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1616,6 +1611,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1702,7 +1723,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1771,6 +1792,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2069,7 +2103,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2079,18 +2113,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
     <col min="12" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2296,86 +2330,86 @@
       <c r="AF3" s="14"/>
       <c r="AG3" s="14"/>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" t="s">
+    <row r="4" spans="1:33" s="63" customFormat="1">
+      <c r="A4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="63">
         <v>37.930999999999997</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="63">
         <v>42.3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="63">
         <v>80</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="63">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="63">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="63">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="63">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="63">
         <f>9/17</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="63">
         <f>11/13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="63">
         <v>95.652199999999993</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="63">
         <v>58</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="63">
         <f t="shared" ref="N4:N26" si="0">AVERAGE(I4,L4)</f>
         <v>97.826099999999997</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="63">
         <f t="shared" ref="O4:O15" si="1">AVERAGE(R4:AG4)</f>
         <v>14.375</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="60">
         <v>20</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="63">
         <f t="shared" ref="Q4:Q26" si="2">O4/P4</f>
         <v>0.71875</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="12">
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="66">
         <v>16</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="67">
         <v>14</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="67">
         <v>14</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="67">
         <v>14</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="68">
         <v>14</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="68">
         <v>13</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="68">
         <v>15</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AG4" s="68">
         <v>15</v>
       </c>
     </row>
@@ -3545,83 +3579,82 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:33">
-      <c r="A19" t="s">
+    <row r="19" spans="1:33" s="63" customFormat="1">
+      <c r="A19" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="63">
         <v>51.7241</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="63">
         <v>55.5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="63">
         <v>30</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="63">
         <v>70</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="63">
         <v>70</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="63">
         <v>70</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="63">
         <v>58.620699999999999</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="63">
         <f>9/17</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
+      <c r="L19" s="63">
         <v>78.260900000000007</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="63">
         <v>111</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="63">
         <f t="shared" si="0"/>
         <v>68.440799999999996</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="63">
         <f t="shared" si="3"/>
         <v>3.875</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="60">
         <v>17</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="63">
         <f t="shared" si="2"/>
         <v>0.22794117647058823</v>
       </c>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19">
-        <v>2</v>
-      </c>
-      <c r="AA19">
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="63">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="63">
         <v>6</v>
       </c>
-      <c r="AB19">
-        <v>4</v>
-      </c>
-      <c r="AC19">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="8">
+      <c r="AB19" s="63">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="63">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="65">
         <v>6</v>
       </c>
-      <c r="AE19" s="8">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="8">
-        <v>5</v>
-      </c>
-      <c r="AG19" s="8">
+      <c r="AE19" s="65">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="65">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="65">
         <v>1</v>
       </c>
     </row>
@@ -3783,84 +3816,84 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
-      <c r="A22" t="s">
+    <row r="22" spans="1:33" s="63" customFormat="1">
+      <c r="A22" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="63">
         <v>27.586200000000002</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="63">
         <v>60</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="63">
         <v>50</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="63">
         <v>80</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="63">
         <v>70</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="23">
+      <c r="H22" s="64"/>
+      <c r="I22" s="64">
         <v>55.172400000000003</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="63">
         <f>6/13</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="63">
         <f>7/13</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="63">
         <v>78.260900000000007</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="63">
         <v>121</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="63">
         <f t="shared" si="0"/>
         <v>66.716650000000001</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="63">
         <f t="shared" si="3"/>
         <v>18.25</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="60">
         <v>23</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="63">
         <f t="shared" si="2"/>
         <v>0.79347826086956519</v>
       </c>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22">
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="63">
         <v>19</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="63">
         <v>20</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="63">
         <v>22</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="63">
         <v>20</v>
       </c>
-      <c r="AD22" s="8">
+      <c r="AD22" s="65">
         <v>15</v>
       </c>
-      <c r="AE22" s="8">
+      <c r="AE22" s="65">
         <v>16</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AF22" s="65">
         <v>17</v>
       </c>
-      <c r="AG22" s="8">
+      <c r="AG22" s="65">
         <v>17</v>
       </c>
     </row>
@@ -4351,6 +4384,10 @@
       </c>
     </row>
     <row r="33" spans="8:27">
+      <c r="O33">
+        <f>AVERAGE(O3,O5:O16,O18,O20:O21,O23,O25:O26)</f>
+        <v>12.855263157894736</v>
+      </c>
       <c r="V33" t="s">
         <v>12</v>
       </c>
@@ -4372,6 +4409,10 @@
       </c>
     </row>
     <row r="34" spans="8:27">
+      <c r="O34">
+        <f>STDEV(O3,O5:O16,O18,O20:O21,O23,O25:O26)</f>
+        <v>4.2909107663383486</v>
+      </c>
       <c r="V34" t="s">
         <v>13</v>
       </c>
@@ -4821,7 +4862,7 @@
     <mergeCell ref="Z1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4838,7 +4879,7 @@
       <selection activeCell="G4" sqref="G4:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1">
@@ -7562,6 +7603,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7573,7 +7619,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
@@ -8578,18 +8624,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="35" max="35" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="13" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -8916,115 +8967,115 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:39" s="59" customFormat="1">
+      <c r="A4" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="56">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="56">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56">
         <v>7</v>
       </c>
-      <c r="N4" s="1">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="56">
+        <v>5</v>
+      </c>
+      <c r="O4" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="1">
+      <c r="Y4" s="56">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="56">
         <v>6</v>
       </c>
-      <c r="AA4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="AA4" s="56">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="56">
         <v>7</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="56">
         <v>6</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="56">
         <v>6</v>
       </c>
-      <c r="AE4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="AE4" s="56">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="56">
         <v>7</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="32">
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="57">
         <v>42998</v>
       </c>
-      <c r="AJ4" s="37">
+      <c r="AJ4" s="58">
         <v>43018</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="56">
         <f t="shared" ref="AK4:AK28" si="0">DATEDIF(AI4,AJ4,"d")</f>
         <v>20</v>
       </c>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
@@ -10683,115 +10734,115 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:39" s="63" customFormat="1">
+      <c r="A20" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="60">
         <v>118</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="60">
         <v>26</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="60">
         <v>7</v>
       </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="N20" s="60">
+        <v>1</v>
+      </c>
+      <c r="O20" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="60">
         <v>7</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="60">
         <v>6</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20" s="60">
         <v>7</v>
       </c>
-      <c r="AB20" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="1">
+      <c r="AB20" s="60">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="60">
         <v>7</v>
       </c>
-      <c r="AD20" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AD20" s="60">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="60">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="60">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="36">
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="61">
         <v>43242</v>
       </c>
-      <c r="AJ20" s="44">
+      <c r="AJ20" s="62">
         <v>43259</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AK20" s="60">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
@@ -11118,119 +11169,119 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:39" s="63" customFormat="1">
+      <c r="A24" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="60">
         <v>122</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="60">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="60">
         <v>6</v>
       </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="N24" s="60">
+        <v>1</v>
+      </c>
+      <c r="O24" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="Y24" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="1">
+      <c r="Y24" s="60">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="60">
         <v>6</v>
       </c>
-      <c r="AB24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AB24" s="60">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="60">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="60">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="60">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="60">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="36">
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="61">
         <v>43257</v>
       </c>
-      <c r="AJ24" s="44">
+      <c r="AJ24" s="62">
         <v>43280</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AK24" s="60">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
@@ -11732,9 +11783,21 @@
         <v>29</v>
       </c>
     </row>
+    <row r="34" spans="4:4">
+      <c r="D34">
+        <f>AVERAGE(D3,D5:D10,D12:D17,D19,D21:D22,D25,D27:D28)</f>
+        <v>23.157894736842106</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35">
+        <f>STDEV(D3,D5:D10,D12:D17,D19,D21:D22,D25,D27:D28)</f>
+        <v>4.6578864770138519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11751,7 +11814,7 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
@@ -14198,9 +14261,9 @@
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -16911,7 +16974,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="16.5" thickBot="1">
+    <row r="77" spans="1:18" ht="16" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>467</v>
       </c>
@@ -16955,7 +17018,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="16.5" thickBot="1">
+    <row r="78" spans="1:18" ht="16" thickBot="1">
       <c r="A78" s="22">
         <v>43314.561597222222</v>
       </c>
@@ -17078,7 +17141,7 @@
       <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -19544,7 +19607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" thickBot="1">
+    <row r="177" spans="1:4" ht="16" thickBot="1">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -19558,7 +19621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" thickBot="1">
+    <row r="178" spans="1:4" ht="16" thickBot="1">
       <c r="A178" s="19">
         <v>4</v>
       </c>
@@ -20454,7 +20517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" thickBot="1">
+    <row r="242" spans="1:4" ht="16" thickBot="1">
       <c r="A242" s="1">
         <v>4</v>
       </c>
@@ -20468,7 +20531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" thickBot="1">
+    <row r="243" spans="1:4" ht="16" thickBot="1">
       <c r="A243" s="19">
         <v>4</v>
       </c>
@@ -20484,5 +20547,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28300" yWindow="1200" windowWidth="23660" windowHeight="16520" tabRatio="592"/>
+    <workbookView xWindow="1080" yWindow="400" windowWidth="27080" windowHeight="14600" tabRatio="592" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="484">
   <si>
     <t>ID</t>
   </si>
@@ -1486,12 +1486,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1637,6 +1638,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1694,7 +1703,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1722,8 +1731,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1783,15 +1798,6 @@
     <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1805,8 +1811,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1820,6 +1836,9 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1833,6 +1852,9 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2103,7 +2125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2113,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O35" sqref="O35"/>
     </sheetView>
@@ -2129,26 +2151,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="54" t="s">
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
@@ -2330,86 +2352,86 @@
       <c r="AF3" s="14"/>
       <c r="AG3" s="14"/>
     </row>
-    <row r="4" spans="1:33" s="63" customFormat="1">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:33" s="60" customFormat="1">
+      <c r="A4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="60">
         <v>37.930999999999997</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="60">
         <v>42.3</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="60">
         <v>80</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="60">
         <v>100</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="60">
         <v>100</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="60">
         <v>100</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="60">
         <v>100</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="60">
         <f>9/17</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="60">
         <f>11/13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="60">
         <v>95.652199999999993</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="60">
         <v>58</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="60">
         <f t="shared" ref="N4:N26" si="0">AVERAGE(I4,L4)</f>
         <v>97.826099999999997</v>
       </c>
-      <c r="O4" s="63">
+      <c r="O4" s="60">
         <f t="shared" ref="O4:O15" si="1">AVERAGE(R4:AG4)</f>
         <v>14.375</v>
       </c>
-      <c r="P4" s="60">
+      <c r="P4" s="57">
         <v>20</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="60">
         <f t="shared" ref="Q4:Q26" si="2">O4/P4</f>
         <v>0.71875</v>
       </c>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="66">
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="63">
         <v>16</v>
       </c>
-      <c r="AA4" s="67">
+      <c r="AA4" s="64">
         <v>14</v>
       </c>
-      <c r="AB4" s="67">
+      <c r="AB4" s="64">
         <v>14</v>
       </c>
-      <c r="AC4" s="67">
+      <c r="AC4" s="64">
         <v>14</v>
       </c>
-      <c r="AD4" s="68">
+      <c r="AD4" s="65">
         <v>14</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AE4" s="65">
         <v>13</v>
       </c>
-      <c r="AF4" s="68">
+      <c r="AF4" s="65">
         <v>15</v>
       </c>
-      <c r="AG4" s="68">
+      <c r="AG4" s="65">
         <v>15</v>
       </c>
     </row>
@@ -3579,82 +3601,82 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:33" s="63" customFormat="1">
-      <c r="A19" s="63" t="s">
+    <row r="19" spans="1:33" s="60" customFormat="1">
+      <c r="A19" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="60">
         <v>51.7241</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="60">
         <v>55.5</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="60">
         <v>30</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="60">
         <v>70</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="60">
         <v>70</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="60">
         <v>70</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="60">
         <v>58.620699999999999</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="60">
         <f>9/17</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="60">
         <v>78.260900000000007</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="60">
         <v>111</v>
       </c>
-      <c r="N19" s="63">
+      <c r="N19" s="60">
         <f t="shared" si="0"/>
         <v>68.440799999999996</v>
       </c>
-      <c r="O19" s="63">
+      <c r="O19" s="60">
         <f t="shared" si="3"/>
         <v>3.875</v>
       </c>
-      <c r="P19" s="60">
+      <c r="P19" s="57">
         <v>17</v>
       </c>
-      <c r="Q19" s="63">
+      <c r="Q19" s="60">
         <f t="shared" si="2"/>
         <v>0.22794117647058823</v>
       </c>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="63">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="63">
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="60">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="60">
         <v>6</v>
       </c>
-      <c r="AB19" s="63">
-        <v>4</v>
-      </c>
-      <c r="AC19" s="63">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="65">
+      <c r="AB19" s="60">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="60">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="62">
         <v>6</v>
       </c>
-      <c r="AE19" s="65">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="65">
-        <v>5</v>
-      </c>
-      <c r="AG19" s="65">
+      <c r="AE19" s="62">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="62">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="62">
         <v>1</v>
       </c>
     </row>
@@ -3816,84 +3838,84 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="63" customFormat="1">
-      <c r="A22" s="63" t="s">
+    <row r="22" spans="1:33" s="60" customFormat="1">
+      <c r="A22" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="60">
         <v>27.586200000000002</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="60">
         <v>60</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="60">
         <v>50</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="60">
         <v>80</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="60">
         <v>70</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64">
+      <c r="H22" s="61"/>
+      <c r="I22" s="61">
         <v>55.172400000000003</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="60">
         <f>6/13</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="60">
         <f>7/13</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="60">
         <v>78.260900000000007</v>
       </c>
-      <c r="M22" s="63">
+      <c r="M22" s="60">
         <v>121</v>
       </c>
-      <c r="N22" s="63">
+      <c r="N22" s="60">
         <f t="shared" si="0"/>
         <v>66.716650000000001</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="60">
         <f t="shared" si="3"/>
         <v>18.25</v>
       </c>
-      <c r="P22" s="60">
+      <c r="P22" s="57">
         <v>23</v>
       </c>
-      <c r="Q22" s="63">
+      <c r="Q22" s="60">
         <f t="shared" si="2"/>
         <v>0.79347826086956519</v>
       </c>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="63">
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="60">
         <v>19</v>
       </c>
-      <c r="AA22" s="63">
+      <c r="AA22" s="60">
         <v>20</v>
       </c>
-      <c r="AB22" s="63">
+      <c r="AB22" s="60">
         <v>22</v>
       </c>
-      <c r="AC22" s="63">
+      <c r="AC22" s="60">
         <v>20</v>
       </c>
-      <c r="AD22" s="65">
+      <c r="AD22" s="62">
         <v>15</v>
       </c>
-      <c r="AE22" s="65">
+      <c r="AE22" s="62">
         <v>16</v>
       </c>
-      <c r="AF22" s="65">
+      <c r="AF22" s="62">
         <v>17</v>
       </c>
-      <c r="AG22" s="65">
+      <c r="AG22" s="62">
         <v>17</v>
       </c>
     </row>
@@ -8967,115 +8989,115 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" s="59" customFormat="1">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:39" s="56" customFormat="1">
+      <c r="A4" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="53">
         <v>102</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="53">
         <v>39</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56">
+      <c r="L4" s="53"/>
+      <c r="M4" s="53">
         <v>7</v>
       </c>
-      <c r="N4" s="56">
-        <v>5</v>
-      </c>
-      <c r="O4" s="56" t="s">
+      <c r="N4" s="53">
+        <v>5</v>
+      </c>
+      <c r="O4" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="56" t="s">
+      <c r="P4" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="S4" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="T4" s="56" t="s">
+      <c r="T4" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="W4" s="56" t="s">
+      <c r="W4" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="56" t="s">
+      <c r="X4" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="56">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="56">
+      <c r="Y4" s="53">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="53">
         <v>6</v>
       </c>
-      <c r="AA4" s="56">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="56">
+      <c r="AA4" s="53">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="53">
         <v>7</v>
       </c>
-      <c r="AC4" s="56">
+      <c r="AC4" s="53">
         <v>6</v>
       </c>
-      <c r="AD4" s="56">
+      <c r="AD4" s="53">
         <v>6</v>
       </c>
-      <c r="AE4" s="56">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="56">
+      <c r="AE4" s="53">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="53">
         <v>7</v>
       </c>
-      <c r="AG4" s="56" t="s">
+      <c r="AG4" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="57">
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="54">
         <v>42998</v>
       </c>
-      <c r="AJ4" s="58">
+      <c r="AJ4" s="55">
         <v>43018</v>
       </c>
-      <c r="AK4" s="56">
+      <c r="AK4" s="53">
         <f t="shared" ref="AK4:AK28" si="0">DATEDIF(AI4,AJ4,"d")</f>
         <v>20</v>
       </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
@@ -10734,115 +10756,115 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" s="63" customFormat="1">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:39" s="60" customFormat="1">
+      <c r="A20" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="57">
         <v>118</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="57">
         <v>26</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="60" t="s">
+      <c r="K20" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="57">
         <v>7</v>
       </c>
-      <c r="N20" s="60">
-        <v>1</v>
-      </c>
-      <c r="O20" s="60" t="s">
+      <c r="N20" s="57">
+        <v>1</v>
+      </c>
+      <c r="O20" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60" t="s">
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="S20" s="60" t="s">
+      <c r="S20" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="T20" s="60" t="s">
+      <c r="T20" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="U20" s="60" t="s">
+      <c r="U20" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="V20" s="60" t="s">
+      <c r="V20" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="W20" s="60" t="s">
+      <c r="W20" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="X20" s="60" t="s">
+      <c r="X20" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="Y20" s="60">
+      <c r="Y20" s="57">
         <v>7</v>
       </c>
-      <c r="Z20" s="60">
+      <c r="Z20" s="57">
         <v>6</v>
       </c>
-      <c r="AA20" s="60">
+      <c r="AA20" s="57">
         <v>7</v>
       </c>
-      <c r="AB20" s="60">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="60">
+      <c r="AB20" s="57">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="57">
         <v>7</v>
       </c>
-      <c r="AD20" s="60">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="60">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="60">
-        <v>5</v>
-      </c>
-      <c r="AG20" s="60" t="s">
+      <c r="AD20" s="57">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="57">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="57">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="61">
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="58">
         <v>43242</v>
       </c>
-      <c r="AJ20" s="62">
+      <c r="AJ20" s="59">
         <v>43259</v>
       </c>
-      <c r="AK20" s="60">
+      <c r="AK20" s="57">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AL20" s="60"/>
-      <c r="AM20" s="60"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
@@ -11169,119 +11191,119 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39" s="63" customFormat="1">
-      <c r="A24" s="60" t="s">
+    <row r="24" spans="1:39" s="60" customFormat="1">
+      <c r="A24" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="57">
         <v>122</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="57">
         <v>27</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="57">
         <v>6</v>
       </c>
-      <c r="N24" s="60">
-        <v>1</v>
-      </c>
-      <c r="O24" s="60" t="s">
+      <c r="N24" s="57">
+        <v>1</v>
+      </c>
+      <c r="O24" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="60" t="s">
+      <c r="P24" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="Q24" s="60" t="s">
+      <c r="Q24" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="R24" s="60" t="s">
+      <c r="R24" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="S24" s="60" t="s">
+      <c r="S24" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="T24" s="60" t="s">
+      <c r="T24" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="U24" s="60" t="s">
+      <c r="U24" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="V24" s="60" t="s">
+      <c r="V24" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="W24" s="60" t="s">
+      <c r="W24" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="X24" s="60" t="s">
+      <c r="X24" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="Y24" s="60">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="60">
+      <c r="Y24" s="57">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="57">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="57">
         <v>6</v>
       </c>
-      <c r="AB24" s="60">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="60">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="60">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="60">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="60">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="60" t="s">
+      <c r="AB24" s="57">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="57">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="57">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="57">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="57">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="61">
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="58">
         <v>43257</v>
       </c>
-      <c r="AJ24" s="62">
+      <c r="AJ24" s="59">
         <v>43280</v>
       </c>
-      <c r="AK24" s="60">
+      <c r="AK24" s="57">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="60"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
@@ -11810,8 +11832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="B61" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14245,6 +14267,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14255,10 +14278,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14267,81 +14290,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="E1" t="s">
+      <c r="E1" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -14350,7 +14361,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -14359,7 +14370,7 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -14370,16 +14381,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -14408,16 +14419,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -14446,92 +14457,92 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>102</v>
       </c>
       <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -14543,7 +14554,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -14560,28 +14571,28 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -14590,147 +14601,147 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>104</v>
       </c>
       <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
         <v>190</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -14739,10 +14750,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>4</v>
@@ -14750,16 +14761,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -14771,16 +14782,16 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -14788,25 +14799,25 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -14815,10 +14826,10 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -14826,101 +14837,95 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>106</v>
       </c>
       <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="1">
-        <v>108</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="1">
         <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -14932,7 +14937,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1">
         <v>4</v>
@@ -14952,19 +14957,19 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B22" s="1">
         <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
@@ -14976,7 +14981,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1">
         <v>4</v>
@@ -14996,16 +15001,16 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" s="1">
         <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -15020,7 +15025,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
@@ -15040,16 +15045,16 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B24" s="1">
         <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -15082,74 +15087,74 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" s="1">
-        <v>110</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="1">
+        <v>108</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B27" s="1">
         <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1">
         <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>5</v>
@@ -15158,7 +15163,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -15172,22 +15177,22 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" s="1">
         <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
         <v>4</v>
@@ -15202,7 +15207,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" s="1">
         <v>1</v>
@@ -15216,16 +15221,16 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B29" s="1">
         <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
@@ -15237,7 +15242,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1">
         <v>5</v>
@@ -15260,28 +15265,28 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1">
         <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1">
         <v>4</v>
       </c>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
@@ -15290,7 +15295,7 @@
         <v>5</v>
       </c>
       <c r="K30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
@@ -15302,74 +15307,74 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B32" s="1">
-        <v>112</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>3</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5</v>
-      </c>
-      <c r="J32" s="1">
-        <v>5</v>
-      </c>
-      <c r="K32" s="1">
-        <v>4</v>
-      </c>
-      <c r="L32" s="1">
-        <v>3</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="1">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B33" s="1">
         <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="E33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1">
         <v>5</v>
@@ -15392,19 +15397,19 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B34" s="1">
         <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="E34" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -15413,7 +15418,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1">
         <v>5</v>
@@ -15425,7 +15430,7 @@
         <v>4</v>
       </c>
       <c r="L34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -15436,16 +15441,16 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" s="1">
         <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -15457,7 +15462,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="1">
         <v>5</v>
@@ -15466,10 +15471,10 @@
         <v>5</v>
       </c>
       <c r="K35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -15480,19 +15485,19 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B36" s="1">
         <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
@@ -15510,7 +15515,7 @@
         <v>5</v>
       </c>
       <c r="K36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="1">
         <v>3</v>
@@ -15522,62 +15527,62 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B38" s="1">
-        <v>114</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="1">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="1">
         <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -15592,10 +15597,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
@@ -15612,16 +15617,16 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="1">
         <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -15656,16 +15661,16 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41" s="1">
         <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>210</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -15700,22 +15705,22 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B42" s="1">
         <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -15724,10 +15729,10 @@
         <v>1</v>
       </c>
       <c r="I42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
@@ -15742,68 +15747,68 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B44" s="1">
-        <v>116</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="1">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1">
-        <v>4</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>3</v>
-      </c>
-      <c r="J44" s="1">
-        <v>3</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="1">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B45" s="1">
         <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
         <v>2</v>
@@ -15812,13 +15817,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1">
         <v>1</v>
@@ -15832,19 +15837,19 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B46" s="1">
         <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>433</v>
+        <v>254</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1">
         <v>5</v>
@@ -15876,16 +15881,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B47" s="1">
         <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4</v>
+        <v>352</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
@@ -15900,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1">
         <v>2</v>
@@ -15920,16 +15925,16 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B48" s="1">
         <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>435</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -15962,83 +15967,83 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B50" s="1">
-        <v>118</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1">
-        <v>4</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
-      </c>
-      <c r="I50" s="1">
-        <v>2</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
+    <row r="49" spans="1:18">
+      <c r="A49" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B49" s="1">
+        <v>116</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B51" s="1">
         <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1">
         <v>1</v>
       </c>
       <c r="I51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1">
         <v>1</v>
@@ -16052,25 +16057,25 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B52" s="1">
         <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="D52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -16096,25 +16101,25 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" s="1">
         <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>441</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1">
         <v>5</v>
       </c>
       <c r="G53" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
         <v>1</v>
@@ -16123,7 +16128,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K53" s="1">
         <v>3</v>
@@ -16140,19 +16145,19 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B54" s="1">
         <v>118</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
@@ -16182,86 +16187,86 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B56" s="1">
-        <v>120</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1">
-        <v>4</v>
-      </c>
-      <c r="G56" s="1">
-        <v>4</v>
-      </c>
-      <c r="H56" s="1">
-        <v>3</v>
-      </c>
-      <c r="I56" s="1">
-        <v>3</v>
-      </c>
-      <c r="J56" s="1">
-        <v>3</v>
-      </c>
-      <c r="K56" s="1">
-        <v>3</v>
-      </c>
-      <c r="L56" s="1">
-        <v>3</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+    <row r="55" spans="1:18">
+      <c r="A55" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="1">
+        <v>118</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>3</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" s="1">
         <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="1">
         <v>3</v>
       </c>
       <c r="J57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" s="1">
         <v>3</v>
       </c>
       <c r="L57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -16272,25 +16277,25 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" s="1">
         <v>120</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="1">
         <v>2</v>
@@ -16316,25 +16321,25 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" s="1">
         <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>213</v>
+        <v>410</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="1">
         <v>2</v>
@@ -16360,16 +16365,16 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B60" s="1">
         <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -16384,7 +16389,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1">
         <v>2</v>
@@ -16402,68 +16407,68 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B62" s="1">
-        <v>122</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>3</v>
-      </c>
-      <c r="F62" s="1">
-        <v>3</v>
-      </c>
-      <c r="G62" s="1">
-        <v>2</v>
-      </c>
-      <c r="H62" s="1">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1">
-        <v>2</v>
-      </c>
-      <c r="J62" s="1">
-        <v>2</v>
-      </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+    <row r="61" spans="1:18">
+      <c r="A61" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B61" s="1">
+        <v>120</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>4</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>3</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" s="1">
         <v>122</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" s="1">
         <v>2</v>
@@ -16475,13 +16480,13 @@
         <v>2</v>
       </c>
       <c r="J63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -16492,22 +16497,22 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="1">
         <v>122</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1">
         <v>2</v>
@@ -16519,7 +16524,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K64" s="1">
         <v>3</v>
@@ -16536,16 +16541,16 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="1">
         <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>213</v>
+        <v>408</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -16554,10 +16559,10 @@
         <v>3</v>
       </c>
       <c r="G65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="1">
         <v>2</v>
@@ -16566,7 +16571,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65" s="1">
         <v>2</v>
@@ -16580,16 +16585,16 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" s="1">
         <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -16598,16 +16603,16 @@
         <v>3</v>
       </c>
       <c r="G66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" s="1">
         <v>1</v>
       </c>
       <c r="I66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
@@ -16622,65 +16627,65 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B68" s="1">
-        <v>124</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1">
-        <v>3</v>
-      </c>
-      <c r="F68" s="1">
-        <v>4</v>
-      </c>
-      <c r="G68" s="1">
-        <v>4</v>
-      </c>
-      <c r="H68" s="1">
-        <v>4</v>
-      </c>
-      <c r="I68" s="1">
-        <v>3</v>
-      </c>
-      <c r="J68" s="1">
-        <v>3</v>
-      </c>
-      <c r="K68" s="1">
-        <v>4</v>
-      </c>
-      <c r="L68" s="1">
-        <v>2</v>
-      </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
+    <row r="67" spans="1:18">
+      <c r="A67" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67" s="1">
+        <v>122</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69" s="1">
         <v>124</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1">
         <v>4</v>
@@ -16689,7 +16694,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I69" s="1">
         <v>3</v>
@@ -16698,10 +16703,10 @@
         <v>3</v>
       </c>
       <c r="K69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -16712,16 +16717,16 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" s="1">
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="D70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="1">
         <v>4</v>
@@ -16730,13 +16735,13 @@
         <v>4</v>
       </c>
       <c r="G70" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1">
         <v>3</v>
@@ -16745,7 +16750,7 @@
         <v>3</v>
       </c>
       <c r="L70" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -16756,16 +16761,16 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B71" s="1">
         <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="D71" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1">
         <v>4</v>
@@ -16774,7 +16779,7 @@
         <v>4</v>
       </c>
       <c r="G71" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1">
         <v>4</v>
@@ -16800,19 +16805,19 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B72" s="1">
         <v>124</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>67</v>
+        <v>416</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1">
         <v>4</v>
@@ -16827,10 +16832,10 @@
         <v>4</v>
       </c>
       <c r="J72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
@@ -16842,71 +16847,71 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="74" spans="1:18">
-      <c r="A74" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B74" s="1">
-        <v>126</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1">
-        <v>3</v>
-      </c>
-      <c r="G74" s="1">
-        <v>2</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1</v>
-      </c>
-      <c r="I74" s="1">
-        <v>3</v>
-      </c>
-      <c r="J74" s="1">
-        <v>3</v>
-      </c>
-      <c r="K74" s="1">
-        <v>4</v>
-      </c>
-      <c r="L74" s="1">
-        <v>1</v>
-      </c>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
+    <row r="73" spans="1:18">
+      <c r="A73" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="1">
+        <v>124</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B75" s="1">
         <v>126</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" s="1">
         <v>1</v>
@@ -16915,10 +16920,10 @@
         <v>3</v>
       </c>
       <c r="J75" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L75" s="1">
         <v>1</v>
@@ -16932,16 +16937,16 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B76" s="1">
         <v>126</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -16950,16 +16955,16 @@
         <v>4</v>
       </c>
       <c r="G76" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" s="1">
         <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76" s="1">
         <v>3</v>
@@ -16974,39 +16979,39 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="16" thickBot="1">
+    <row r="77" spans="1:18">
       <c r="A77" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B77" s="1">
         <v>126</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>213</v>
+        <v>466</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
       </c>
       <c r="E77" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G77" s="1">
         <v>4</v>
       </c>
       <c r="H77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1">
         <v>4</v>
       </c>
       <c r="J77" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K77" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L77" s="1">
         <v>1</v>
@@ -17019,106 +17024,150 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="16" thickBot="1">
-      <c r="A78" s="22">
+      <c r="A78" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B78" s="1">
+        <v>126</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>4</v>
+      </c>
+      <c r="J78" s="1">
+        <v>5</v>
+      </c>
+      <c r="K78" s="1">
+        <v>4</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" ht="16" thickBot="1">
+      <c r="A79" s="22">
         <v>43314.561597222222</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B79" s="19">
         <v>126</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C79" s="20">
         <v>43314</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D79" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="19">
-        <v>5</v>
-      </c>
-      <c r="F78" s="19">
-        <v>5</v>
-      </c>
-      <c r="G78" s="19">
-        <v>4</v>
-      </c>
-      <c r="H78" s="19">
-        <v>2</v>
-      </c>
-      <c r="I78" s="19">
-        <v>4</v>
-      </c>
-      <c r="J78" s="19">
-        <v>5</v>
-      </c>
-      <c r="K78" s="19">
-        <v>4</v>
-      </c>
-      <c r="L78" s="19">
-        <v>2</v>
-      </c>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="E80">
-        <f>AVERAGE(E2:E78)</f>
+      <c r="E79" s="19">
+        <v>5</v>
+      </c>
+      <c r="F79" s="19">
+        <v>5</v>
+      </c>
+      <c r="G79" s="19">
+        <v>4</v>
+      </c>
+      <c r="H79" s="19">
+        <v>2</v>
+      </c>
+      <c r="I79" s="19">
+        <v>4</v>
+      </c>
+      <c r="J79" s="19">
+        <v>5</v>
+      </c>
+      <c r="K79" s="19">
+        <v>4</v>
+      </c>
+      <c r="L79" s="19">
+        <v>2</v>
+      </c>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+    </row>
+    <row r="81" spans="5:12">
+      <c r="E81">
+        <f>AVERAGE(E3:E79)</f>
         <v>3.3076923076923075</v>
       </c>
-      <c r="F80">
-        <f t="shared" ref="F80:L80" si="0">AVERAGE(F2:F78)</f>
+      <c r="F81">
+        <f t="shared" ref="F81:L81" si="0">AVERAGE(F3:F79)</f>
         <v>3.9846153846153847</v>
       </c>
-      <c r="G80">
+      <c r="G81">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="H80">
+      <c r="H81">
         <f t="shared" si="0"/>
         <v>2.0769230769230771</v>
       </c>
-      <c r="I80">
+      <c r="I81">
         <f t="shared" si="0"/>
         <v>3.523076923076923</v>
       </c>
-      <c r="J80">
+      <c r="J81">
         <f t="shared" si="0"/>
         <v>3.5076923076923077</v>
       </c>
-      <c r="K80">
+      <c r="K81">
         <f t="shared" si="0"/>
         <v>2.6923076923076925</v>
       </c>
-      <c r="L80">
+      <c r="L81">
         <f t="shared" si="0"/>
         <v>1.7692307692307692</v>
       </c>
     </row>
-    <row r="81" spans="5:12">
-      <c r="E81" t="s">
+    <row r="82" spans="5:12">
+      <c r="E82" t="s">
         <v>316</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>314</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>313</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>315</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I82" t="s">
         <v>316</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J82" t="s">
         <v>314</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K82" t="s">
         <v>313</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L82" t="s">
         <v>315</v>
       </c>
     </row>

--- a/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/BehaviouralResults-AllParticipants.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject\Music and Memory\BehaviouralResults\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="400" windowWidth="27080" windowHeight="14600" tabRatio="592" activeTab="5"/>
+    <workbookView xWindow="1080" yWindow="405" windowWidth="27075" windowHeight="14595" tabRatio="592"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Group B - pref" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1482,11 +1487,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1811,6 +1816,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1820,7 +1826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2125,7 +2130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2135,42 +2140,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="67" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
@@ -4901,7 +4906,7 @@
       <selection activeCell="G4" sqref="G4:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1">
@@ -7641,7 +7646,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
@@ -8649,20 +8654,22 @@
   <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="13" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="13" max="14" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
+    <col min="25" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" customWidth="1"/>
-    <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -11819,7 +11826,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11832,11 +11839,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
@@ -14280,38 +14287,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F5" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="66" t="s">
         <v>315</v>
       </c>
     </row>
@@ -17023,7 +17030,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="16" thickBot="1">
+    <row r="78" spans="1:18" ht="16.5" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>467</v>
       </c>
@@ -17067,7 +17074,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" ht="16" thickBot="1">
+    <row r="79" spans="1:18" ht="16.5" thickBot="1">
       <c r="A79" s="22">
         <v>43314.561597222222</v>
       </c>
@@ -17186,11 +17193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -19656,7 +19663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16" thickBot="1">
+    <row r="177" spans="1:4" ht="16.5" thickBot="1">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -19670,7 +19677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16" thickBot="1">
+    <row r="178" spans="1:4" ht="16.5" thickBot="1">
       <c r="A178" s="19">
         <v>4</v>
       </c>
@@ -20566,7 +20573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16" thickBot="1">
+    <row r="242" spans="1:4" ht="16.5" thickBot="1">
       <c r="A242" s="1">
         <v>4</v>
       </c>
@@ -20580,7 +20587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16" thickBot="1">
+    <row r="243" spans="1:4" ht="16.5" thickBot="1">
       <c r="A243" s="19">
         <v>4</v>
       </c>
